--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$V$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$W$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -197,16 +197,19 @@
     <t>Unit: In million Philippine pesos</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -627,18 +630,18 @@
   </sheetPr>
   <dimension ref="A1:CR174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
-    <col min="2" max="22" width="11.08984375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="1"/>
+    <col min="2" max="23" width="11.08984375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -663,7 +666,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -696,6 +699,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -762,6 +766,9 @@
       <c r="V10" s="6">
         <v>2020</v>
       </c>
+      <c r="W10" s="6">
+        <v>2021</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -833,7 +840,9 @@
       <c r="V12" s="8">
         <v>90395.381210129301</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>92757.442137406659</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -975,7 +984,9 @@
       <c r="V13" s="8">
         <v>2213.1901790536112</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="8">
+        <v>2538.3412294439458</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1117,7 +1128,9 @@
       <c r="V14" s="8">
         <v>141197.18419468711</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="8">
+        <v>69992.281433652839</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1259,7 +1272,9 @@
       <c r="V15" s="8">
         <v>11164.472346081724</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="8">
+        <v>14018.901438119232</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1401,7 +1416,9 @@
       <c r="V16" s="8">
         <v>311112.22161216714</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="8">
+        <v>347461.04992419295</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1543,7 +1560,9 @@
       <c r="V17" s="8">
         <v>1167441.5479860404</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="8">
+        <v>1249225.120524155</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1685,7 +1704,9 @@
       <c r="V18" s="8">
         <v>219288.78698413412</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="8">
+        <v>261008.48142402642</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1827,7 +1848,9 @@
       <c r="V19" s="8">
         <v>23688.48447127796</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="8">
+        <v>30658.160089815945</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2067,7 +2090,9 @@
       <c r="V21" s="12">
         <v>1966501.2689835716</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="12">
+        <v>2067659.7782008129</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2165,6 +2190,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -2379,7 +2405,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
@@ -2389,7 +2415,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
@@ -2422,6 +2448,7 @@
       <c r="T34" s="15"/>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2488,6 +2515,9 @@
       <c r="V35" s="16">
         <v>2020</v>
       </c>
+      <c r="W35" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
@@ -2559,7 +2589,9 @@
       <c r="V37" s="8">
         <v>86109.804933270687</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="8">
+        <v>81437.000300103056</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -2701,7 +2733,9 @@
       <c r="V38" s="8">
         <v>2120.1959742149384</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="8">
+        <v>2350.3636537259963</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -2843,7 +2877,9 @@
       <c r="V39" s="8">
         <v>134348.40747638891</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="8">
+        <v>63741.972317840198</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -2985,7 +3021,9 @@
       <c r="V40" s="8">
         <v>10749.956902988291</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="8">
+        <v>13165.336068742119</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -3127,7 +3165,9 @@
       <c r="V41" s="8">
         <v>309173.75515932555</v>
       </c>
-      <c r="W41" s="9"/>
+      <c r="W41" s="8">
+        <v>344526.5416866506</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -3269,7 +3309,9 @@
       <c r="V42" s="8">
         <v>1118597.2650521125</v>
       </c>
-      <c r="W42" s="9"/>
+      <c r="W42" s="8">
+        <v>1158802.5767887656</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -3411,7 +3453,9 @@
       <c r="V43" s="8">
         <v>210427.44472362762</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="8">
+        <v>242256.2518033802</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -3553,7 +3597,9 @@
       <c r="V44" s="8">
         <v>22703.586260621472</v>
       </c>
-      <c r="W44" s="9"/>
+      <c r="W44" s="8">
+        <v>28422.162371989871</v>
+      </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -3793,7 +3839,9 @@
       <c r="V46" s="12">
         <v>1894230.4164825499</v>
       </c>
-      <c r="W46" s="9"/>
+      <c r="W46" s="12">
+        <v>1934702.2049911974</v>
+      </c>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -3891,6 +3939,7 @@
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
@@ -4105,7 +4154,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
@@ -4115,7 +4164,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.25">
@@ -4147,6 +4196,8 @@
       <c r="S59" s="15"/>
       <c r="T59" s="15"/>
       <c r="U59" s="15"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
@@ -4208,8 +4259,12 @@
         <v>19</v>
       </c>
       <c r="U60" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="V60" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W60" s="16"/>
     </row>
     <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
@@ -4278,7 +4333,10 @@
       <c r="U62" s="17">
         <v>-46.944832163524694</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="V62" s="17">
+        <v>2.6130327630198309</v>
+      </c>
+      <c r="W62" s="17"/>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -4412,7 +4470,10 @@
       <c r="U63" s="17">
         <v>-12.909033511135533</v>
       </c>
-      <c r="W63" s="9"/>
+      <c r="V63" s="17">
+        <v>14.69150972508713</v>
+      </c>
+      <c r="W63" s="17"/>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -4546,7 +4607,10 @@
       <c r="U64" s="17">
         <v>-75.572565025050125</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="V64" s="17">
+        <v>-50.429407050253012</v>
+      </c>
+      <c r="W64" s="17"/>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -4680,7 +4744,10 @@
       <c r="U65" s="17">
         <v>11.131302263520098</v>
       </c>
-      <c r="W65" s="9"/>
+      <c r="V65" s="17">
+        <v>25.567075662463324</v>
+      </c>
+      <c r="W65" s="17"/>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -4814,7 +4881,10 @@
       <c r="U66" s="17">
         <v>-15.091809035124044</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="V66" s="17">
+        <v>11.683510253524631</v>
+      </c>
+      <c r="W66" s="17"/>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -4948,7 +5018,10 @@
       <c r="U67" s="17">
         <v>-1.6646514595945519</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="V67" s="17">
+        <v>7.0053676502433717</v>
+      </c>
+      <c r="W67" s="17"/>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -5082,7 +5155,10 @@
       <c r="U68" s="17">
         <v>-11.450761639031072</v>
       </c>
-      <c r="W68" s="9"/>
+      <c r="V68" s="17">
+        <v>19.025001238622735</v>
+      </c>
+      <c r="W68" s="17"/>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -5216,7 +5292,10 @@
       <c r="U69" s="17">
         <v>-34.02852182691656</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="V69" s="17">
+        <v>29.422209880031147</v>
+      </c>
+      <c r="W69" s="17"/>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -5308,6 +5387,7 @@
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
       <c r="W70" s="9"/>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -5442,7 +5522,10 @@
       <c r="U71" s="17">
         <v>-24.311838682733494</v>
       </c>
-      <c r="W71" s="9"/>
+      <c r="V71" s="17">
+        <v>5.1440856313063676</v>
+      </c>
+      <c r="W71" s="17"/>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -5534,6 +5617,8 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
       <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
@@ -5562,6 +5647,7 @@
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
       <c r="W74" s="9"/>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -5654,6 +5740,7 @@
       <c r="S75" s="9"/>
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
       <c r="W75" s="9"/>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -5736,7 +5823,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.25">
@@ -5746,7 +5833,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.25">
@@ -5778,6 +5865,8 @@
       <c r="S84" s="15"/>
       <c r="T84" s="15"/>
       <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
@@ -5839,8 +5928,12 @@
         <v>19</v>
       </c>
       <c r="U85" s="16" t="s">
-        <v>49</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="V85" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W85" s="16"/>
     </row>
     <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
@@ -5909,7 +6002,10 @@
       <c r="U87" s="17">
         <v>-48.905918282093253</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="V87" s="17">
+        <v>-5.426565112751959</v>
+      </c>
+      <c r="W87" s="17"/>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -6043,7 +6139,10 @@
       <c r="U88" s="17">
         <v>-14.627815450960696</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="V88" s="17">
+        <v>10.855962482255151</v>
+      </c>
+      <c r="W88" s="17"/>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -6177,7 +6276,10 @@
       <c r="U89" s="17">
         <v>-76.177052263864695</v>
       </c>
-      <c r="W89" s="9"/>
+      <c r="V89" s="17">
+        <v>-52.554724305874231</v>
+      </c>
+      <c r="W89" s="17"/>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
@@ -6311,7 +6413,10 @@
       <c r="U90" s="17">
         <v>9.5161523476868126</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="V90" s="17">
+        <v>22.468733480060706</v>
+      </c>
+      <c r="W90" s="17"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -6445,7 +6550,10 @@
       <c r="U91" s="17">
         <v>-15.352420457741786</v>
       </c>
-      <c r="W91" s="9"/>
+      <c r="V91" s="17">
+        <v>11.434601397232697</v>
+      </c>
+      <c r="W91" s="17"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -6579,7 +6687,10 @@
       <c r="U92" s="17">
         <v>-3.6032116527295557</v>
       </c>
-      <c r="W92" s="9"/>
+      <c r="V92" s="17">
+        <v>3.5942615803535034</v>
+      </c>
+      <c r="W92" s="17"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -6713,7 +6824,10 @@
       <c r="U93" s="17">
         <v>-13.056608112123143</v>
       </c>
-      <c r="W93" s="9"/>
+      <c r="V93" s="17">
+        <v>15.125787000624413</v>
+      </c>
+      <c r="W93" s="17"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -6847,7 +6961,10 @@
       <c r="U94" s="17">
         <v>-35.296663164065066</v>
       </c>
-      <c r="W94" s="9"/>
+      <c r="V94" s="17">
+        <v>25.187985923118489</v>
+      </c>
+      <c r="W94" s="17"/>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -6939,6 +7056,7 @@
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
       <c r="W95" s="9"/>
       <c r="X95" s="9"/>
       <c r="Y95" s="9"/>
@@ -7073,7 +7191,10 @@
       <c r="U96" s="17">
         <v>-25.645040236621469</v>
       </c>
-      <c r="W96" s="9"/>
+      <c r="V96" s="17">
+        <v>2.1365821262547797</v>
+      </c>
+      <c r="W96" s="17"/>
       <c r="X96" s="9"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
@@ -7165,6 +7286,8 @@
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
       <c r="U97" s="13"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="13"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
@@ -7193,6 +7316,7 @@
       <c r="S99" s="9"/>
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
       <c r="W99" s="9"/>
       <c r="X99" s="9"/>
       <c r="Y99" s="9"/>
@@ -7285,6 +7409,7 @@
       <c r="S100" s="9"/>
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
       <c r="W100" s="9"/>
       <c r="X100" s="9"/>
       <c r="Y100" s="9"/>
@@ -7363,7 +7488,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -7373,7 +7498,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -7406,6 +7531,7 @@
       <c r="T108" s="15"/>
       <c r="U108" s="15"/>
       <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -7472,6 +7598,9 @@
       <c r="V109" s="16">
         <v>2020</v>
       </c>
+      <c r="W109" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
@@ -7543,7 +7672,9 @@
       <c r="V111" s="17">
         <v>104.97687374879045</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="W111" s="17">
+        <v>113.90085808119983</v>
+      </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -7685,7 +7816,9 @@
       <c r="V112" s="17">
         <v>104.38611364089145</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="W112" s="17">
+        <v>107.99780814428233</v>
+      </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -7827,7 +7960,9 @@
       <c r="V113" s="17">
         <v>105.0977729077301</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="W113" s="17">
+        <v>109.80564122591998</v>
+      </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -7969,7 +8104,9 @@
       <c r="V114" s="17">
         <v>103.85597306886136</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="W114" s="17">
+        <v>106.48343016023492</v>
+      </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -8111,7 +8248,9 @@
       <c r="V115" s="17">
         <v>100.62698286012105</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="W115" s="17">
+        <v>100.85175099229693</v>
+      </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -8253,7 +8392,9 @@
       <c r="V116" s="17">
         <v>104.3665655602736</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="W116" s="17">
+        <v>107.80310171435458</v>
+      </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -8395,7 +8536,9 @@
       <c r="V117" s="17">
         <v>104.2111152716533</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="W117" s="17">
+        <v>107.74065869551465</v>
+      </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -8537,7 +8680,9 @@
       <c r="V118" s="17">
         <v>104.33807328653076</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="W118" s="17">
+        <v>107.86709219573545</v>
+      </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -8777,7 +8922,9 @@
       <c r="V120" s="17">
         <v>103.81531475116019</v>
       </c>
-      <c r="W120" s="9"/>
+      <c r="W120" s="17">
+        <v>106.87225004791993</v>
+      </c>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -8875,6 +9022,7 @@
       <c r="T121" s="13"/>
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
@@ -8893,7 +9041,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
@@ -8903,7 +9051,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
@@ -8936,6 +9084,7 @@
       <c r="T133" s="15"/>
       <c r="U133" s="15"/>
       <c r="V133" s="15"/>
+      <c r="W133" s="15"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
@@ -9002,6 +9151,9 @@
       <c r="V134" s="16">
         <v>2020</v>
       </c>
+      <c r="W134" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
@@ -9073,7 +9225,9 @@
       <c r="V136" s="18">
         <v>4.5967619058213014</v>
       </c>
-      <c r="W136" s="9"/>
+      <c r="W136" s="18">
+        <v>4.4861075847845786</v>
+      </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -9215,7 +9369,9 @@
       <c r="V137" s="18">
         <v>0.11254455890575378</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="W137" s="18">
+        <v>0.1227639699821747</v>
+      </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -9357,7 +9513,9 @@
       <c r="V138" s="18">
         <v>7.1801216923530333</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="W138" s="18">
+        <v>3.3850966281579007</v>
+      </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -9499,7 +9657,9 @@
       <c r="V139" s="18">
         <v>0.56773278116684467</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="W139" s="18">
+        <v>0.67800813199151488</v>
+      </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -9641,7 +9801,9 @@
       <c r="V140" s="18">
         <v>15.820596026005729</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="W140" s="18">
+        <v>16.804556222810426</v>
+      </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -9783,7 +9945,9 @@
       <c r="V141" s="18">
         <v>59.366427390583766</v>
       </c>
-      <c r="W141" s="9"/>
+      <c r="W141" s="18">
+        <v>60.417343979635575</v>
+      </c>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -9925,7 +10089,9 @@
       <c r="V142" s="18">
         <v>11.151215127233467</v>
       </c>
-      <c r="W142" s="9"/>
+      <c r="W142" s="18">
+        <v>12.623376639417177</v>
+      </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -10067,7 +10233,9 @@
       <c r="V143" s="18">
         <v>1.2046005179300932</v>
       </c>
-      <c r="W143" s="9"/>
+      <c r="W143" s="18">
+        <v>1.4827468432206643</v>
+      </c>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -10307,7 +10475,9 @@
       <c r="V145" s="17">
         <v>100</v>
       </c>
-      <c r="W145" s="9"/>
+      <c r="W145" s="17">
+        <v>100</v>
+      </c>
       <c r="X145" s="9"/>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
@@ -10405,6 +10575,7 @@
       <c r="T146" s="13"/>
       <c r="U146" s="13"/>
       <c r="V146" s="13"/>
+      <c r="W146" s="13"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
@@ -10619,7 +10790,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.25">
@@ -10629,7 +10800,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.25">
@@ -10662,6 +10833,7 @@
       <c r="T158" s="15"/>
       <c r="U158" s="15"/>
       <c r="V158" s="15"/>
+      <c r="W158" s="15"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
@@ -10728,6 +10900,9 @@
       <c r="V159" s="16">
         <v>2020</v>
       </c>
+      <c r="W159" s="16">
+        <v>2021</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
@@ -10799,7 +10974,9 @@
       <c r="V161" s="18">
         <v>4.5458991780509166</v>
       </c>
-      <c r="W161" s="9"/>
+      <c r="W161" s="18">
+        <v>4.2092783111535024</v>
+      </c>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -10941,7 +11118,9 @@
       <c r="V162" s="18">
         <v>0.11192914841648412</v>
       </c>
-      <c r="W162" s="9"/>
+      <c r="W162" s="18">
+        <v>0.12148451827172493</v>
+      </c>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -11083,7 +11262,9 @@
       <c r="V163" s="18">
         <v>7.0925060809584233</v>
       </c>
-      <c r="W163" s="9"/>
+      <c r="W163" s="18">
+        <v>3.294665822646861</v>
+      </c>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -11225,7 +11406,9 @@
       <c r="V164" s="18">
         <v>0.56751052086631526</v>
       </c>
-      <c r="W164" s="9"/>
+      <c r="W164" s="18">
+        <v>0.6804838509398411</v>
+      </c>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -11367,7 +11550,9 @@
       <c r="V165" s="18">
         <v>16.321866256030194</v>
       </c>
-      <c r="W165" s="9"/>
+      <c r="W165" s="18">
+        <v>17.807729830349686</v>
+      </c>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -11509,7 +11694,9 @@
       <c r="V166" s="18">
         <v>59.052861537788395</v>
       </c>
-      <c r="W166" s="9"/>
+      <c r="W166" s="18">
+        <v>59.89565597223465</v>
+      </c>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -11651,7 +11838,9 @@
       <c r="V167" s="18">
         <v>11.108862094737994</v>
       </c>
-      <c r="W167" s="9"/>
+      <c r="W167" s="18">
+        <v>12.521630004783212</v>
+      </c>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -11793,7 +11982,9 @@
       <c r="V168" s="18">
         <v>1.1985651831512876</v>
       </c>
-      <c r="W168" s="9"/>
+      <c r="W168" s="18">
+        <v>1.469071689620532</v>
+      </c>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
@@ -12033,7 +12224,9 @@
       <c r="V170" s="17">
         <v>100</v>
       </c>
-      <c r="W170" s="9"/>
+      <c r="W170" s="17">
+        <v>100</v>
+      </c>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
@@ -12131,6 +12324,7 @@
       <c r="T171" s="13"/>
       <c r="U171" s="13"/>
       <c r="V171" s="13"/>
+      <c r="W171" s="13"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
@@ -12326,9 +12520,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="50" max="81" man="1"/>
-    <brk id="100" max="81" man="1"/>
-    <brk id="124" max="81" man="1"/>
+    <brk id="50" max="22" man="1"/>
+    <brk id="100" max="22" man="1"/>
+    <brk id="124" max="22" man="1"/>
     <brk id="172" max="81" man="1"/>
   </rowBreaks>
 </worksheet>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C117D1-21A0-4A25-A088-A552699746C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -203,19 +204,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -334,7 +335,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -634,7 +635,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -656,7 +657,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -666,7 +667,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -838,10 +839,10 @@
         <v>170379.97408422612</v>
       </c>
       <c r="V12" s="8">
-        <v>90395.381210129301</v>
+        <v>90950.240465225899</v>
       </c>
       <c r="W12" s="8">
-        <v>92757.442137406659</v>
+        <v>96508.825756961305</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -982,10 +983,10 @@
         <v>2541.2396581183789</v>
       </c>
       <c r="V13" s="8">
-        <v>2213.1901790536112</v>
+        <v>2228.5971019894705</v>
       </c>
       <c r="W13" s="8">
-        <v>2538.3412294439458</v>
+        <v>2483.2612215829677</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1129,7 +1130,7 @@
         <v>141197.18419468711</v>
       </c>
       <c r="W14" s="8">
-        <v>69992.281433652839</v>
+        <v>68743.219625479222</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -1270,10 +1271,10 @@
         <v>10046.199512364185</v>
       </c>
       <c r="V15" s="8">
-        <v>11164.472346081724</v>
+        <v>9307.2074591443325</v>
       </c>
       <c r="W15" s="8">
-        <v>14018.901438119232</v>
+        <v>14157.753146727211</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -1414,10 +1415,10 @@
         <v>366410.14026652061</v>
       </c>
       <c r="V16" s="8">
-        <v>311112.22161216714</v>
+        <v>324227.11153326929</v>
       </c>
       <c r="W16" s="8">
-        <v>347461.04992419295</v>
+        <v>355569.80687605357</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -1558,10 +1559,10 @@
         <v>1187204.3627387411</v>
       </c>
       <c r="V17" s="8">
-        <v>1167441.5479860404</v>
+        <v>1167245.2753255032</v>
       </c>
       <c r="W17" s="8">
-        <v>1249225.120524155</v>
+        <v>1259296.6761053498</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -1702,10 +1703,10 @@
         <v>247646.15827660589</v>
       </c>
       <c r="V18" s="8">
-        <v>219288.78698413412</v>
+        <v>215282.72074649949</v>
       </c>
       <c r="W18" s="8">
-        <v>261008.48142402642</v>
+        <v>254396.04365678231</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1846,10 +1847,10 @@
         <v>35907.160377896354</v>
       </c>
       <c r="V19" s="8">
-        <v>23688.48447127796</v>
+        <v>21979.495185185682</v>
       </c>
       <c r="W19" s="8">
-        <v>30658.160089815945</v>
+        <v>29434.083969236617</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -2088,10 +2089,10 @@
         <v>2598162.2948144726</v>
       </c>
       <c r="V21" s="12">
-        <v>1966501.2689835716</v>
+        <v>1972417.8320115046</v>
       </c>
       <c r="W21" s="12">
-        <v>2067659.7782008129</v>
+        <v>2080589.6703581729</v>
       </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
@@ -2405,7 +2406,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.25">
@@ -2415,7 +2416,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.25">
@@ -2587,10 +2588,10 @@
         <v>168531.85738553377</v>
       </c>
       <c r="V37" s="8">
-        <v>86109.804933270687</v>
+        <v>86779.793597884127</v>
       </c>
       <c r="W37" s="8">
-        <v>81437.000300103056</v>
+        <v>84761.423986983427</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -2731,10 +2732,10 @@
         <v>2483.4739621744829</v>
       </c>
       <c r="V38" s="8">
-        <v>2120.1959742149384</v>
+        <v>2135.05747883822</v>
       </c>
       <c r="W38" s="8">
-        <v>2350.3636537259963</v>
+        <v>2299.4786555338269</v>
       </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
@@ -2878,7 +2879,7 @@
         <v>134348.40747638891</v>
       </c>
       <c r="W39" s="8">
-        <v>63741.972317840198</v>
+        <v>62595.205498804869</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -3019,10 +3020,10 @@
         <v>9815.8643017879458</v>
       </c>
       <c r="V40" s="8">
-        <v>10749.956902988291</v>
+        <v>8961.6486987929147</v>
       </c>
       <c r="W40" s="8">
-        <v>13165.336068742119</v>
+        <v>13296.061682492369</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -3163,10 +3164,10 @@
         <v>365248.19354696159</v>
       </c>
       <c r="V41" s="8">
-        <v>309173.75515932555</v>
+        <v>322218.44444653735</v>
       </c>
       <c r="W41" s="8">
-        <v>344526.5416866506</v>
+        <v>352527.66398698254</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -3307,10 +3308,10 @@
         <v>1160409.2669792629</v>
       </c>
       <c r="V42" s="8">
-        <v>1118597.2650521125</v>
+        <v>1118330.9539590406</v>
       </c>
       <c r="W42" s="8">
-        <v>1158802.5767887656</v>
+        <v>1168357.1455838322</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -3451,10 +3452,10 @@
         <v>242028.10605203573</v>
       </c>
       <c r="V43" s="8">
-        <v>210427.44472362762</v>
+        <v>206562.63437211883</v>
       </c>
       <c r="W43" s="8">
-        <v>242256.2518033802</v>
+        <v>236182.32313105764</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -3595,10 +3596,10 @@
         <v>35088.740968939266</v>
       </c>
       <c r="V44" s="8">
-        <v>22703.586260621472</v>
+        <v>21054.041547743003</v>
       </c>
       <c r="W44" s="8">
-        <v>28422.162371989871</v>
+        <v>27272.963612635016</v>
       </c>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
@@ -3837,10 +3838,10 @@
         <v>2547550.8594323797</v>
       </c>
       <c r="V46" s="12">
-        <v>1894230.4164825499</v>
+        <v>1900390.981577344</v>
       </c>
       <c r="W46" s="12">
-        <v>1934702.2049911974</v>
+        <v>1947292.2661383217</v>
       </c>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
@@ -4154,7 +4155,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
@@ -4164,7 +4165,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.25">
@@ -4331,10 +4332,10 @@
         <v>4.9996730202121995</v>
       </c>
       <c r="U62" s="17">
-        <v>-46.944832163524694</v>
+        <v>-46.619172262424868</v>
       </c>
       <c r="V62" s="17">
-        <v>2.6130327630198309</v>
+        <v>6.111677399974198</v>
       </c>
       <c r="W62" s="17"/>
       <c r="X62" s="9"/>
@@ -4468,10 +4469,10 @@
         <v>4.7105931896603579</v>
       </c>
       <c r="U63" s="17">
-        <v>-12.909033511135533</v>
+        <v>-12.302757637601161</v>
       </c>
       <c r="V63" s="17">
-        <v>14.69150972508713</v>
+        <v>11.42710449395085</v>
       </c>
       <c r="W63" s="17"/>
       <c r="X63" s="9"/>
@@ -4608,7 +4609,7 @@
         <v>-75.572565025050125</v>
       </c>
       <c r="V64" s="17">
-        <v>-50.429407050253012</v>
+        <v>-51.314029371369116</v>
       </c>
       <c r="W64" s="17"/>
       <c r="X64" s="9"/>
@@ -4742,10 +4743,10 @@
         <v>4.4198050003149092</v>
       </c>
       <c r="U65" s="17">
-        <v>11.131302263520098</v>
+        <v>-7.3559364644346488</v>
       </c>
       <c r="V65" s="17">
-        <v>25.567075662463324</v>
+        <v>52.116015559717823</v>
       </c>
       <c r="W65" s="17"/>
       <c r="X65" s="9"/>
@@ -4879,10 +4880,10 @@
         <v>1.9264093354704812</v>
       </c>
       <c r="U66" s="17">
-        <v>-15.091809035124044</v>
+        <v>-11.51251673945707</v>
       </c>
       <c r="V66" s="17">
-        <v>11.683510253524631</v>
+        <v>9.6668952804608921</v>
       </c>
       <c r="W66" s="17"/>
       <c r="X66" s="9"/>
@@ -5016,10 +5017,10 @@
         <v>2.297008320679538</v>
       </c>
       <c r="U67" s="17">
-        <v>-1.6646514595945519</v>
+        <v>-1.6811837994929988</v>
       </c>
       <c r="V67" s="17">
-        <v>7.0053676502433717</v>
+        <v>7.8862088993400903</v>
       </c>
       <c r="W67" s="17"/>
       <c r="X67" s="9"/>
@@ -5153,10 +5154,10 @@
         <v>1.9036777022690075</v>
       </c>
       <c r="U68" s="17">
-        <v>-11.450761639031072</v>
+        <v>-13.068418971377042</v>
       </c>
       <c r="V68" s="17">
-        <v>19.025001238622735</v>
+        <v>18.168352190392326</v>
       </c>
       <c r="W68" s="17"/>
       <c r="X68" s="9"/>
@@ -5290,10 +5291,10 @@
         <v>-3.6168320328835506</v>
       </c>
       <c r="U69" s="17">
-        <v>-34.02852182691656</v>
+        <v>-38.787988373717887</v>
       </c>
       <c r="V69" s="17">
-        <v>29.422209880031147</v>
+        <v>33.916105539472881</v>
       </c>
       <c r="W69" s="17"/>
       <c r="X69" s="9"/>
@@ -5520,10 +5521,10 @@
         <v>6.6273485667943248</v>
       </c>
       <c r="U71" s="17">
-        <v>-24.311838682733494</v>
+        <v>-24.084117610815014</v>
       </c>
       <c r="V71" s="17">
-        <v>5.1440856313063676</v>
+        <v>5.4842253294958567</v>
       </c>
       <c r="W71" s="17"/>
       <c r="X71" s="9"/>
@@ -5823,7 +5824,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.25">
@@ -5833,7 +5834,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.25">
@@ -6000,10 +6001,10 @@
         <v>3.8607384117942019</v>
       </c>
       <c r="U87" s="17">
-        <v>-48.905918282093253</v>
+        <v>-48.508374058106696</v>
       </c>
       <c r="V87" s="17">
-        <v>-5.426565112751959</v>
+        <v>-2.3258520529022206</v>
       </c>
       <c r="W87" s="17"/>
       <c r="X87" s="9"/>
@@ -6137,10 +6138,10 @@
         <v>2.3303846686043386</v>
       </c>
       <c r="U88" s="17">
-        <v>-14.627815450960696</v>
+        <v>-14.029399488094327</v>
       </c>
       <c r="V88" s="17">
-        <v>10.855962482255151</v>
+        <v>7.7010187465808002</v>
       </c>
       <c r="W88" s="17"/>
       <c r="X88" s="9"/>
@@ -6277,7 +6278,7 @@
         <v>-76.177052263864695</v>
       </c>
       <c r="V89" s="17">
-        <v>-52.554724305874231</v>
+        <v>-53.408301092213783</v>
       </c>
       <c r="W89" s="17"/>
       <c r="X89" s="9"/>
@@ -6411,10 +6412,10 @@
         <v>2.0257098259680077</v>
       </c>
       <c r="U90" s="17">
-        <v>9.5161523476868126</v>
+        <v>-8.7023982476961947</v>
       </c>
       <c r="V90" s="17">
-        <v>22.468733480060706</v>
+        <v>48.366245200877785</v>
       </c>
       <c r="W90" s="17"/>
       <c r="X90" s="9"/>
@@ -6548,10 +6549,10 @@
         <v>1.6031839550876441</v>
       </c>
       <c r="U91" s="17">
-        <v>-15.352420457741786</v>
+        <v>-11.780961510735494</v>
       </c>
       <c r="V91" s="17">
-        <v>11.434601397232697</v>
+        <v>9.4064197946539707</v>
       </c>
       <c r="W91" s="17"/>
       <c r="X91" s="9"/>
@@ -6685,10 +6686,10 @@
         <v>-1.1825962524525835E-2</v>
       </c>
       <c r="U92" s="17">
-        <v>-3.6032116527295557</v>
+        <v>-3.6261614085312459</v>
       </c>
       <c r="V92" s="17">
-        <v>3.5942615803535034</v>
+        <v>4.4732904376555211</v>
       </c>
       <c r="W92" s="17"/>
       <c r="X92" s="9"/>
@@ -6822,10 +6823,10 @@
         <v>-0.40808916377568494</v>
       </c>
       <c r="U93" s="17">
-        <v>-13.056608112123143</v>
+        <v>-14.65345172444222</v>
       </c>
       <c r="V93" s="17">
-        <v>15.125787000624413</v>
+        <v>14.339325623422994</v>
       </c>
       <c r="W93" s="17"/>
       <c r="X93" s="9"/>
@@ -6959,10 +6960,10 @@
         <v>-5.8136600340646112</v>
       </c>
       <c r="U94" s="17">
-        <v>-35.296663164065066</v>
+        <v>-39.997728711953073</v>
       </c>
       <c r="V94" s="17">
-        <v>25.187985923118489</v>
+        <v>29.537901551061964</v>
       </c>
       <c r="W94" s="17"/>
       <c r="X94" s="9"/>
@@ -7189,10 +7190,10 @@
         <v>4.550279257951388</v>
       </c>
       <c r="U96" s="17">
-        <v>-25.645040236621469</v>
+        <v>-25.403217190302911</v>
       </c>
       <c r="V96" s="17">
-        <v>2.1365821262547797</v>
+        <v>2.4679808005639643</v>
       </c>
       <c r="W96" s="17"/>
       <c r="X96" s="9"/>
@@ -7488,7 +7489,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
@@ -7498,7 +7499,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.25">
@@ -7670,10 +7671,10 @@
         <v>101.0965978345949</v>
       </c>
       <c r="V111" s="17">
-        <v>104.97687374879045</v>
+        <v>104.80578104007321</v>
       </c>
       <c r="W111" s="17">
-        <v>113.90085808119983</v>
+        <v>113.85937283425287</v>
       </c>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
@@ -7814,10 +7815,10 @@
         <v>102.32600368772611</v>
       </c>
       <c r="V112" s="17">
-        <v>104.38611364089145</v>
+        <v>104.38112903649552</v>
       </c>
       <c r="W112" s="17">
-        <v>107.99780814428233</v>
+        <v>107.99235798979292</v>
       </c>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
@@ -7961,7 +7962,7 @@
         <v>105.0977729077301</v>
       </c>
       <c r="W113" s="17">
-        <v>109.80564122591998</v>
+        <v>109.82186107974634</v>
       </c>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
@@ -8102,10 +8103,10 @@
         <v>102.34656066439594</v>
       </c>
       <c r="V114" s="17">
-        <v>103.85597306886136</v>
+        <v>103.85597306886135</v>
       </c>
       <c r="W114" s="17">
-        <v>106.48343016023492</v>
+        <v>106.4808022466493</v>
       </c>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
@@ -8246,10 +8247,10 @@
         <v>100.31812524745851</v>
       </c>
       <c r="V115" s="17">
-        <v>100.62698286012105</v>
+        <v>100.6233867493781</v>
       </c>
       <c r="W115" s="17">
-        <v>100.85175099229693</v>
+        <v>100.86295153539591</v>
       </c>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
@@ -8390,10 +8391,10 @@
         <v>102.30910735737488</v>
       </c>
       <c r="V116" s="17">
-        <v>104.3665655602736</v>
+        <v>104.37386814639258</v>
       </c>
       <c r="W116" s="17">
-        <v>107.80310171435458</v>
+        <v>107.78353869493176</v>
       </c>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
@@ -8534,10 +8535,10 @@
         <v>102.32123959329016</v>
       </c>
       <c r="V117" s="17">
-        <v>104.2111152716533</v>
+        <v>104.22152167108382</v>
       </c>
       <c r="W117" s="17">
-        <v>107.74065869551465</v>
+        <v>107.71172045573363</v>
       </c>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
@@ -8678,10 +8679,10 @@
         <v>102.33242740080517</v>
       </c>
       <c r="V118" s="17">
-        <v>104.33807328653076</v>
+        <v>104.39561038836219</v>
       </c>
       <c r="W118" s="17">
-        <v>107.86709219573545</v>
+        <v>107.92403930609287</v>
       </c>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
@@ -8920,10 +8921,10 @@
         <v>101.98667026390082</v>
       </c>
       <c r="V120" s="17">
-        <v>103.81531475116019</v>
+        <v>103.79010693759332</v>
       </c>
       <c r="W120" s="17">
-        <v>106.87225004791993</v>
+        <v>106.845269533381</v>
       </c>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
@@ -9041,7 +9042,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.25">
@@ -9051,7 +9052,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.25">
@@ -9223,10 +9224,10 @@
         <v>6.5577109799598743</v>
       </c>
       <c r="V136" s="18">
-        <v>4.5967619058213014</v>
+        <v>4.6111041478708055</v>
       </c>
       <c r="W136" s="18">
-        <v>4.4861075847845786</v>
+        <v>4.6385323897310009</v>
       </c>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
@@ -9367,10 +9368,10 @@
         <v>9.7809119283668214E-2</v>
       </c>
       <c r="V137" s="18">
-        <v>0.11254455890575378</v>
+        <v>0.11298808324586632</v>
       </c>
       <c r="W137" s="18">
-        <v>0.1227639699821747</v>
+        <v>0.11935372250288426</v>
       </c>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
@@ -9511,10 +9512,10 @@
         <v>22.247534769234857</v>
       </c>
       <c r="V138" s="18">
-        <v>7.1801216923530333</v>
+        <v>7.1585838407621711</v>
       </c>
       <c r="W138" s="18">
-        <v>3.3850966281579007</v>
+        <v>3.3040258059939855</v>
       </c>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
@@ -9655,10 +9656,10 @@
         <v>0.38666558792015548</v>
       </c>
       <c r="V139" s="18">
-        <v>0.56773278116684467</v>
+        <v>0.47186794339882271</v>
       </c>
       <c r="W139" s="18">
-        <v>0.67800813199151488</v>
+        <v>0.68046829936870534</v>
       </c>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
@@ -9799,10 +9800,10 @@
         <v>14.10266560321571</v>
       </c>
       <c r="V140" s="18">
-        <v>15.820596026005729</v>
+        <v>16.438054162317986</v>
       </c>
       <c r="W140" s="18">
-        <v>16.804556222810426</v>
+        <v>17.089857358315268</v>
       </c>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
@@ -9943,10 +9944,10 @@
         <v>45.694003223286558</v>
       </c>
       <c r="V141" s="18">
-        <v>59.366427390583766</v>
+        <v>59.178398024070134</v>
       </c>
       <c r="W141" s="18">
-        <v>60.417343979635575</v>
+        <v>60.525950601713895</v>
       </c>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
@@ -10087,10 +10088,10 @@
         <v>9.5315892610276531</v>
       </c>
       <c r="V142" s="18">
-        <v>11.151215127233467</v>
+        <v>10.914661044559235</v>
       </c>
       <c r="W142" s="18">
-        <v>12.623376639417177</v>
+        <v>12.227112692191158</v>
       </c>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
@@ -10231,10 +10232,10 @@
         <v>1.3820214560715263</v>
       </c>
       <c r="V143" s="18">
-        <v>1.2046005179300932</v>
+        <v>1.1143427537749762</v>
       </c>
       <c r="W143" s="18">
-        <v>1.4827468432206643</v>
+        <v>1.4146991301831056</v>
       </c>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
@@ -10790,7 +10791,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.25">
@@ -10800,7 +10801,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.25">
@@ -10972,10 +10973,10 @@
         <v>6.6154462338421922</v>
       </c>
       <c r="V161" s="18">
-        <v>4.5458991780509166</v>
+        <v>4.566417881327558</v>
       </c>
       <c r="W161" s="18">
-        <v>4.2092783111535024</v>
+        <v>4.3527838866773676</v>
       </c>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
@@ -11116,10 +11117,10 @@
         <v>9.7484764748831207E-2</v>
       </c>
       <c r="V162" s="18">
-        <v>0.11192914841648412</v>
+        <v>0.11234832724085549</v>
       </c>
       <c r="W162" s="18">
-        <v>0.12148451827172493</v>
+        <v>0.11808595430278818</v>
       </c>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
@@ -11260,10 +11261,10 @@
         <v>22.136765362216799</v>
       </c>
       <c r="V163" s="18">
-        <v>7.0925060809584233</v>
+        <v>7.0695140515178805</v>
       </c>
       <c r="W163" s="18">
-        <v>3.294665822646861</v>
+        <v>3.2144740975599682</v>
       </c>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
@@ -11404,10 +11405,10 @@
         <v>0.38530592099641225</v>
       </c>
       <c r="V164" s="18">
-        <v>0.56751052086631526</v>
+        <v>0.47156868169068317</v>
       </c>
       <c r="W164" s="18">
-        <v>0.6804838509398411</v>
+        <v>0.68279743691786998</v>
       </c>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
@@ -11548,10 +11549,10 @@
         <v>14.337228722819006</v>
       </c>
       <c r="V165" s="18">
-        <v>16.321866256030194</v>
+        <v>16.95537642359746</v>
       </c>
       <c r="W165" s="18">
-        <v>17.807729830349686</v>
+        <v>18.103479899608534</v>
       </c>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
@@ -11692,10 +11693,10 @@
         <v>45.549994131925352</v>
       </c>
       <c r="V166" s="18">
-        <v>59.052861537788395</v>
+        <v>58.847414284760205</v>
       </c>
       <c r="W166" s="18">
-        <v>59.89565597223465</v>
+        <v>59.999064644815903</v>
       </c>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
@@ -11836,10 +11837,10 @@
         <v>9.5004229319277282</v>
       </c>
       <c r="V167" s="18">
-        <v>11.108862094737994</v>
+        <v>10.869480879175175</v>
       </c>
       <c r="W167" s="18">
-        <v>12.521630004783212</v>
+        <v>12.12875577221036</v>
       </c>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
@@ -11980,10 +11981,10 @@
         <v>1.3773519315236515</v>
       </c>
       <c r="V168" s="18">
-        <v>1.1985651831512876</v>
+        <v>1.1078794706901804</v>
       </c>
       <c r="W168" s="18">
-        <v>1.469071689620532</v>
+        <v>1.4005583079072188</v>
       </c>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C117D1-21A0-4A25-A088-A552699746C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168BB42-5EFA-4310-802C-9E576A58AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14685" yWindow="2430" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$W$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$X$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -204,13 +204,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -218,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -294,43 +297,42 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -351,7 +353,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -632,50 +634,50 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
-    <col min="2" max="23" width="11.08984375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="24" width="11.109375" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -701,8 +703,9 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -770,11 +773,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
-    </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -844,7 +850,9 @@
       <c r="W12" s="8">
         <v>96508.825756961305</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>188429.06363514689</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -918,7 +926,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,7 +996,9 @@
       <c r="W13" s="8">
         <v>2483.2612215829677</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="8">
+        <v>3001.4834127189247</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1062,7 +1072,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1132,7 +1142,9 @@
       <c r="W14" s="8">
         <v>68743.219625479222</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="8">
+        <v>253254.38292727942</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1206,7 +1218,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1288,9 @@
       <c r="W15" s="8">
         <v>14157.753146727211</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="8">
+        <v>14893.697895762936</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1350,7 +1364,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1434,9 @@
       <c r="W16" s="8">
         <v>355569.80687605357</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="8">
+        <v>403919.22409458854</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1494,7 +1510,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1564,7 +1580,9 @@
       <c r="W17" s="8">
         <v>1259296.6761053498</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="8">
+        <v>1471242.0737068406</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1638,7 +1656,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1708,7 +1726,9 @@
       <c r="W18" s="8">
         <v>254396.04365678231</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="8">
+        <v>283165.61767750821</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1782,7 +1802,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1852,7 +1872,9 @@
       <c r="W19" s="8">
         <v>29434.083969236617</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="8">
+        <v>42595.67814540783</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -1926,8 +1948,8 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2024,77 +2046,79 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>198480.26485590401</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>276136.57105676603</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>327467.46881064703</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>369173.38495867403</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>438633.16223135794</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>628175.81154258293</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>738432.51811273373</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>791091.78488089261</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>755355.61347792507</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>823187.32318804588</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>1037730.6992419261</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>997388.05115902983</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>977638.04114341002</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <v>1136191.0625124704</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <v>1324721.7523229008</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <v>1592949.97015934</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <v>1781114.1469133999</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <v>2134183.5180020528</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <v>2436675.3274249444</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="11">
         <v>2598162.2948144726</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <v>1972417.8320115046</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="11">
         <v>2080589.6703581729</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="11">
+        <v>2660501.2214952535</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2168,38 +2192,39 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -2296,8 +2321,8 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2394,136 +2419,140 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-    </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+    </row>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>2000</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>2001</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>2002</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>2003</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>2004</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>2005</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>2006</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="15">
         <v>2007</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>2008</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="15">
         <v>2009</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="15">
         <v>2010</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="15">
         <v>2011</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N35" s="15">
         <v>2012</v>
       </c>
-      <c r="O35" s="16">
+      <c r="O35" s="15">
         <v>2013</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="15">
         <v>2014</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="15">
         <v>2015</v>
       </c>
-      <c r="R35" s="16">
+      <c r="R35" s="15">
         <v>2016</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="15">
         <v>2017</v>
       </c>
-      <c r="T35" s="16">
+      <c r="T35" s="15">
         <v>2018</v>
       </c>
-      <c r="U35" s="16">
+      <c r="U35" s="15">
         <v>2019</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35" s="15">
         <v>2020</v>
       </c>
-      <c r="W35" s="16">
+      <c r="W35" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2593,7 +2622,9 @@
       <c r="W37" s="8">
         <v>84761.423986983427</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="8">
+        <v>146650.75565509326</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -2667,7 +2698,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +2768,9 @@
       <c r="W38" s="8">
         <v>2299.4786555338269</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="8">
+        <v>2626.0292754184816</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -2811,7 +2844,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2881,7 +2914,9 @@
       <c r="W39" s="8">
         <v>62595.205498804869</v>
       </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="8">
+        <v>216779.99579888274</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -2955,7 +2990,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3060,9 @@
       <c r="W40" s="8">
         <v>13296.061682492369</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="8">
+        <v>13325.696216704073</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -3099,7 +3136,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3169,7 +3206,9 @@
       <c r="W41" s="8">
         <v>352527.66398698254</v>
       </c>
-      <c r="X41" s="9"/>
+      <c r="X41" s="8">
+        <v>397869.26594183297</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3243,7 +3282,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3313,7 +3352,9 @@
       <c r="W42" s="8">
         <v>1168357.1455838322</v>
       </c>
-      <c r="X42" s="9"/>
+      <c r="X42" s="8">
+        <v>1276160.7666045083</v>
+      </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3387,7 +3428,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3498,9 @@
       <c r="W43" s="8">
         <v>236182.32313105764</v>
       </c>
-      <c r="X43" s="9"/>
+      <c r="X43" s="8">
+        <v>249695.60702620566</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3531,7 +3574,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3601,7 +3644,9 @@
       <c r="W44" s="8">
         <v>27272.963612635016</v>
       </c>
-      <c r="X44" s="9"/>
+      <c r="X44" s="8">
+        <v>37345.93053236077</v>
+      </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -3675,8 +3720,8 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -3773,77 +3818,79 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>319013.09626922302</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>422966.712078868</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>505702.55658607488</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>561712.49658772885</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>651884.4592550958</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <v>894960.91101576202</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>1002820.2439654699</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <v>1038844.8523949003</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>927888.40167427412</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="11">
         <v>972529.15529594989</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>1183082.8787587397</v>
       </c>
-      <c r="M46" s="12">
+      <c r="M46" s="11">
         <v>1231618.2868615596</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <v>1159531.579651681</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="11">
         <v>1304255.3573811799</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="11">
         <v>1442275.8068049697</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="11">
         <v>1716886.9173785304</v>
       </c>
-      <c r="R46" s="12">
+      <c r="R46" s="11">
         <v>1896831.9574690203</v>
       </c>
-      <c r="S46" s="12">
+      <c r="S46" s="11">
         <v>2209863.1752366489</v>
       </c>
-      <c r="T46" s="12">
+      <c r="T46" s="11">
         <v>2436675.3274249434</v>
       </c>
-      <c r="U46" s="12">
+      <c r="U46" s="11">
         <v>2547550.8594323797</v>
       </c>
-      <c r="V46" s="12">
+      <c r="V46" s="11">
         <v>1900390.981577344</v>
       </c>
-      <c r="W46" s="12">
+      <c r="W46" s="11">
         <v>1947292.2661383217</v>
       </c>
-      <c r="X46" s="9"/>
+      <c r="X46" s="11">
+        <v>2340454.0470510065</v>
+      </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
@@ -3917,38 +3964,39 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-    </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+    </row>
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -4045,8 +4093,8 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -4143,202 +4191,208 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-    </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+    </row>
+    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="16" t="s">
+      <c r="I60" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J60" s="16" t="s">
+      <c r="J60" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="L60" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="M60" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="16" t="s">
+      <c r="N60" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O60" s="16" t="s">
+      <c r="O60" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="16" t="s">
+      <c r="P60" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q60" s="16" t="s">
+      <c r="Q60" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R60" s="16" t="s">
+      <c r="R60" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S60" s="16" t="s">
+      <c r="S60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T60" s="16" t="s">
+      <c r="T60" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U60" s="16" t="s">
+      <c r="U60" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V60" s="16" t="s">
+      <c r="V60" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W60" s="16"/>
-    </row>
-    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W60" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X60" s="15"/>
+    </row>
+    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="16">
         <v>44.54956255207901</v>
       </c>
-      <c r="C62" s="17">
+      <c r="C62" s="16">
         <v>50.735571111848174</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="16">
         <v>13.758083140735124</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="16">
         <v>8.7779364393377932</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <v>-5.5327645907960061</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G62" s="16">
         <v>11.417840991435895</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="16">
         <v>3.2816022786450674</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="16">
         <v>-5.2366055189028202</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="16">
         <v>-4.8991399716761919</v>
       </c>
-      <c r="K62" s="17">
+      <c r="K62" s="16">
         <v>10.781339959913922</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="16">
         <v>-1.8789870400664626</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M62" s="16">
         <v>9.4425221634903238</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N62" s="16">
         <v>6.0824490874443597</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O62" s="16">
         <v>20.098027089816028</v>
       </c>
-      <c r="P62" s="17">
+      <c r="P62" s="16">
         <v>6.0591894903408274</v>
       </c>
-      <c r="Q62" s="17">
+      <c r="Q62" s="16">
         <v>1.7046023165675024</v>
       </c>
-      <c r="R62" s="17">
+      <c r="R62" s="16">
         <v>39.424505327189934</v>
       </c>
-      <c r="S62" s="17">
+      <c r="S62" s="16">
         <v>12.41123048183961</v>
       </c>
-      <c r="T62" s="17">
+      <c r="T62" s="16">
         <v>4.9996730202121995</v>
       </c>
-      <c r="U62" s="17">
+      <c r="U62" s="16">
         <v>-46.619172262424868</v>
       </c>
-      <c r="V62" s="17">
+      <c r="V62" s="16">
         <v>6.111677399974198</v>
       </c>
-      <c r="W62" s="17"/>
-      <c r="X62" s="9"/>
+      <c r="W62" s="16">
+        <v>95.245421501313047</v>
+      </c>
+      <c r="X62" s="16"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -4407,75 +4461,77 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="16">
         <v>15.308509914385866</v>
       </c>
-      <c r="C63" s="17">
+      <c r="C63" s="16">
         <v>1.4696186280847741</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="16">
         <v>4.8030064681054938</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="16">
         <v>3.4229302493091041</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <v>38.402063725165618</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G63" s="16">
         <v>15.344304638319954</v>
       </c>
-      <c r="H63" s="17">
+      <c r="H63" s="16">
         <v>-5.7709267612177797</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="16">
         <v>-17.302971748867037</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="16">
         <v>2.8445135387660088</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="16">
         <v>98.87824328795827</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L63" s="16">
         <v>-27.898618533883266</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M63" s="16">
         <v>18.00194347509138</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N63" s="16">
         <v>-1.0552235888643793</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O63" s="16">
         <v>23.391195598105028</v>
       </c>
-      <c r="P63" s="17">
+      <c r="P63" s="16">
         <v>-10.360054303958606</v>
       </c>
-      <c r="Q63" s="17">
+      <c r="Q63" s="16">
         <v>3.7900711067700712</v>
       </c>
-      <c r="R63" s="17">
+      <c r="R63" s="16">
         <v>27.288937313028129</v>
       </c>
-      <c r="S63" s="17">
+      <c r="S63" s="16">
         <v>1.0535491885692352</v>
       </c>
-      <c r="T63" s="17">
+      <c r="T63" s="16">
         <v>4.7105931896603579</v>
       </c>
-      <c r="U63" s="17">
+      <c r="U63" s="16">
         <v>-12.302757637601161</v>
       </c>
-      <c r="V63" s="17">
+      <c r="V63" s="16">
         <v>11.42710449395085</v>
       </c>
-      <c r="W63" s="17"/>
-      <c r="X63" s="9"/>
+      <c r="W63" s="16">
+        <v>20.868613685579703</v>
+      </c>
+      <c r="X63" s="16"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -4544,75 +4600,77 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="16">
         <v>-1.0310906408831215</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <v>2.5715878976026403</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <v>-7.9034178333154728</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="16">
         <v>35.015273202107551</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <v>10.289374625914618</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <v>44.26317016535225</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <v>26.495059749995377</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <v>-52.425036905897088</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <v>-2.0037918373025292</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <v>11.468556496342714</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="16">
         <v>13.76868768834882</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <v>24.412761185417864</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N64" s="16">
         <v>16.603172636142105</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O64" s="16">
         <v>20.669863640727556</v>
       </c>
-      <c r="P64" s="17">
+      <c r="P64" s="16">
         <v>5.3909413277082479</v>
       </c>
-      <c r="Q64" s="17">
+      <c r="Q64" s="16">
         <v>3.2284661365521714</v>
       </c>
-      <c r="R64" s="17">
+      <c r="R64" s="16">
         <v>43.808466690104183</v>
       </c>
-      <c r="S64" s="17">
+      <c r="S64" s="16">
         <v>20.099840572231329</v>
       </c>
-      <c r="T64" s="17">
+      <c r="T64" s="16">
         <v>25.099365345137969</v>
       </c>
-      <c r="U64" s="17">
+      <c r="U64" s="16">
         <v>-75.572565025050125</v>
       </c>
-      <c r="V64" s="17">
+      <c r="V64" s="16">
         <v>-51.314029371369116</v>
       </c>
-      <c r="W64" s="17"/>
-      <c r="X64" s="9"/>
+      <c r="W64" s="16">
+        <v>268.4063451014336</v>
+      </c>
+      <c r="X64" s="16"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -4681,75 +4739,77 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="16">
         <v>3.7627932155614303</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="16">
         <v>-28.0268358027825</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="16">
         <v>-28.562024920383223</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="16">
         <v>75.906899027350448</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <v>30.98114924998788</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G65" s="16">
         <v>31.540383707643258</v>
       </c>
-      <c r="H65" s="17">
+      <c r="H65" s="16">
         <v>18.170604869614777</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="16">
         <v>59.67579334083851</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="16">
         <v>13.278660368318015</v>
       </c>
-      <c r="K65" s="17">
+      <c r="K65" s="16">
         <v>-1.0162204773563843</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L65" s="16">
         <v>25.153454845718542</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="16">
         <v>-4.0077482246899194</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N65" s="16">
         <v>-11.815489537753123</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O65" s="16">
         <v>25.672173965313689</v>
       </c>
-      <c r="P65" s="17">
+      <c r="P65" s="16">
         <v>-16.858937763511051</v>
       </c>
-      <c r="Q65" s="17">
+      <c r="Q65" s="16">
         <v>46.175296780505448</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="16">
         <v>-12.605562746155513</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="16">
         <v>84.278482281990051</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="16">
         <v>4.4198050003149092</v>
       </c>
-      <c r="U65" s="17">
+      <c r="U65" s="16">
         <v>-7.3559364644346488</v>
       </c>
-      <c r="V65" s="17">
+      <c r="V65" s="16">
         <v>52.116015559717823</v>
       </c>
-      <c r="W65" s="17"/>
-      <c r="X65" s="9"/>
+      <c r="W65" s="16">
+        <v>5.1981747485535976</v>
+      </c>
+      <c r="X65" s="16"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -4818,75 +4878,77 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="16">
         <v>38.442197485379097</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="16">
         <v>6.9847549378358735</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="16">
         <v>22.36168176648539</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="16">
         <v>37.844041521349368</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <v>15.297369469012594</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G66" s="16">
         <v>41.123277487567549</v>
       </c>
-      <c r="H66" s="17">
+      <c r="H66" s="16">
         <v>50.856941782520408</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="16">
         <v>32.19937402515518</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="16">
         <v>27.839116875796236</v>
       </c>
-      <c r="K66" s="17">
+      <c r="K66" s="16">
         <v>3.5663917360541291</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L66" s="16">
         <v>47.892316397306558</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="16">
         <v>8.7110392989356882</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N66" s="16">
         <v>-1.1595725489252544</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O66" s="16">
         <v>9.9355467096923604</v>
       </c>
-      <c r="P66" s="17">
+      <c r="P66" s="16">
         <v>-2.3818599680966628</v>
       </c>
-      <c r="Q66" s="17">
+      <c r="Q66" s="16">
         <v>51.58418884097523</v>
       </c>
-      <c r="R66" s="17">
+      <c r="R66" s="16">
         <v>13.773499757714632</v>
       </c>
-      <c r="S66" s="17">
+      <c r="S66" s="16">
         <v>11.606375211939039</v>
       </c>
-      <c r="T66" s="17">
+      <c r="T66" s="16">
         <v>1.9264093354704812</v>
       </c>
-      <c r="U66" s="17">
+      <c r="U66" s="16">
         <v>-11.51251673945707</v>
       </c>
-      <c r="V66" s="17">
+      <c r="V66" s="16">
         <v>9.6668952804608921</v>
       </c>
-      <c r="W66" s="17"/>
-      <c r="X66" s="9"/>
+      <c r="W66" s="16">
+        <v>13.597728570746966</v>
+      </c>
+      <c r="X66" s="16"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -4955,75 +5017,77 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="16">
         <v>110.28972542917305</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <v>21.896613905516205</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <v>26.453772555465747</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <v>15.532471054371698</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <v>67.817988953045301</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <v>17.275155969007344</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16">
         <v>-0.19870752185487106</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="16">
         <v>31.655289640251624</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="16">
         <v>22.490490149989228</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="16">
         <v>36.88316398563839</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="16">
         <v>-13.899316516948133</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="16">
         <v>-5.7658281210684663</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N67" s="16">
         <v>25.81844044456858</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O67" s="16">
         <v>16.734055305550726</v>
       </c>
-      <c r="P67" s="17">
+      <c r="P67" s="16">
         <v>31.579474270371605</v>
       </c>
-      <c r="Q67" s="17">
+      <c r="Q67" s="16">
         <v>4.3115269021562597</v>
       </c>
-      <c r="R67" s="17">
+      <c r="R67" s="16">
         <v>11.698851956363683</v>
       </c>
-      <c r="S67" s="17">
+      <c r="S67" s="16">
         <v>11.456856632115958</v>
       </c>
-      <c r="T67" s="17">
+      <c r="T67" s="16">
         <v>2.297008320679538</v>
       </c>
-      <c r="U67" s="17">
+      <c r="U67" s="16">
         <v>-1.6811837994929988</v>
       </c>
-      <c r="V67" s="17">
+      <c r="V67" s="16">
         <v>7.8862088993400903</v>
       </c>
-      <c r="W67" s="17"/>
-      <c r="X67" s="9"/>
+      <c r="W67" s="16">
+        <v>16.83045795506888</v>
+      </c>
+      <c r="X67" s="16"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -5092,75 +5156,77 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="16">
         <v>78.691227286186262</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="16">
         <v>24.827769802097094</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="16">
         <v>20.796491209300854</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="16">
         <v>7.9634965259139676</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <v>91.963320285715838</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G68" s="16">
         <v>-4.8503139354062341</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="16">
         <v>-14.692826612077269</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="16">
         <v>-9.1922441442806075</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="16">
         <v>-19.672704984235551</v>
       </c>
-      <c r="K68" s="17">
+      <c r="K68" s="16">
         <v>35.840337814530301</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L68" s="16">
         <v>-19.77566749931006</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="16">
         <v>-44.967675275542973</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N68" s="16">
         <v>19.795121571511359</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O68" s="16">
         <v>9.3743768661855142</v>
       </c>
-      <c r="P68" s="17">
+      <c r="P68" s="16">
         <v>36.573230490999549</v>
       </c>
-      <c r="Q68" s="17">
+      <c r="Q68" s="16">
         <v>30.433060270306157</v>
       </c>
-      <c r="R68" s="17">
+      <c r="R68" s="16">
         <v>35.829528214147217</v>
       </c>
-      <c r="S68" s="17">
+      <c r="S68" s="16">
         <v>21.316456576050228</v>
       </c>
-      <c r="T68" s="17">
+      <c r="T68" s="16">
         <v>1.9036777022690075</v>
       </c>
-      <c r="U68" s="17">
+      <c r="U68" s="16">
         <v>-13.068418971377042</v>
       </c>
-      <c r="V68" s="17">
+      <c r="V68" s="16">
         <v>18.168352190392326</v>
       </c>
-      <c r="W68" s="17"/>
-      <c r="X68" s="9"/>
+      <c r="W68" s="16">
+        <v>11.308970692775517</v>
+      </c>
+      <c r="X68" s="16"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -5229,75 +5295,77 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="16">
         <v>4.5241556501477476</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="16">
         <v>17.299413666274859</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="16">
         <v>9.7754132695691283</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="16">
         <v>57.830337165872209</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <v>45.766316488868313</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G69" s="16">
         <v>53.238507950574558</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H69" s="16">
         <v>46.646212224857038</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="16">
         <v>19.355991000630567</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="16">
         <v>-4.4086450003007371</v>
       </c>
-      <c r="K69" s="17">
+      <c r="K69" s="16">
         <v>-6.0499744955489234</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L69" s="16">
         <v>-8.4211254422030493</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M69" s="16">
         <v>35.775354079493894</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N69" s="16">
         <v>-22.085860708256106</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O69" s="16">
         <v>46.848478470585377</v>
       </c>
-      <c r="P69" s="17">
+      <c r="P69" s="16">
         <v>44.210339812859189</v>
       </c>
-      <c r="Q69" s="17">
+      <c r="Q69" s="16">
         <v>20.939201584647037</v>
       </c>
-      <c r="R69" s="17">
+      <c r="R69" s="16">
         <v>-14.208234563851917</v>
       </c>
-      <c r="S69" s="17">
+      <c r="S69" s="16">
         <v>10.178472005580701</v>
       </c>
-      <c r="T69" s="17">
+      <c r="T69" s="16">
         <v>-3.6168320328835506</v>
       </c>
-      <c r="U69" s="17">
+      <c r="U69" s="16">
         <v>-38.787988373717887</v>
       </c>
-      <c r="V69" s="17">
+      <c r="V69" s="16">
         <v>33.916105539472881</v>
       </c>
-      <c r="W69" s="17"/>
-      <c r="X69" s="9"/>
+      <c r="W69" s="16">
+        <v>44.715487629671827</v>
+      </c>
+      <c r="X69" s="16"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -5366,8 +5434,8 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -5459,75 +5527,77 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="16">
         <v>39.125454743442731</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="16">
         <v>18.588953124694513</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="16">
         <v>12.735895965331068</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="16">
         <v>18.814947150228448</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <v>43.212111083213159</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G71" s="16">
         <v>17.551886676342804</v>
       </c>
-      <c r="H71" s="17">
+      <c r="H71" s="16">
         <v>7.1312226204154854</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="16">
         <v>-4.517323032035776</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="16">
         <v>8.980102682735037</v>
       </c>
-      <c r="K71" s="17">
+      <c r="K71" s="16">
         <v>26.062521859908514</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L71" s="16">
         <v>-3.8875835621290804</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M71" s="16">
         <v>-1.9801731124279058</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N71" s="16">
         <v>16.217967662512649</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O71" s="16">
         <v>16.593220632587148</v>
       </c>
-      <c r="P71" s="17">
+      <c r="P71" s="16">
         <v>20.247891103629925</v>
       </c>
-      <c r="Q71" s="17">
+      <c r="Q71" s="16">
         <v>11.812309255088422</v>
       </c>
-      <c r="R71" s="17">
+      <c r="R71" s="16">
         <v>19.822950241595009</v>
       </c>
-      <c r="S71" s="17">
+      <c r="S71" s="16">
         <v>14.173655024103724</v>
       </c>
-      <c r="T71" s="17">
+      <c r="T71" s="16">
         <v>6.6273485667943248</v>
       </c>
-      <c r="U71" s="17">
+      <c r="U71" s="16">
         <v>-24.084117610815014</v>
       </c>
-      <c r="V71" s="17">
+      <c r="V71" s="16">
         <v>5.4842253294958567</v>
       </c>
-      <c r="W71" s="17"/>
-      <c r="X71" s="9"/>
+      <c r="W71" s="16">
+        <v>27.872461321854431</v>
+      </c>
+      <c r="X71" s="16"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -5596,38 +5666,39 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-    </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+    </row>
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -5719,8 +5790,8 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -5812,202 +5883,208 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
-      <c r="T84" s="15"/>
-      <c r="U84" s="15"/>
-      <c r="V84" s="15"/>
-      <c r="W84" s="15"/>
-    </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="14"/>
+      <c r="U84" s="14"/>
+      <c r="V84" s="14"/>
+      <c r="W84" s="14"/>
+      <c r="X84" s="14"/>
+    </row>
+    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I85" s="16" t="s">
+      <c r="I85" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J85" s="16" t="s">
+      <c r="J85" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K85" s="16" t="s">
+      <c r="K85" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="16" t="s">
+      <c r="L85" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M85" s="16" t="s">
+      <c r="M85" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N85" s="16" t="s">
+      <c r="N85" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="O85" s="16" t="s">
+      <c r="O85" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P85" s="16" t="s">
+      <c r="P85" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q85" s="16" t="s">
+      <c r="Q85" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="R85" s="16" t="s">
+      <c r="R85" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S85" s="16" t="s">
+      <c r="S85" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="T85" s="16" t="s">
+      <c r="T85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U85" s="16" t="s">
+      <c r="U85" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V85" s="16" t="s">
+      <c r="V85" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W85" s="16"/>
-    </row>
-    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X85" s="15"/>
+    </row>
+    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>26.497540806659643</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="16">
         <v>52.96319576574632</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="16">
         <v>11.510353878980538</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="16">
         <v>2.0939389886628135</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <v>-16.469852385238823</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G87" s="16">
         <v>1.7943817102957809</v>
       </c>
-      <c r="H87" s="17">
+      <c r="H87" s="16">
         <v>1.322179917822524</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="16">
         <v>-12.317596711985473</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="16">
         <v>-6.9514348632472576</v>
       </c>
-      <c r="K87" s="17">
+      <c r="K87" s="16">
         <v>5.6211830710871595</v>
       </c>
-      <c r="L87" s="17">
+      <c r="L87" s="16">
         <v>4.0871178446332266</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M87" s="16">
         <v>5.5558150963716031</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N87" s="16">
         <v>4.9280565049526786</v>
       </c>
-      <c r="O87" s="17">
+      <c r="O87" s="16">
         <v>15.937080154290854</v>
       </c>
-      <c r="P87" s="17">
+      <c r="P87" s="16">
         <v>10.46170978328891</v>
       </c>
-      <c r="Q87" s="17">
+      <c r="Q87" s="16">
         <v>2.831609340600977</v>
       </c>
-      <c r="R87" s="17">
+      <c r="R87" s="16">
         <v>32.116270281816838</v>
       </c>
-      <c r="S87" s="17">
+      <c r="S87" s="16">
         <v>5.5515390465478163</v>
       </c>
-      <c r="T87" s="17">
+      <c r="T87" s="16">
         <v>3.8607384117942019</v>
       </c>
-      <c r="U87" s="17">
+      <c r="U87" s="16">
         <v>-48.508374058106696</v>
       </c>
-      <c r="V87" s="17">
+      <c r="V87" s="16">
         <v>-2.3258520529022206</v>
       </c>
-      <c r="W87" s="17"/>
-      <c r="X87" s="9"/>
+      <c r="W87" s="16">
+        <v>73.015917804323351</v>
+      </c>
+      <c r="X87" s="16"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -6076,75 +6153,77 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>7.0860493246592142</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="16">
         <v>1.4056303118224207</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D88" s="16">
         <v>3.0223569969683552</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="16">
         <v>4.0553374897867656</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <v>33.892217334914193</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G88" s="16">
         <v>10.494615659576851</v>
       </c>
-      <c r="H88" s="17">
+      <c r="H88" s="16">
         <v>-8.457893260027717</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="16">
         <v>-20.710117479292805</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="16">
         <v>-0.85120712504055973</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K88" s="16">
         <v>89.650758296133745</v>
       </c>
-      <c r="L88" s="17">
+      <c r="L88" s="16">
         <v>-22.301448299561528</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M88" s="16">
         <v>12.356891979003109</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N88" s="16">
         <v>-3.9441313271473888</v>
       </c>
-      <c r="O88" s="17">
+      <c r="O88" s="16">
         <v>17.263729704492079</v>
       </c>
-      <c r="P88" s="17">
+      <c r="P88" s="16">
         <v>-11.491727581021806</v>
       </c>
-      <c r="Q88" s="17">
+      <c r="Q88" s="16">
         <v>2.6646718978557118</v>
       </c>
-      <c r="R88" s="17">
+      <c r="R88" s="16">
         <v>23.438748080237389</v>
       </c>
-      <c r="S88" s="17">
+      <c r="S88" s="16">
         <v>-2.3748163808348295</v>
       </c>
-      <c r="T88" s="17">
+      <c r="T88" s="16">
         <v>2.3303846686043386</v>
       </c>
-      <c r="U88" s="17">
+      <c r="U88" s="16">
         <v>-14.029399488094327</v>
       </c>
-      <c r="V88" s="17">
+      <c r="V88" s="16">
         <v>7.7010187465808002</v>
       </c>
-      <c r="W88" s="17"/>
-      <c r="X88" s="9"/>
+      <c r="W88" s="16">
+        <v>14.201072016858788</v>
+      </c>
+      <c r="X88" s="16"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -6213,75 +6292,77 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>-6.2163753792094525</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="16">
         <v>2.99025377773701</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89" s="16">
         <v>-8.7090439562196593</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="16">
         <v>34.880403921636997</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <v>6.8561678488965754</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="16">
         <v>38.484623085085275</v>
       </c>
-      <c r="H89" s="17">
+      <c r="H89" s="16">
         <v>22.273846656774182</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="16">
         <v>-55.689554779124265</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="16">
         <v>-7.0662850056404096</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K89" s="16">
         <v>6.1663369846592104</v>
       </c>
-      <c r="L89" s="17">
+      <c r="L89" s="16">
         <v>22.7113754847839</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M89" s="16">
         <v>18.95784515794081</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N89" s="16">
         <v>12.422515630343597</v>
       </c>
-      <c r="O89" s="17">
+      <c r="O89" s="16">
         <v>12.814871465849919</v>
       </c>
-      <c r="P89" s="17">
+      <c r="P89" s="16">
         <v>3.072967409619622</v>
       </c>
-      <c r="Q89" s="17">
+      <c r="Q89" s="16">
         <v>1.7778326228060877</v>
       </c>
-      <c r="R89" s="17">
+      <c r="R89" s="16">
         <v>39.083155569256974</v>
       </c>
-      <c r="S89" s="17">
+      <c r="S89" s="16">
         <v>14.167919084858056</v>
       </c>
-      <c r="T89" s="17">
+      <c r="T89" s="16">
         <v>22.051736066866695</v>
       </c>
-      <c r="U89" s="17">
+      <c r="U89" s="16">
         <v>-76.177052263864695</v>
       </c>
-      <c r="V89" s="17">
+      <c r="V89" s="16">
         <v>-53.408301092213783</v>
       </c>
-      <c r="W89" s="17"/>
-      <c r="X89" s="9"/>
+      <c r="W89" s="16">
+        <v>246.32044750299877</v>
+      </c>
+      <c r="X89" s="16"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
@@ -6350,75 +6431,77 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>-4.0594498663260481</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="16">
         <v>-28.520534068898456</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90" s="16">
         <v>-29.8861537215315</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="16">
         <v>77.808958037893547</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="16">
         <v>25.148921571288369</v>
       </c>
-      <c r="G90" s="17">
+      <c r="G90" s="16">
         <v>24.651776582648637</v>
       </c>
-      <c r="H90" s="17">
+      <c r="H90" s="16">
         <v>14.892159382777152</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="16">
         <v>54.627736580918707</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="16">
         <v>10.315670335910184</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="16">
         <v>-5.9134347004796552</v>
       </c>
-      <c r="L90" s="17">
+      <c r="L90" s="16">
         <v>35.42345596084624</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M90" s="16">
         <v>-8.3364591475544501</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N90" s="16">
         <v>-13.423866318228221</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O90" s="16">
         <v>19.977231946074141</v>
       </c>
-      <c r="P90" s="17">
+      <c r="P90" s="16">
         <v>-17.381652963129739</v>
       </c>
-      <c r="Q90" s="17">
+      <c r="Q90" s="16">
         <v>46.50309360853683</v>
       </c>
-      <c r="R90" s="17">
+      <c r="R90" s="16">
         <v>-15.440077137423529</v>
       </c>
-      <c r="S90" s="17">
+      <c r="S90" s="16">
         <v>76.256921655811226</v>
       </c>
-      <c r="T90" s="17">
+      <c r="T90" s="16">
         <v>2.0257098259680077</v>
       </c>
-      <c r="U90" s="17">
+      <c r="U90" s="16">
         <v>-8.7023982476961947</v>
       </c>
-      <c r="V90" s="17">
+      <c r="V90" s="16">
         <v>48.366245200877785</v>
       </c>
-      <c r="W90" s="17"/>
-      <c r="X90" s="9"/>
+      <c r="W90" s="16">
+        <v>0.22288204522038768</v>
+      </c>
+      <c r="X90" s="16"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -6487,75 +6570,77 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>39.227150506693988</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="16">
         <v>12.255325590405519</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91" s="16">
         <v>32.191118005455479</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="16">
         <v>46.078503882695856</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <v>20.422417759974508</v>
       </c>
-      <c r="G91" s="17">
+      <c r="G91" s="16">
         <v>43.076733614050568</v>
       </c>
-      <c r="H91" s="17">
+      <c r="H91" s="16">
         <v>52.75067638948272</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="16">
         <v>37.505407669348187</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="16">
         <v>29.01728257502154</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K91" s="16">
         <v>2.9220897632749967</v>
       </c>
-      <c r="L91" s="17">
+      <c r="L91" s="16">
         <v>69.473736185606867</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M91" s="16">
         <v>6.6202777384134208</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N91" s="16">
         <v>-2.3967353804218163</v>
       </c>
-      <c r="O91" s="17">
+      <c r="O91" s="16">
         <v>6.620131139793898</v>
       </c>
-      <c r="P91" s="17">
+      <c r="P91" s="16">
         <v>-3.8120934288388639</v>
       </c>
-      <c r="Q91" s="17">
+      <c r="Q91" s="16">
         <v>50.851293923705555</v>
       </c>
-      <c r="R91" s="17">
+      <c r="R91" s="16">
         <v>12.845977667200998</v>
       </c>
-      <c r="S91" s="17">
+      <c r="S91" s="16">
         <v>11.192640568786487</v>
       </c>
-      <c r="T91" s="17">
+      <c r="T91" s="16">
         <v>1.6031839550876441</v>
       </c>
-      <c r="U91" s="17">
+      <c r="U91" s="16">
         <v>-11.780961510735494</v>
       </c>
-      <c r="V91" s="17">
+      <c r="V91" s="16">
         <v>9.4064197946539707</v>
       </c>
-      <c r="W91" s="17"/>
-      <c r="X91" s="9"/>
+      <c r="W91" s="16">
+        <v>12.86185641207571</v>
+      </c>
+      <c r="X91" s="16"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -6624,75 +6709,77 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>126.17880338517716</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="16">
         <v>21.743007644454053</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92" s="16">
         <v>25.552735205381083</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92" s="16">
         <v>12.564677604516163</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <v>63.974296120828143</v>
       </c>
-      <c r="G92" s="17">
+      <c r="G92" s="16">
         <v>11.661260233971632</v>
       </c>
-      <c r="H92" s="17">
+      <c r="H92" s="16">
         <v>-3.7447712554456274</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="16">
         <v>26.659556169402123</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="16">
         <v>17.884910396072911</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="16">
         <v>31.485699750810994</v>
       </c>
-      <c r="L92" s="17">
+      <c r="L92" s="16">
         <v>-6.0319405102113137</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M92" s="16">
         <v>-9.6837582085219367</v>
       </c>
-      <c r="N92" s="17">
+      <c r="N92" s="16">
         <v>19.984603610526122</v>
       </c>
-      <c r="O92" s="17">
+      <c r="O92" s="16">
         <v>10.170415680945695</v>
       </c>
-      <c r="P92" s="17">
+      <c r="P92" s="16">
         <v>29.918329025699478</v>
       </c>
-      <c r="Q92" s="17">
+      <c r="Q92" s="16">
         <v>3.180473525194401</v>
       </c>
-      <c r="R92" s="17">
+      <c r="R92" s="16">
         <v>8.3202259331755783</v>
       </c>
-      <c r="S92" s="17">
+      <c r="S92" s="16">
         <v>7.6755461010180852</v>
       </c>
-      <c r="T92" s="17">
+      <c r="T92" s="16">
         <v>-1.1825962524525835E-2</v>
       </c>
-      <c r="U92" s="17">
+      <c r="U92" s="16">
         <v>-3.6261614085312459</v>
       </c>
-      <c r="V92" s="17">
+      <c r="V92" s="16">
         <v>4.4732904376555211</v>
       </c>
-      <c r="W92" s="17"/>
-      <c r="X92" s="9"/>
+      <c r="W92" s="16">
+        <v>9.2269407028624073</v>
+      </c>
+      <c r="X92" s="16"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -6761,75 +6848,77 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>72.650492654141033</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="16">
         <v>24.487874219932081</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93" s="16">
         <v>19.125433579440383</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93" s="16">
         <v>5.976634509172456</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <v>85.274474667230521</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <v>-9.6180749978695843</v>
       </c>
-      <c r="H93" s="17">
+      <c r="H93" s="16">
         <v>-17.558335151133292</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="16">
         <v>-12.933554614516524</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="16">
         <v>-22.559268728304843</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K93" s="16">
         <v>29.537664089415671</v>
       </c>
-      <c r="L93" s="17">
+      <c r="L93" s="16">
         <v>-13.547919336784133</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M93" s="16">
         <v>-47.600346381375999</v>
       </c>
-      <c r="N93" s="17">
+      <c r="N93" s="16">
         <v>16.297442701851139</v>
       </c>
-      <c r="O93" s="17">
+      <c r="O93" s="16">
         <v>3.942970187336357</v>
       </c>
-      <c r="P93" s="17">
+      <c r="P93" s="16">
         <v>34.849040743797644</v>
       </c>
-      <c r="Q93" s="17">
+      <c r="Q93" s="16">
         <v>29.018770267649501</v>
       </c>
-      <c r="R93" s="17">
+      <c r="R93" s="16">
         <v>31.721006282079372</v>
       </c>
-      <c r="S93" s="17">
+      <c r="S93" s="16">
         <v>17.200647026884212</v>
       </c>
-      <c r="T93" s="17">
+      <c r="T93" s="16">
         <v>-0.40808916377568494</v>
       </c>
-      <c r="U93" s="17">
+      <c r="U93" s="16">
         <v>-14.65345172444222</v>
       </c>
-      <c r="V93" s="17">
+      <c r="V93" s="16">
         <v>14.339325623422994</v>
       </c>
-      <c r="W93" s="17"/>
-      <c r="X93" s="9"/>
+      <c r="W93" s="16">
+        <v>5.7215475383606531</v>
+      </c>
+      <c r="X93" s="16"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
@@ -6898,75 +6987,77 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>-2.9292903370210297</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="16">
         <v>17.225442835591423</v>
       </c>
-      <c r="D94" s="17">
+      <c r="D94" s="16">
         <v>7.9102804058299228</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94" s="16">
         <v>58.795433085607925</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <v>41.01650511652511</v>
       </c>
-      <c r="G94" s="17">
+      <c r="G94" s="16">
         <v>46.795544811152865</v>
       </c>
-      <c r="H94" s="17">
+      <c r="H94" s="16">
         <v>42.464557392838543</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="16">
         <v>14.438483518939947</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="16">
         <v>-7.8437231955074225</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="16">
         <v>-10.409035778429612</v>
       </c>
-      <c r="L94" s="17">
+      <c r="L94" s="16">
         <v>-1.3119336299980944</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M94" s="16">
         <v>29.280046942114751</v>
       </c>
-      <c r="N94" s="17">
+      <c r="N94" s="16">
         <v>-24.360733299673086</v>
       </c>
-      <c r="O94" s="17">
+      <c r="O94" s="16">
         <v>39.556150691476802</v>
       </c>
-      <c r="P94" s="17">
+      <c r="P94" s="16">
         <v>42.389734204776886</v>
       </c>
-      <c r="Q94" s="17">
+      <c r="Q94" s="16">
         <v>19.627853898921074</v>
       </c>
-      <c r="R94" s="17">
+      <c r="R94" s="16">
         <v>-16.803232597139854</v>
       </c>
-      <c r="S94" s="17">
+      <c r="S94" s="16">
         <v>6.4405322405102652</v>
       </c>
-      <c r="T94" s="17">
+      <c r="T94" s="16">
         <v>-5.8136600340646112</v>
       </c>
-      <c r="U94" s="17">
+      <c r="U94" s="16">
         <v>-39.997728711953073</v>
       </c>
-      <c r="V94" s="17">
+      <c r="V94" s="16">
         <v>29.537901551061964</v>
       </c>
-      <c r="W94" s="17"/>
-      <c r="X94" s="9"/>
+      <c r="W94" s="16">
+        <v>36.933891977398275</v>
+      </c>
+      <c r="X94" s="16"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
@@ -7035,8 +7126,8 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
+    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -7128,75 +7219,77 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>32.586002589033512</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="16">
         <v>19.560840639340825</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96" s="16">
         <v>11.07566874483868</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="16">
         <v>16.053045501949896</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>37.288272225177479</v>
       </c>
-      <c r="G96" s="17">
+      <c r="G96" s="16">
         <v>12.051848479872689</v>
       </c>
-      <c r="H96" s="17">
+      <c r="H96" s="16">
         <v>3.5923295970749223</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="16">
         <v>-10.680752805852848</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="16">
         <v>4.8110045929150971</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="16">
         <v>21.650119414539944</v>
       </c>
-      <c r="L96" s="17">
+      <c r="L96" s="16">
         <v>4.1024520745107935</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M96" s="16">
         <v>-5.8530072165112017</v>
       </c>
-      <c r="N96" s="17">
+      <c r="N96" s="16">
         <v>12.481227787946352</v>
       </c>
-      <c r="O96" s="17">
+      <c r="O96" s="16">
         <v>10.582317997981747</v>
       </c>
-      <c r="P96" s="17">
+      <c r="P96" s="16">
         <v>19.040124591835067</v>
       </c>
-      <c r="Q96" s="17">
+      <c r="Q96" s="16">
         <v>10.480890632287142</v>
       </c>
-      <c r="R96" s="17">
+      <c r="R96" s="16">
         <v>16.502843941184551</v>
       </c>
-      <c r="S96" s="17">
+      <c r="S96" s="16">
         <v>10.263628749956695</v>
       </c>
-      <c r="T96" s="17">
+      <c r="T96" s="16">
         <v>4.550279257951388</v>
       </c>
-      <c r="U96" s="17">
+      <c r="U96" s="16">
         <v>-25.403217190302911</v>
       </c>
-      <c r="V96" s="17">
+      <c r="V96" s="16">
         <v>2.4679808005639643</v>
       </c>
-      <c r="W96" s="17"/>
-      <c r="X96" s="9"/>
+      <c r="W96" s="16">
+        <v>20.190178318345843</v>
+      </c>
+      <c r="X96" s="16"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
@@ -7265,38 +7358,39 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13"/>
-      <c r="O97" s="13"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-      <c r="R97" s="13"/>
-      <c r="S97" s="13"/>
-      <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="13"/>
-      <c r="W97" s="13"/>
-    </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+    </row>
+    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
@@ -7388,8 +7482,8 @@
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
+    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
@@ -7482,201 +7576,207 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
-      <c r="T108" s="15"/>
-      <c r="U108" s="15"/>
-      <c r="V108" s="15"/>
-      <c r="W108" s="15"/>
-    </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="14"/>
+      <c r="R108" s="14"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="14"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="14"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="14"/>
+    </row>
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-      <c r="B109" s="16">
+      <c r="B109" s="15">
         <v>2000</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C109" s="15">
         <v>2001</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <v>2002</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="15">
         <v>2003</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="15">
         <v>2004</v>
       </c>
-      <c r="G109" s="16">
+      <c r="G109" s="15">
         <v>2005</v>
       </c>
-      <c r="H109" s="16">
+      <c r="H109" s="15">
         <v>2006</v>
       </c>
-      <c r="I109" s="16">
+      <c r="I109" s="15">
         <v>2007</v>
       </c>
-      <c r="J109" s="16">
+      <c r="J109" s="15">
         <v>2008</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="15">
         <v>2009</v>
       </c>
-      <c r="L109" s="16">
+      <c r="L109" s="15">
         <v>2010</v>
       </c>
-      <c r="M109" s="16">
+      <c r="M109" s="15">
         <v>2011</v>
       </c>
-      <c r="N109" s="16">
+      <c r="N109" s="15">
         <v>2012</v>
       </c>
-      <c r="O109" s="16">
+      <c r="O109" s="15">
         <v>2013</v>
       </c>
-      <c r="P109" s="16">
+      <c r="P109" s="15">
         <v>2014</v>
       </c>
-      <c r="Q109" s="16">
+      <c r="Q109" s="15">
         <v>2015</v>
       </c>
-      <c r="R109" s="16">
+      <c r="R109" s="15">
         <v>2016</v>
       </c>
-      <c r="S109" s="16">
+      <c r="S109" s="15">
         <v>2017</v>
       </c>
-      <c r="T109" s="16">
+      <c r="T109" s="15">
         <v>2018</v>
       </c>
-      <c r="U109" s="16">
+      <c r="U109" s="15">
         <v>2019</v>
       </c>
-      <c r="V109" s="16">
+      <c r="V109" s="15">
         <v>2020</v>
       </c>
-      <c r="W109" s="16">
+      <c r="W109" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>51.157566924725117</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="16">
         <v>58.458084426321207</v>
       </c>
-      <c r="D111" s="17">
+      <c r="D111" s="16">
         <v>57.606751074949813</v>
       </c>
-      <c r="E111" s="17">
+      <c r="E111" s="16">
         <v>58.767938135716413</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="16">
         <v>62.615421664823586</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="16">
         <v>70.814022811713116</v>
       </c>
-      <c r="H111" s="17">
+      <c r="H111" s="16">
         <v>77.508654220759951</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I111" s="16">
         <v>79.007557919442661</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="16">
         <v>85.387992314892387</v>
       </c>
-      <c r="K111" s="17">
+      <c r="K111" s="16">
         <v>87.271324316539193</v>
       </c>
-      <c r="L111" s="17">
+      <c r="L111" s="16">
         <v>91.534992950755594</v>
       </c>
-      <c r="M111" s="17">
+      <c r="M111" s="16">
         <v>86.288355519795061</v>
       </c>
-      <c r="N111" s="17">
+      <c r="N111" s="16">
         <v>89.465608813729119</v>
       </c>
-      <c r="O111" s="17">
+      <c r="O111" s="16">
         <v>90.4498873626966</v>
       </c>
-      <c r="P111" s="17">
+      <c r="P111" s="16">
         <v>93.696106614893978</v>
       </c>
-      <c r="Q111" s="17">
+      <c r="Q111" s="16">
         <v>89.961789886033245</v>
       </c>
-      <c r="R111" s="17">
+      <c r="R111" s="16">
         <v>88.975832652198974</v>
       </c>
-      <c r="S111" s="17">
+      <c r="S111" s="16">
         <v>93.897681391896171</v>
       </c>
-      <c r="T111" s="17">
+      <c r="T111" s="16">
         <v>100</v>
       </c>
-      <c r="U111" s="17">
+      <c r="U111" s="16">
         <v>101.0965978345949</v>
       </c>
-      <c r="V111" s="17">
+      <c r="V111" s="16">
         <v>104.80578104007321</v>
       </c>
-      <c r="W111" s="17">
+      <c r="W111" s="16">
         <v>113.85937283425287</v>
       </c>
-      <c r="X111" s="9"/>
+      <c r="X111" s="16">
+        <v>128.48830051603122</v>
+      </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -7750,77 +7850,79 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>63.09676985257677</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="16">
         <v>67.941571829339921</v>
       </c>
-      <c r="D112" s="17">
+      <c r="D112" s="16">
         <v>67.984443874730374</v>
       </c>
-      <c r="E112" s="17">
+      <c r="E112" s="16">
         <v>69.159494296403921</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="16">
         <v>68.739170207357432</v>
       </c>
-      <c r="G112" s="17">
+      <c r="G112" s="16">
         <v>71.054488489473101</v>
       </c>
-      <c r="H112" s="17">
+      <c r="H112" s="16">
         <v>74.173121625220446</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I112" s="16">
         <v>76.350269388328428</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J112" s="16">
         <v>79.631097737334528</v>
       </c>
-      <c r="K112" s="17">
+      <c r="K112" s="16">
         <v>82.599306273777472</v>
       </c>
-      <c r="L112" s="17">
+      <c r="L112" s="16">
         <v>86.618187431037455</v>
       </c>
-      <c r="M112" s="17">
+      <c r="M112" s="16">
         <v>80.378473435993087</v>
       </c>
-      <c r="N112" s="17">
+      <c r="N112" s="16">
         <v>84.416860523168296</v>
       </c>
-      <c r="O112" s="17">
+      <c r="O112" s="16">
         <v>86.955721760658321</v>
       </c>
-      <c r="P112" s="17">
+      <c r="P112" s="16">
         <v>91.499481546277011</v>
       </c>
-      <c r="Q112" s="17">
+      <c r="Q112" s="16">
         <v>92.669400643114514</v>
       </c>
-      <c r="R112" s="17">
+      <c r="R112" s="16">
         <v>93.685232752119759</v>
       </c>
-      <c r="S112" s="17">
+      <c r="S112" s="16">
         <v>96.607377378693897</v>
       </c>
-      <c r="T112" s="17">
+      <c r="T112" s="16">
         <v>100</v>
       </c>
-      <c r="U112" s="17">
+      <c r="U112" s="16">
         <v>102.32600368772611</v>
       </c>
-      <c r="V112" s="17">
+      <c r="V112" s="16">
         <v>104.38112903649552</v>
       </c>
-      <c r="W112" s="17">
+      <c r="W112" s="16">
         <v>107.99235798979292</v>
       </c>
-      <c r="X112" s="9"/>
+      <c r="X112" s="16">
+        <v>114.29740867000086</v>
+      </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -7894,77 +7996,79 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>58.72638680465775</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="16">
         <v>61.973361300114973</v>
       </c>
-      <c r="D113" s="17">
+      <c r="D113" s="16">
         <v>61.721433269045221</v>
       </c>
-      <c r="E113" s="17">
+      <c r="E113" s="16">
         <v>62.266113718670326</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="16">
         <v>62.328374697365298</v>
       </c>
-      <c r="G113" s="17">
+      <c r="G113" s="16">
         <v>64.33093760710868</v>
       </c>
-      <c r="H113" s="17">
+      <c r="H113" s="16">
         <v>67.015274274956624</v>
       </c>
-      <c r="I113" s="17">
+      <c r="I113" s="16">
         <v>69.328816875847593</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="16">
         <v>74.436532690769496</v>
       </c>
-      <c r="K113" s="17">
+      <c r="K113" s="16">
         <v>78.49140597593464</v>
       </c>
-      <c r="L113" s="17">
+      <c r="L113" s="16">
         <v>82.411468361860329</v>
       </c>
-      <c r="M113" s="17">
+      <c r="M113" s="16">
         <v>76.405667925719925</v>
       </c>
-      <c r="N113" s="17">
+      <c r="N113" s="16">
         <v>79.909316651070739</v>
       </c>
-      <c r="O113" s="17">
+      <c r="O113" s="16">
         <v>82.88090506121037</v>
       </c>
-      <c r="P113" s="17">
+      <c r="P113" s="16">
         <v>88.651676700121968</v>
       </c>
-      <c r="Q113" s="17">
+      <c r="Q113" s="16">
         <v>90.645334974934883</v>
       </c>
-      <c r="R113" s="17">
+      <c r="R113" s="16">
         <v>91.937297648837543</v>
       </c>
-      <c r="S113" s="17">
+      <c r="S113" s="16">
         <v>95.060841497282695</v>
       </c>
-      <c r="T113" s="17">
+      <c r="T113" s="16">
         <v>100</v>
       </c>
-      <c r="U113" s="17">
+      <c r="U113" s="16">
         <v>102.49699789325537</v>
       </c>
-      <c r="V113" s="17">
+      <c r="V113" s="16">
         <v>105.0977729077301</v>
       </c>
-      <c r="W113" s="17">
+      <c r="W113" s="16">
         <v>109.82186107974634</v>
       </c>
-      <c r="X113" s="9"/>
+      <c r="X113" s="16">
+        <v>116.82553179963881</v>
+      </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -8038,77 +8142,79 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>64.168142405812645</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="16">
         <v>69.39991153067264</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="16">
         <v>69.879246617259881</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="16">
         <v>71.19894490739452</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="16">
         <v>70.437315143648789</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="16">
         <v>73.719856086361304</v>
       </c>
-      <c r="H114" s="17">
+      <c r="H114" s="16">
         <v>77.793822296970262</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I114" s="16">
         <v>80.013667471640929</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J114" s="16">
         <v>82.625834886733486</v>
       </c>
-      <c r="K114" s="17">
+      <c r="K114" s="16">
         <v>84.845098246538058</v>
       </c>
-      <c r="L114" s="17">
+      <c r="L114" s="16">
         <v>89.261293274728303</v>
       </c>
-      <c r="M114" s="17">
+      <c r="M114" s="16">
         <v>82.492055442441398</v>
       </c>
-      <c r="N114" s="17">
+      <c r="N114" s="16">
         <v>86.387652951794152</v>
       </c>
-      <c r="O114" s="17">
+      <c r="O114" s="16">
         <v>87.992528212661355</v>
       </c>
-      <c r="P114" s="17">
+      <c r="P114" s="16">
         <v>92.169256898339327</v>
       </c>
-      <c r="Q114" s="17">
+      <c r="Q114" s="16">
         <v>92.752399423531955</v>
       </c>
-      <c r="R114" s="17">
+      <c r="R114" s="16">
         <v>92.544868363439974</v>
       </c>
-      <c r="S114" s="17">
+      <c r="S114" s="16">
         <v>95.647044339173618</v>
       </c>
-      <c r="T114" s="17">
+      <c r="T114" s="16">
         <v>100</v>
       </c>
-      <c r="U114" s="17">
+      <c r="U114" s="16">
         <v>102.34656066439594</v>
       </c>
-      <c r="V114" s="17">
+      <c r="V114" s="16">
         <v>103.85597306886135</v>
       </c>
-      <c r="W114" s="17">
+      <c r="W114" s="16">
         <v>106.4808022466493</v>
       </c>
-      <c r="X114" s="9"/>
+      <c r="X114" s="16">
+        <v>111.766752397472</v>
+      </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -8182,77 +8288,79 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>140.93112201456964</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="16">
         <v>140.1365621200373</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="16">
         <v>133.55692193123366</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="16">
         <v>123.62592756335191</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="16">
         <v>116.65711955704565</v>
       </c>
-      <c r="G115" s="17">
+      <c r="G115" s="16">
         <v>111.69231829881106</v>
       </c>
-      <c r="H115" s="17">
+      <c r="H115" s="16">
         <v>110.16736006171246</v>
       </c>
-      <c r="I115" s="17">
+      <c r="I115" s="16">
         <v>108.80155437601728</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="16">
         <v>104.60313979840403</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="16">
         <v>103.64792024268222</v>
       </c>
-      <c r="L115" s="17">
+      <c r="L115" s="16">
         <v>104.29676598260464</v>
       </c>
-      <c r="M115" s="17">
+      <c r="M115" s="16">
         <v>91.01522549206183</v>
       </c>
-      <c r="N115" s="17">
+      <c r="N115" s="16">
         <v>92.799981064992664</v>
       </c>
-      <c r="O115" s="17">
+      <c r="O115" s="16">
         <v>93.976260237463734</v>
       </c>
-      <c r="P115" s="17">
+      <c r="P115" s="16">
         <v>96.898507218979873</v>
       </c>
-      <c r="Q115" s="17">
+      <c r="Q115" s="16">
         <v>98.339306715099738</v>
       </c>
-      <c r="R115" s="17">
+      <c r="R115" s="16">
         <v>98.817077744997391</v>
       </c>
-      <c r="S115" s="17">
+      <c r="S115" s="16">
         <v>99.629291209962815</v>
       </c>
-      <c r="T115" s="17">
+      <c r="T115" s="16">
         <v>100.00000000000003</v>
       </c>
-      <c r="U115" s="17">
+      <c r="U115" s="16">
         <v>100.31812524745851</v>
       </c>
-      <c r="V115" s="17">
+      <c r="V115" s="16">
         <v>100.6233867493781</v>
       </c>
-      <c r="W115" s="17">
+      <c r="W115" s="16">
         <v>100.86295153539591</v>
       </c>
-      <c r="X115" s="9"/>
+      <c r="X115" s="16">
+        <v>101.5205894676067</v>
+      </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -8326,77 +8434,79 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>71.430382514052454</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="16">
         <v>66.412392767859657</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="16">
         <v>66.496186979442285</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="16">
         <v>66.9734011795844</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="16">
         <v>68.739170207357489</v>
       </c>
-      <c r="G116" s="17">
+      <c r="G116" s="16">
         <v>70.350473088779125</v>
       </c>
-      <c r="H116" s="17">
+      <c r="H116" s="16">
         <v>73.887422430057342</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I116" s="16">
         <v>76.60945127425714</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J116" s="16">
         <v>79.631097737334514</v>
       </c>
-      <c r="K116" s="17">
+      <c r="K116" s="16">
         <v>82.742160640033347</v>
       </c>
-      <c r="L116" s="17">
+      <c r="L116" s="16">
         <v>86.138711395083561</v>
       </c>
-      <c r="M116" s="17">
+      <c r="M116" s="16">
         <v>78.926839244477421</v>
       </c>
-      <c r="N116" s="17">
+      <c r="N116" s="16">
         <v>82.35069559688732</v>
       </c>
-      <c r="O116" s="17">
+      <c r="O116" s="16">
         <v>86.354713669419354</v>
       </c>
-      <c r="P116" s="17">
+      <c r="P116" s="16">
         <v>91.499481590178434</v>
       </c>
-      <c r="Q116" s="17">
+      <c r="Q116" s="16">
         <v>92.669400645275132</v>
       </c>
-      <c r="R116" s="17">
+      <c r="R116" s="16">
         <v>93.685232759238801</v>
       </c>
-      <c r="S116" s="17">
+      <c r="S116" s="16">
         <v>96.607377378693997</v>
       </c>
-      <c r="T116" s="17">
+      <c r="T116" s="16">
         <v>100.00000000000009</v>
       </c>
-      <c r="U116" s="17">
+      <c r="U116" s="16">
         <v>102.30910735737488</v>
       </c>
-      <c r="V116" s="17">
+      <c r="V116" s="16">
         <v>104.37386814639258</v>
       </c>
-      <c r="W116" s="17">
+      <c r="W116" s="16">
         <v>107.78353869493176</v>
       </c>
-      <c r="X116" s="9"/>
+      <c r="X116" s="16">
+        <v>115.28657769517447</v>
+      </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -8470,77 +8580,79 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>63.09676985257677</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="16">
         <v>65.30441396038816</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="16">
         <v>65.482717927261248</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="16">
         <v>66.401290830866913</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="16">
         <v>67.64618979586507</v>
       </c>
-      <c r="G117" s="17">
+      <c r="G117" s="16">
         <v>70.088376832346938</v>
       </c>
-      <c r="H117" s="17">
+      <c r="H117" s="16">
         <v>73.785627515872932</v>
       </c>
-      <c r="I117" s="17">
+      <c r="I117" s="16">
         <v>76.350269388328371</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="16">
         <v>79.631097737334485</v>
       </c>
-      <c r="K117" s="17">
+      <c r="K117" s="16">
         <v>82.599306273777401</v>
       </c>
-      <c r="L117" s="17">
+      <c r="L117" s="16">
         <v>86.618187431037441</v>
       </c>
-      <c r="M117" s="17">
+      <c r="M117" s="16">
         <v>80.378473435993115</v>
       </c>
-      <c r="N117" s="17">
+      <c r="N117" s="16">
         <v>84.416860523168367</v>
       </c>
-      <c r="O117" s="17">
+      <c r="O117" s="16">
         <v>86.955721760658307</v>
       </c>
-      <c r="P117" s="17">
+      <c r="P117" s="16">
         <v>91.499481546277067</v>
       </c>
-      <c r="Q117" s="17">
+      <c r="Q117" s="16">
         <v>92.669400643114514</v>
       </c>
-      <c r="R117" s="17">
+      <c r="R117" s="16">
         <v>93.685232731808696</v>
       </c>
-      <c r="S117" s="17">
+      <c r="S117" s="16">
         <v>96.607377378693954</v>
       </c>
-      <c r="T117" s="17">
+      <c r="T117" s="16">
         <v>99.999999999999986</v>
       </c>
-      <c r="U117" s="17">
+      <c r="U117" s="16">
         <v>102.32123959329016</v>
       </c>
-      <c r="V117" s="17">
+      <c r="V117" s="16">
         <v>104.22152167108382</v>
       </c>
-      <c r="W117" s="17">
+      <c r="W117" s="16">
         <v>107.71172045573363</v>
       </c>
-      <c r="X117" s="9"/>
+      <c r="X117" s="16">
+        <v>113.40432498990256</v>
+      </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -8614,77 +8726,79 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>63.09676985257677</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="16">
         <v>67.941571829339907</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="16">
         <v>67.984443874730289</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="16">
         <v>69.159494296403935</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="16">
         <v>68.739170207357489</v>
       </c>
-      <c r="G118" s="17">
+      <c r="G118" s="16">
         <v>71.054488489473115</v>
       </c>
-      <c r="H118" s="17">
+      <c r="H118" s="16">
         <v>74.173121625220404</v>
       </c>
-      <c r="I118" s="17">
+      <c r="I118" s="16">
         <v>76.350269388328456</v>
       </c>
-      <c r="J118" s="17">
+      <c r="J118" s="16">
         <v>79.631097737334514</v>
       </c>
-      <c r="K118" s="17">
+      <c r="K118" s="16">
         <v>82.599306273777415</v>
       </c>
-      <c r="L118" s="17">
+      <c r="L118" s="16">
         <v>86.618187431037455</v>
       </c>
-      <c r="M118" s="17">
+      <c r="M118" s="16">
         <v>80.378473435993115</v>
       </c>
-      <c r="N118" s="17">
+      <c r="N118" s="16">
         <v>84.416860523168367</v>
       </c>
-      <c r="O118" s="17">
+      <c r="O118" s="16">
         <v>86.955721760658321</v>
       </c>
-      <c r="P118" s="17">
+      <c r="P118" s="16">
         <v>91.499481546277082</v>
       </c>
-      <c r="Q118" s="17">
+      <c r="Q118" s="16">
         <v>92.669400643114514</v>
       </c>
-      <c r="R118" s="17">
+      <c r="R118" s="16">
         <v>93.685232659741999</v>
       </c>
-      <c r="S118" s="17">
+      <c r="S118" s="16">
         <v>96.607377378694082</v>
       </c>
-      <c r="T118" s="17">
+      <c r="T118" s="16">
         <v>99.999999999999929</v>
       </c>
-      <c r="U118" s="17">
+      <c r="U118" s="16">
         <v>102.33242740080517</v>
       </c>
-      <c r="V118" s="17">
+      <c r="V118" s="16">
         <v>104.39561038836219</v>
       </c>
-      <c r="W118" s="17">
+      <c r="W118" s="16">
         <v>107.92403930609287</v>
       </c>
-      <c r="X118" s="9"/>
+      <c r="X118" s="16">
+        <v>114.0570807534119</v>
+      </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -8758,8 +8872,8 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
@@ -8856,77 +8970,79 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>62.216964499915584</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="16">
         <v>65.2856508966305</v>
       </c>
-      <c r="D120" s="17">
+      <c r="D120" s="16">
         <v>64.754956158682049</v>
       </c>
-      <c r="E120" s="17">
+      <c r="E120" s="16">
         <v>65.72283636225211</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="16">
         <v>67.286948784234141</v>
       </c>
-      <c r="G120" s="17">
+      <c r="G120" s="16">
         <v>70.190307063759519</v>
       </c>
-      <c r="H120" s="17">
+      <c r="H120" s="16">
         <v>73.635581506884719</v>
       </c>
-      <c r="I120" s="17">
+      <c r="I120" s="16">
         <v>76.151100239573765</v>
       </c>
-      <c r="J120" s="17">
+      <c r="J120" s="16">
         <v>81.405868649178899</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="16">
         <v>84.643973777582232</v>
       </c>
-      <c r="L120" s="17">
+      <c r="L120" s="16">
         <v>87.714116895232792</v>
       </c>
-      <c r="M120" s="17">
+      <c r="M120" s="16">
         <v>80.98191312996812</v>
       </c>
-      <c r="N120" s="17">
+      <c r="N120" s="16">
         <v>84.31318804073355</v>
       </c>
-      <c r="O120" s="17">
+      <c r="O120" s="16">
         <v>87.114157214874965</v>
       </c>
-      <c r="P120" s="17">
+      <c r="P120" s="16">
         <v>91.849405368416811</v>
       </c>
-      <c r="Q120" s="17">
+      <c r="Q120" s="16">
         <v>92.781298176094992</v>
       </c>
-      <c r="R120" s="17">
+      <c r="R120" s="16">
         <v>93.89941686189087</v>
       </c>
-      <c r="S120" s="17">
+      <c r="S120" s="16">
         <v>96.575369096030499</v>
       </c>
-      <c r="T120" s="17">
+      <c r="T120" s="16">
         <v>100.00000000000004</v>
       </c>
-      <c r="U120" s="17">
+      <c r="U120" s="16">
         <v>101.98667026390082</v>
       </c>
-      <c r="V120" s="17">
+      <c r="V120" s="16">
         <v>103.79010693759332</v>
       </c>
-      <c r="W120" s="17">
+      <c r="W120" s="16">
         <v>106.845269533381</v>
       </c>
-      <c r="X120" s="9"/>
+      <c r="X120" s="16">
+        <v>113.67457630059046</v>
+      </c>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -9000,236 +9116,243 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-      <c r="P121" s="13"/>
-      <c r="Q121" s="13"/>
-      <c r="R121" s="13"/>
-      <c r="S121" s="13"/>
-      <c r="T121" s="13"/>
-      <c r="U121" s="13"/>
-      <c r="V121" s="13"/>
-      <c r="W121" s="13"/>
-    </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A122" s="14" t="s">
+    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+    </row>
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
-      <c r="T133" s="15"/>
-      <c r="U133" s="15"/>
-      <c r="V133" s="15"/>
-      <c r="W133" s="15"/>
-    </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="14"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="14"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="14"/>
+      <c r="W133" s="14"/>
+      <c r="X133" s="14"/>
+    </row>
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-      <c r="B134" s="16">
+      <c r="B134" s="15">
         <v>2000</v>
       </c>
-      <c r="C134" s="16">
+      <c r="C134" s="15">
         <v>2001</v>
       </c>
-      <c r="D134" s="16">
+      <c r="D134" s="15">
         <v>2002</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="15">
         <v>2003</v>
       </c>
-      <c r="F134" s="16">
+      <c r="F134" s="15">
         <v>2004</v>
       </c>
-      <c r="G134" s="16">
+      <c r="G134" s="15">
         <v>2005</v>
       </c>
-      <c r="H134" s="16">
+      <c r="H134" s="15">
         <v>2006</v>
       </c>
-      <c r="I134" s="16">
+      <c r="I134" s="15">
         <v>2007</v>
       </c>
-      <c r="J134" s="16">
+      <c r="J134" s="15">
         <v>2008</v>
       </c>
-      <c r="K134" s="16">
+      <c r="K134" s="15">
         <v>2009</v>
       </c>
-      <c r="L134" s="16">
+      <c r="L134" s="15">
         <v>2010</v>
       </c>
-      <c r="M134" s="16">
+      <c r="M134" s="15">
         <v>2011</v>
       </c>
-      <c r="N134" s="16">
+      <c r="N134" s="15">
         <v>2012</v>
       </c>
-      <c r="O134" s="16">
+      <c r="O134" s="15">
         <v>2013</v>
       </c>
-      <c r="P134" s="16">
+      <c r="P134" s="15">
         <v>2014</v>
       </c>
-      <c r="Q134" s="16">
+      <c r="Q134" s="15">
         <v>2015</v>
       </c>
-      <c r="R134" s="16">
+      <c r="R134" s="15">
         <v>2016</v>
       </c>
-      <c r="S134" s="16">
+      <c r="S134" s="15">
         <v>2017</v>
       </c>
-      <c r="T134" s="16">
+      <c r="T134" s="15">
         <v>2018</v>
       </c>
-      <c r="U134" s="16">
+      <c r="U134" s="15">
         <v>2019</v>
       </c>
-      <c r="V134" s="16">
+      <c r="V134" s="15">
         <v>2020</v>
       </c>
-      <c r="W134" s="16">
+      <c r="W134" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="18">
+      <c r="B136" s="17">
         <v>12.079301666292011</v>
       </c>
-      <c r="C136" s="18">
+      <c r="C136" s="17">
         <v>12.550239458458298</v>
       </c>
-      <c r="D136" s="18">
+      <c r="D136" s="17">
         <v>15.952308056653457</v>
       </c>
-      <c r="E136" s="18">
+      <c r="E136" s="17">
         <v>16.096949162966396</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="17">
         <v>14.737143389059227</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G136" s="17">
         <v>9.7210856209258019</v>
       </c>
-      <c r="H136" s="18">
+      <c r="H136" s="17">
         <v>9.213823806661356</v>
       </c>
-      <c r="I136" s="18">
+      <c r="I136" s="17">
         <v>8.88273710117973</v>
       </c>
-      <c r="J136" s="18">
+      <c r="J136" s="17">
         <v>8.8158223744962054</v>
       </c>
-      <c r="K136" s="18">
+      <c r="K136" s="17">
         <v>7.6930767088031899</v>
       </c>
-      <c r="L136" s="18">
+      <c r="L136" s="17">
         <v>6.7605290901820494</v>
       </c>
-      <c r="M136" s="18">
+      <c r="M136" s="17">
         <v>6.9018133874780254</v>
       </c>
-      <c r="N136" s="18">
+      <c r="N136" s="17">
         <v>7.7061130243957709</v>
       </c>
-      <c r="O136" s="18">
+      <c r="O136" s="17">
         <v>7.0340529869396793</v>
       </c>
-      <c r="P136" s="18">
+      <c r="P136" s="17">
         <v>7.2454974791267821</v>
       </c>
-      <c r="Q136" s="18">
+      <c r="Q136" s="17">
         <v>6.3905618887589526</v>
       </c>
-      <c r="R136" s="18">
+      <c r="R136" s="17">
         <v>5.8128622850713869</v>
       </c>
-      <c r="S136" s="18">
+      <c r="S136" s="17">
         <v>6.7637747776787567</v>
       </c>
-      <c r="T136" s="18">
+      <c r="T136" s="17">
         <v>6.6593667803696439</v>
       </c>
-      <c r="U136" s="18">
+      <c r="U136" s="17">
         <v>6.5577109799598743</v>
       </c>
-      <c r="V136" s="18">
+      <c r="V136" s="17">
         <v>4.6111041478708055</v>
       </c>
-      <c r="W136" s="18">
+      <c r="W136" s="17">
         <v>4.6385323897310009</v>
       </c>
-      <c r="X136" s="9"/>
+      <c r="X136" s="17">
+        <v>7.082464842066341</v>
+      </c>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -9303,77 +9426,79 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="18">
+      <c r="B137" s="17">
         <v>0.30483044631124834</v>
       </c>
-      <c r="C137" s="18">
+      <c r="C137" s="17">
         <v>0.2526463946191983</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>0.21617471639887786</v>
       </c>
-      <c r="E137" s="18">
+      <c r="E137" s="17">
         <v>0.20096314494151574</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="17">
         <v>0.17492914671492338</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="17">
         <v>0.16905382322700466</v>
       </c>
-      <c r="H137" s="18">
+      <c r="H137" s="17">
         <v>0.16587905339415149</v>
       </c>
-      <c r="I137" s="18">
+      <c r="I137" s="17">
         <v>0.14590171836682386</v>
       </c>
-      <c r="J137" s="18">
+      <c r="J137" s="17">
         <v>0.12636468633696005</v>
       </c>
-      <c r="K137" s="18">
+      <c r="K137" s="17">
         <v>0.11925034363967672</v>
       </c>
-      <c r="L137" s="18">
+      <c r="L137" s="17">
         <v>0.18813124237590484</v>
       </c>
-      <c r="M137" s="18">
+      <c r="M137" s="17">
         <v>0.14113184305388859</v>
       </c>
-      <c r="N137" s="18">
+      <c r="N137" s="17">
         <v>0.16990268495048697</v>
       </c>
-      <c r="O137" s="18">
+      <c r="O137" s="17">
         <v>0.14465046594942402</v>
       </c>
-      <c r="P137" s="18">
+      <c r="P137" s="17">
         <v>0.15308432034455555</v>
       </c>
-      <c r="Q137" s="18">
+      <c r="Q137" s="17">
         <v>0.11411817734728756</v>
       </c>
-      <c r="R137" s="18">
+      <c r="R137" s="17">
         <v>0.10593049924788095</v>
       </c>
-      <c r="S137" s="18">
+      <c r="S137" s="17">
         <v>0.11253086867844928</v>
       </c>
-      <c r="T137" s="18">
+      <c r="T137" s="17">
         <v>9.959954133752992E-2</v>
       </c>
-      <c r="U137" s="18">
+      <c r="U137" s="17">
         <v>9.7809119283668214E-2</v>
       </c>
-      <c r="V137" s="18">
+      <c r="V137" s="17">
         <v>0.11298808324586632</v>
       </c>
-      <c r="W137" s="18">
+      <c r="W137" s="17">
         <v>0.11935372250288426</v>
       </c>
-      <c r="X137" s="9"/>
+      <c r="X137" s="17">
+        <v>0.11281646437403371</v>
+      </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -9447,77 +9572,79 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B138" s="18">
+      <c r="B138" s="17">
         <v>47.118789738564828</v>
       </c>
-      <c r="C138" s="18">
+      <c r="C138" s="17">
         <v>33.518634238046218</v>
       </c>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>28.991397995901718</v>
       </c>
-      <c r="E138" s="18">
+      <c r="E138" s="17">
         <v>23.6837490383516</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="17">
         <v>26.913009882671524</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="17">
         <v>20.726033621110602</v>
       </c>
-      <c r="H138" s="18">
+      <c r="H138" s="17">
         <v>25.435604648077724</v>
       </c>
-      <c r="I138" s="18">
+      <c r="I138" s="17">
         <v>30.033059000324648</v>
       </c>
-      <c r="J138" s="18">
+      <c r="J138" s="17">
         <v>14.964197893434116</v>
       </c>
-      <c r="K138" s="18">
+      <c r="K138" s="17">
         <v>13.455985227155468</v>
       </c>
-      <c r="L138" s="18">
+      <c r="L138" s="17">
         <v>11.898217070208791</v>
       </c>
-      <c r="M138" s="18">
+      <c r="M138" s="17">
         <v>14.083971583253124</v>
       </c>
-      <c r="N138" s="18">
+      <c r="N138" s="17">
         <v>17.876238397556758</v>
       </c>
-      <c r="O138" s="18">
+      <c r="O138" s="17">
         <v>17.935489269681117</v>
       </c>
-      <c r="P138" s="18">
+      <c r="P138" s="17">
         <v>18.562597660135747</v>
       </c>
-      <c r="Q138" s="18">
+      <c r="Q138" s="17">
         <v>16.269138884134367</v>
       </c>
-      <c r="R138" s="18">
+      <c r="R138" s="17">
         <v>15.020155326013892</v>
       </c>
-      <c r="S138" s="18">
+      <c r="S138" s="17">
         <v>18.026809576346373</v>
       </c>
-      <c r="T138" s="18">
+      <c r="T138" s="17">
         <v>18.962491440675223</v>
       </c>
-      <c r="U138" s="18">
+      <c r="U138" s="17">
         <v>22.247534769234857</v>
       </c>
-      <c r="V138" s="18">
+      <c r="V138" s="17">
         <v>7.1585838407621711</v>
       </c>
-      <c r="W138" s="18">
+      <c r="W138" s="17">
         <v>3.3040258059939855</v>
       </c>
-      <c r="X138" s="9"/>
+      <c r="X138" s="17">
+        <v>9.5190477975028145</v>
+      </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -9591,77 +9718,79 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="18">
+      <c r="B139" s="17">
         <v>0.54373879880879183</v>
       </c>
-      <c r="C139" s="18">
+      <c r="C139" s="17">
         <v>0.40553223454411452</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="17">
         <v>0.24612274023043207</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>0.15596195011849318</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="17">
         <v>0.23090346517525423</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="17">
         <v>0.21118326519805386</v>
       </c>
-      <c r="H139" s="18">
+      <c r="H139" s="17">
         <v>0.23631375490611772</v>
       </c>
-      <c r="I139" s="18">
+      <c r="I139" s="17">
         <v>0.26066480595680452</v>
       </c>
-      <c r="J139" s="18">
+      <c r="J139" s="17">
         <v>0.4359100625253019</v>
       </c>
-      <c r="K139" s="18">
+      <c r="K139" s="17">
         <v>0.4531038850980893</v>
       </c>
-      <c r="L139" s="18">
+      <c r="L139" s="17">
         <v>0.3557753280014786</v>
       </c>
-      <c r="M139" s="18">
+      <c r="M139" s="17">
         <v>0.46327533006140398</v>
       </c>
-      <c r="N139" s="18">
+      <c r="N139" s="17">
         <v>0.45369231446972291</v>
       </c>
-      <c r="O139" s="18">
+      <c r="O139" s="17">
         <v>0.34425515655357219</v>
       </c>
-      <c r="P139" s="18">
+      <c r="P139" s="17">
         <v>0.37106183093774986</v>
       </c>
-      <c r="Q139" s="18">
+      <c r="Q139" s="17">
         <v>0.25655730421911505</v>
       </c>
-      <c r="R139" s="18">
+      <c r="R139" s="17">
         <v>0.33540439630736707</v>
       </c>
-      <c r="S139" s="18">
+      <c r="S139" s="17">
         <v>0.24463158692592707</v>
       </c>
-      <c r="T139" s="18">
+      <c r="T139" s="17">
         <v>0.39484010166292249</v>
       </c>
-      <c r="U139" s="18">
+      <c r="U139" s="17">
         <v>0.38666558792015548</v>
       </c>
-      <c r="V139" s="18">
+      <c r="V139" s="17">
         <v>0.47186794339882271</v>
       </c>
-      <c r="W139" s="18">
+      <c r="W139" s="17">
         <v>0.68046829936870534</v>
       </c>
-      <c r="X139" s="9"/>
+      <c r="X139" s="17">
+        <v>0.55980797059707377</v>
+      </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -9735,77 +9864,79 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="18">
+      <c r="B140" s="17">
         <v>5.1408825997928833</v>
       </c>
-      <c r="C140" s="18">
+      <c r="C140" s="17">
         <v>5.1156352763922959</v>
       </c>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>4.615058755267917</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>5.0091086420192683</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="17">
         <v>5.8113545155427557</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="17">
         <v>4.6786119108643378</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H140" s="17">
         <v>5.6167626536820485</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I140" s="17">
         <v>7.9092501320084496</v>
       </c>
-      <c r="J140" s="18">
+      <c r="J140" s="17">
         <v>10.950655654645143</v>
       </c>
-      <c r="K140" s="18">
+      <c r="K140" s="17">
         <v>12.845667361649124</v>
       </c>
-      <c r="L140" s="18">
+      <c r="L140" s="17">
         <v>10.553330192505825</v>
       </c>
-      <c r="M140" s="18">
+      <c r="M140" s="17">
         <v>16.238863881694463</v>
       </c>
-      <c r="N140" s="18">
+      <c r="N140" s="17">
         <v>18.010068224643867</v>
       </c>
-      <c r="O140" s="18">
+      <c r="O140" s="17">
         <v>15.317105242419551</v>
       </c>
-      <c r="P140" s="18">
+      <c r="P140" s="17">
         <v>14.442472124015152</v>
       </c>
-      <c r="Q140" s="18">
+      <c r="Q140" s="17">
         <v>11.724507209810122</v>
       </c>
-      <c r="R140" s="18">
+      <c r="R140" s="17">
         <v>15.894939714594555</v>
       </c>
-      <c r="S140" s="18">
+      <c r="S140" s="17">
         <v>15.092458632683048</v>
       </c>
-      <c r="T140" s="18">
+      <c r="T140" s="17">
         <v>14.75309344063907</v>
       </c>
-      <c r="U140" s="18">
+      <c r="U140" s="17">
         <v>14.10266560321571</v>
       </c>
-      <c r="V140" s="18">
+      <c r="V140" s="17">
         <v>16.438054162317986</v>
       </c>
-      <c r="W140" s="18">
+      <c r="W140" s="17">
         <v>17.089857358315268</v>
       </c>
-      <c r="X140" s="9"/>
+      <c r="X140" s="17">
+        <v>15.18207249187347</v>
+      </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -9879,77 +10010,79 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="18">
+      <c r="B141" s="17">
         <v>17.684607132342279</v>
       </c>
-      <c r="C141" s="18">
+      <c r="C141" s="17">
         <v>26.730487135089358</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="17">
         <v>27.476048855800617</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="17">
         <v>30.819376587939217</v>
       </c>
-      <c r="F141" s="18">
+      <c r="F141" s="17">
         <v>29.967936012779877</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G141" s="17">
         <v>35.116853712295864</v>
       </c>
-      <c r="H141" s="18">
+      <c r="H141" s="17">
         <v>35.034184585989486</v>
       </c>
-      <c r="I141" s="18">
+      <c r="I141" s="17">
         <v>32.637141788143452</v>
       </c>
-      <c r="J141" s="18">
+      <c r="J141" s="17">
         <v>45.001381314326167</v>
       </c>
-      <c r="K141" s="18">
+      <c r="K141" s="17">
         <v>50.580253816292696</v>
       </c>
-      <c r="L141" s="18">
+      <c r="L141" s="17">
         <v>54.92183620810701</v>
       </c>
-      <c r="M141" s="18">
+      <c r="M141" s="17">
         <v>49.200798512011609</v>
       </c>
-      <c r="N141" s="18">
+      <c r="N141" s="17">
         <v>47.300598774567185</v>
       </c>
-      <c r="O141" s="18">
+      <c r="O141" s="17">
         <v>51.207981774318768</v>
       </c>
-      <c r="P141" s="18">
+      <c r="P141" s="17">
         <v>51.269836651705134</v>
       </c>
-      <c r="Q141" s="18">
+      <c r="Q141" s="17">
         <v>56.10125957839395</v>
       </c>
-      <c r="R141" s="18">
+      <c r="R141" s="17">
         <v>52.33778004178172</v>
       </c>
-      <c r="S141" s="18">
+      <c r="S141" s="17">
         <v>48.789233889037668</v>
       </c>
-      <c r="T141" s="18">
+      <c r="T141" s="17">
         <v>47.628278569283125</v>
       </c>
-      <c r="U141" s="18">
+      <c r="U141" s="17">
         <v>45.694003223286558</v>
       </c>
-      <c r="V141" s="18">
+      <c r="V141" s="17">
         <v>59.178398024070134</v>
       </c>
-      <c r="W141" s="18">
+      <c r="W141" s="17">
         <v>60.525950601713895</v>
       </c>
-      <c r="X141" s="9"/>
+      <c r="X141" s="17">
+        <v>55.299432370866342</v>
+      </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -10023,77 +10156,79 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" s="18">
+      <c r="B142" s="17">
         <v>16.054871288882396</v>
       </c>
-      <c r="C142" s="18">
+      <c r="C142" s="17">
         <v>20.620702802535611</v>
       </c>
-      <c r="D142" s="18">
+      <c r="D142" s="17">
         <v>21.705532216696547</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>23.25747366582949</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>21.133352642470879</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="17">
         <v>28.327412474636333</v>
       </c>
-      <c r="H142" s="18">
+      <c r="H142" s="17">
         <v>22.92897613293977</v>
       </c>
-      <c r="I142" s="18">
+      <c r="I142" s="17">
         <v>18.258039950787307</v>
       </c>
-      <c r="J142" s="18">
+      <c r="J142" s="17">
         <v>17.364109248961856</v>
       </c>
-      <c r="K142" s="18">
+      <c r="K142" s="17">
         <v>12.798776033345522</v>
       </c>
-      <c r="L142" s="18">
+      <c r="L142" s="17">
         <v>13.791490399614883</v>
       </c>
-      <c r="M142" s="18">
+      <c r="M142" s="17">
         <v>11.51165637598953</v>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="17">
         <v>6.4631129427157248</v>
       </c>
-      <c r="O142" s="18">
+      <c r="O142" s="17">
         <v>6.6620456051287595</v>
       </c>
-      <c r="P142" s="18">
+      <c r="P142" s="17">
         <v>6.2495665079124869</v>
       </c>
-      <c r="Q142" s="18">
+      <c r="Q142" s="17">
         <v>7.0980328995407875</v>
       </c>
-      <c r="R142" s="18">
+      <c r="R142" s="17">
         <v>8.280109400783946</v>
       </c>
-      <c r="S142" s="18">
+      <c r="S142" s="17">
         <v>9.3862098304402206</v>
       </c>
-      <c r="T142" s="18">
+      <c r="T142" s="17">
         <v>9.9734191488211561</v>
       </c>
-      <c r="U142" s="18">
+      <c r="U142" s="17">
         <v>9.5315892610276531</v>
       </c>
-      <c r="V142" s="18">
+      <c r="V142" s="17">
         <v>10.914661044559235</v>
       </c>
-      <c r="W142" s="18">
+      <c r="W142" s="17">
         <v>12.227112692191158</v>
       </c>
-      <c r="X142" s="9"/>
+      <c r="X142" s="17">
+        <v>10.643318461562803</v>
+      </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -10167,77 +10302,79 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B143" s="18">
+      <c r="B143" s="17">
         <v>1.0729783290055572</v>
       </c>
-      <c r="C143" s="18">
+      <c r="C143" s="17">
         <v>0.80612246031489254</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="17">
         <v>0.79735666305044295</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="17">
         <v>0.77641780783402392</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="17">
         <v>1.0313709455855762</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="17">
         <v>1.0497655717420167</v>
       </c>
-      <c r="H143" s="18">
+      <c r="H143" s="17">
         <v>1.3684553643493527</v>
       </c>
-      <c r="I143" s="18">
+      <c r="I143" s="17">
         <v>1.8732055032327881</v>
       </c>
-      <c r="J143" s="18">
+      <c r="J143" s="17">
         <v>2.3415587652742285</v>
       </c>
-      <c r="K143" s="18">
+      <c r="K143" s="17">
         <v>2.0538866240162439</v>
       </c>
-      <c r="L143" s="18">
+      <c r="L143" s="17">
         <v>1.5306904690040528</v>
       </c>
-      <c r="M143" s="18">
+      <c r="M143" s="17">
         <v>1.4584890864579616</v>
       </c>
-      <c r="N143" s="18">
+      <c r="N143" s="17">
         <v>2.0202736367004861</v>
       </c>
-      <c r="O143" s="18">
+      <c r="O143" s="17">
         <v>1.3544194990091298</v>
       </c>
-      <c r="P143" s="18">
+      <c r="P143" s="17">
         <v>1.7058834258223874</v>
       </c>
-      <c r="Q143" s="18">
+      <c r="Q143" s="17">
         <v>2.0458240577954276</v>
       </c>
-      <c r="R143" s="18">
+      <c r="R143" s="17">
         <v>2.2128183361992591</v>
       </c>
-      <c r="S143" s="18">
+      <c r="S143" s="17">
         <v>1.584350838209567</v>
       </c>
-      <c r="T143" s="18">
+      <c r="T143" s="17">
         <v>1.528910977211325</v>
       </c>
-      <c r="U143" s="18">
+      <c r="U143" s="17">
         <v>1.3820214560715263</v>
       </c>
-      <c r="V143" s="18">
+      <c r="V143" s="17">
         <v>1.1143427537749762</v>
       </c>
-      <c r="W143" s="18">
+      <c r="W143" s="17">
         <v>1.4146991301831056</v>
       </c>
-      <c r="X143" s="9"/>
+      <c r="X143" s="17">
+        <v>1.6010396011571171</v>
+      </c>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -10311,8 +10448,8 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="10"/>
+    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -10409,77 +10546,79 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>100</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="16">
         <v>100</v>
       </c>
-      <c r="D145" s="17">
+      <c r="D145" s="16">
         <v>100</v>
       </c>
-      <c r="E145" s="17">
+      <c r="E145" s="16">
         <v>100</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="16">
         <v>100</v>
       </c>
-      <c r="G145" s="17">
+      <c r="G145" s="16">
         <v>100</v>
       </c>
-      <c r="H145" s="17">
+      <c r="H145" s="16">
         <v>100</v>
       </c>
-      <c r="I145" s="17">
+      <c r="I145" s="16">
         <v>100</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J145" s="16">
         <v>100</v>
       </c>
-      <c r="K145" s="17">
+      <c r="K145" s="16">
         <v>100</v>
       </c>
-      <c r="L145" s="17">
+      <c r="L145" s="16">
         <v>100</v>
       </c>
-      <c r="M145" s="17">
+      <c r="M145" s="16">
         <v>100</v>
       </c>
-      <c r="N145" s="17">
+      <c r="N145" s="16">
         <v>100</v>
       </c>
-      <c r="O145" s="17">
+      <c r="O145" s="16">
         <v>100</v>
       </c>
-      <c r="P145" s="17">
+      <c r="P145" s="16">
         <v>100</v>
       </c>
-      <c r="Q145" s="17">
+      <c r="Q145" s="16">
         <v>100</v>
       </c>
-      <c r="R145" s="17">
+      <c r="R145" s="16">
         <v>100</v>
       </c>
-      <c r="S145" s="17">
+      <c r="S145" s="16">
         <v>100</v>
       </c>
-      <c r="T145" s="17">
+      <c r="T145" s="16">
         <v>100</v>
       </c>
-      <c r="U145" s="17">
+      <c r="U145" s="16">
         <v>100</v>
       </c>
-      <c r="V145" s="17">
+      <c r="V145" s="16">
         <v>100</v>
       </c>
-      <c r="W145" s="17">
+      <c r="W145" s="16">
         <v>100</v>
       </c>
-      <c r="X145" s="9"/>
+      <c r="X145" s="16">
+        <v>100</v>
+      </c>
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
@@ -10553,38 +10692,39 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="13"/>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13"/>
-      <c r="O146" s="13"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="13"/>
-      <c r="R146" s="13"/>
-      <c r="S146" s="13"/>
-      <c r="T146" s="13"/>
-      <c r="U146" s="13"/>
-      <c r="V146" s="13"/>
-      <c r="W146" s="13"/>
-    </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A147" s="14" t="s">
+    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="12"/>
+      <c r="X146" s="12"/>
+    </row>
+    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10"/>
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
@@ -10681,8 +10821,8 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10"/>
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
@@ -10779,206 +10919,212 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
-      <c r="T158" s="15"/>
-      <c r="U158" s="15"/>
-      <c r="V158" s="15"/>
-      <c r="W158" s="15"/>
-    </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="14"/>
+      <c r="O158" s="14"/>
+      <c r="P158" s="14"/>
+      <c r="Q158" s="14"/>
+      <c r="R158" s="14"/>
+      <c r="S158" s="14"/>
+      <c r="T158" s="14"/>
+      <c r="U158" s="14"/>
+      <c r="V158" s="14"/>
+      <c r="W158" s="14"/>
+      <c r="X158" s="14"/>
+    </row>
+    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-      <c r="B159" s="16">
+      <c r="B159" s="15">
         <v>2000</v>
       </c>
-      <c r="C159" s="16">
+      <c r="C159" s="15">
         <v>2001</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="15">
         <v>2002</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="15">
         <v>2003</v>
       </c>
-      <c r="F159" s="16">
+      <c r="F159" s="15">
         <v>2004</v>
       </c>
-      <c r="G159" s="16">
+      <c r="G159" s="15">
         <v>2005</v>
       </c>
-      <c r="H159" s="16">
+      <c r="H159" s="15">
         <v>2006</v>
       </c>
-      <c r="I159" s="16">
+      <c r="I159" s="15">
         <v>2007</v>
       </c>
-      <c r="J159" s="16">
+      <c r="J159" s="15">
         <v>2008</v>
       </c>
-      <c r="K159" s="16">
+      <c r="K159" s="15">
         <v>2009</v>
       </c>
-      <c r="L159" s="16">
+      <c r="L159" s="15">
         <v>2010</v>
       </c>
-      <c r="M159" s="16">
+      <c r="M159" s="15">
         <v>2011</v>
       </c>
-      <c r="N159" s="16">
+      <c r="N159" s="15">
         <v>2012</v>
       </c>
-      <c r="O159" s="16">
+      <c r="O159" s="15">
         <v>2013</v>
       </c>
-      <c r="P159" s="16">
+      <c r="P159" s="15">
         <v>2014</v>
       </c>
-      <c r="Q159" s="16">
+      <c r="Q159" s="15">
         <v>2015</v>
       </c>
-      <c r="R159" s="16">
+      <c r="R159" s="15">
         <v>2016</v>
       </c>
-      <c r="S159" s="16">
+      <c r="S159" s="15">
         <v>2017</v>
       </c>
-      <c r="T159" s="16">
+      <c r="T159" s="15">
         <v>2018</v>
       </c>
-      <c r="U159" s="16">
+      <c r="U159" s="15">
         <v>2019</v>
       </c>
-      <c r="V159" s="16">
+      <c r="V159" s="15">
         <v>2020</v>
       </c>
-      <c r="W159" s="16">
+      <c r="W159" s="15">
         <v>2021</v>
       </c>
-    </row>
-    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X159" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B161" s="18">
+      <c r="B161" s="17">
         <v>14.690641641759422</v>
       </c>
-      <c r="C161" s="18">
+      <c r="C161" s="17">
         <v>14.016034907656099</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="17">
         <v>17.931769967280438</v>
       </c>
-      <c r="E161" s="18">
+      <c r="E161" s="17">
         <v>18.001944416119763</v>
       </c>
-      <c r="F161" s="18">
+      <c r="F161" s="17">
         <v>15.836632351589172</v>
       </c>
-      <c r="G161" s="18">
+      <c r="G161" s="17">
         <v>9.6354642432913451</v>
       </c>
-      <c r="H161" s="18">
+      <c r="H161" s="17">
         <v>8.7534131604592691</v>
       </c>
-      <c r="I161" s="18">
+      <c r="I161" s="17">
         <v>8.5615885518625596</v>
       </c>
-      <c r="J161" s="18">
+      <c r="J161" s="17">
         <v>8.4046908563695624</v>
       </c>
-      <c r="K161" s="18">
+      <c r="K161" s="17">
         <v>7.461472463131388</v>
       </c>
-      <c r="L161" s="18">
+      <c r="L161" s="17">
         <v>6.4783294319897031</v>
       </c>
-      <c r="M161" s="18">
+      <c r="M161" s="17">
         <v>6.4773751778798987</v>
       </c>
-      <c r="N161" s="18">
+      <c r="N161" s="17">
         <v>7.2623096752382628</v>
       </c>
-      <c r="O161" s="18">
+      <c r="O161" s="17">
         <v>6.7746419108835862</v>
       </c>
-      <c r="P161" s="18">
+      <c r="P161" s="17">
         <v>7.1026925141238539</v>
       </c>
-      <c r="Q161" s="18">
+      <c r="Q161" s="17">
         <v>6.5908496136512076</v>
       </c>
-      <c r="R161" s="18">
+      <c r="R161" s="17">
         <v>6.1345239779915905</v>
       </c>
-      <c r="S161" s="18">
+      <c r="S161" s="17">
         <v>6.9566578849850389</v>
       </c>
-      <c r="T161" s="18">
+      <c r="T161" s="17">
         <v>6.6593667803696466</v>
       </c>
-      <c r="U161" s="18">
+      <c r="U161" s="17">
         <v>6.6154462338421922</v>
       </c>
-      <c r="V161" s="18">
+      <c r="V161" s="17">
         <v>4.566417881327558</v>
       </c>
-      <c r="W161" s="18">
+      <c r="W161" s="17">
         <v>4.3527838866773676</v>
       </c>
-      <c r="X161" s="9"/>
+      <c r="X161" s="17">
+        <v>6.26591049031168</v>
+      </c>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -11052,77 +11198,79 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="18">
+      <c r="B162" s="17">
         <v>0.30057996789618285</v>
       </c>
-      <c r="C162" s="18">
+      <c r="C162" s="17">
         <v>0.24277013138336712</v>
       </c>
-      <c r="D162" s="18">
+      <c r="D162" s="17">
         <v>0.20590569673289658</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="17">
         <v>0.19097692983740572</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="17">
         <v>0.17123349758762418</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="17">
         <v>0.1669977508087184</v>
       </c>
-      <c r="H162" s="18">
+      <c r="H162" s="17">
         <v>0.16467691110814323</v>
       </c>
-      <c r="I162" s="18">
+      <c r="I162" s="17">
         <v>0.14552111563572981</v>
       </c>
-      <c r="J162" s="18">
+      <c r="J162" s="17">
         <v>0.12918102789154878</v>
       </c>
-      <c r="K162" s="18">
+      <c r="K162" s="17">
         <v>0.12220227281992221</v>
       </c>
-      <c r="L162" s="18">
+      <c r="L162" s="17">
         <v>0.19051155738560854</v>
       </c>
-      <c r="M162" s="18">
+      <c r="M162" s="17">
         <v>0.1421913873888577</v>
       </c>
-      <c r="N162" s="18">
+      <c r="N162" s="17">
         <v>0.1696940271893243</v>
       </c>
-      <c r="O162" s="18">
+      <c r="O162" s="17">
         <v>0.14491402264024683</v>
       </c>
-      <c r="P162" s="18">
+      <c r="P162" s="17">
         <v>0.15366976465068036</v>
       </c>
-      <c r="Q162" s="18">
+      <c r="Q162" s="17">
         <v>0.11425597410031252</v>
       </c>
-      <c r="R162" s="18">
+      <c r="R162" s="17">
         <v>0.10617267860755705</v>
       </c>
-      <c r="S162" s="18">
+      <c r="S162" s="17">
         <v>0.11249358457085053</v>
       </c>
-      <c r="T162" s="18">
+      <c r="T162" s="17">
         <v>9.9599541337529948E-2</v>
       </c>
-      <c r="U162" s="18">
+      <c r="U162" s="17">
         <v>9.7484764748831207E-2</v>
       </c>
-      <c r="V162" s="18">
+      <c r="V162" s="17">
         <v>0.11234832724085549</v>
       </c>
-      <c r="W162" s="18">
+      <c r="W162" s="17">
         <v>0.11808595430278818</v>
       </c>
-      <c r="X162" s="9"/>
+      <c r="X162" s="17">
+        <v>0.11220170200424583</v>
+      </c>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -11196,77 +11344,79 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="18">
+      <c r="B163" s="17">
         <v>49.919435333126316</v>
       </c>
-      <c r="C163" s="18">
+      <c r="C163" s="17">
         <v>35.310104333373836</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="17">
         <v>30.416285020799204</v>
       </c>
-      <c r="E163" s="18">
+      <c r="E163" s="17">
         <v>24.998559722629626</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="17">
         <v>29.054091758331296</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="17">
         <v>22.613795448844854</v>
       </c>
-      <c r="H163" s="18">
+      <c r="H163" s="17">
         <v>27.948338039412363</v>
       </c>
-      <c r="I163" s="18">
+      <c r="I163" s="17">
         <v>32.988454000741875</v>
       </c>
-      <c r="J163" s="18">
+      <c r="J163" s="17">
         <v>16.365264260949068</v>
       </c>
-      <c r="K163" s="18">
+      <c r="K163" s="17">
         <v>14.510735876843478</v>
       </c>
-      <c r="L163" s="18">
+      <c r="L163" s="17">
         <v>12.663790898114138</v>
       </c>
-      <c r="M163" s="18">
+      <c r="M163" s="17">
         <v>14.927517738458377</v>
       </c>
-      <c r="N163" s="18">
+      <c r="N163" s="17">
         <v>18.861413319994757</v>
       </c>
-      <c r="O163" s="18">
+      <c r="O163" s="17">
         <v>18.851568172557869</v>
       </c>
-      <c r="P163" s="18">
+      <c r="P163" s="17">
         <v>19.232163684212505</v>
       </c>
-      <c r="Q163" s="18">
+      <c r="Q163" s="17">
         <v>16.652504249607212</v>
       </c>
-      <c r="R163" s="18">
+      <c r="R163" s="17">
         <v>15.340714403797376</v>
       </c>
-      <c r="S163" s="18">
+      <c r="S163" s="17">
         <v>18.314016171519718</v>
       </c>
-      <c r="T163" s="18">
+      <c r="T163" s="17">
         <v>18.962491440675226</v>
       </c>
-      <c r="U163" s="18">
+      <c r="U163" s="17">
         <v>22.136765362216799</v>
       </c>
-      <c r="V163" s="18">
+      <c r="V163" s="17">
         <v>7.0695140515178805</v>
       </c>
-      <c r="W163" s="18">
+      <c r="W163" s="17">
         <v>3.2144740975599682</v>
       </c>
-      <c r="X163" s="9"/>
+      <c r="X163" s="17">
+        <v>9.2623051527983424</v>
+      </c>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -11340,77 +11490,79 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B164" s="18">
+      <c r="B164" s="17">
         <v>0.5272051874085244</v>
       </c>
-      <c r="C164" s="18">
+      <c r="C164" s="17">
         <v>0.38149091703202259</v>
       </c>
-      <c r="D164" s="18">
+      <c r="D164" s="17">
         <v>0.22807440012296556</v>
       </c>
-      <c r="E164" s="18">
+      <c r="E164" s="17">
         <v>0.14396648348802837</v>
       </c>
-      <c r="F164" s="18">
+      <c r="F164" s="17">
         <v>0.22057611940012231</v>
       </c>
-      <c r="G164" s="18">
+      <c r="G164" s="17">
         <v>0.20107226218149285</v>
       </c>
-      <c r="H164" s="18">
+      <c r="H164" s="17">
         <v>0.22368229567330447</v>
       </c>
-      <c r="I164" s="18">
+      <c r="I164" s="17">
         <v>0.24808151400360479</v>
       </c>
-      <c r="J164" s="18">
+      <c r="J164" s="17">
         <v>0.42947387268685511</v>
       </c>
-      <c r="K164" s="18">
+      <c r="K164" s="17">
         <v>0.45202980680534727</v>
       </c>
-      <c r="L164" s="18">
+      <c r="L164" s="17">
         <v>0.34960863285628291</v>
       </c>
-      <c r="M164" s="18">
+      <c r="M164" s="17">
         <v>0.45479437181035276</v>
       </c>
-      <c r="N164" s="18">
+      <c r="N164" s="17">
         <v>0.44279760029904741</v>
       </c>
-      <c r="O164" s="18">
+      <c r="O164" s="17">
         <v>0.34081868584978392</v>
       </c>
-      <c r="P164" s="18">
+      <c r="P164" s="17">
         <v>0.36977414892408023</v>
       </c>
-      <c r="Q164" s="18">
+      <c r="Q164" s="17">
         <v>0.25663723946714045</v>
       </c>
-      <c r="R164" s="18">
+      <c r="R164" s="17">
         <v>0.3403135990478991</v>
       </c>
-      <c r="S164" s="18">
+      <c r="S164" s="17">
         <v>0.24700591600239297</v>
       </c>
-      <c r="T164" s="18">
+      <c r="T164" s="17">
         <v>0.39484010166292266</v>
       </c>
-      <c r="U164" s="18">
+      <c r="U164" s="17">
         <v>0.38530592099641225</v>
       </c>
-      <c r="V164" s="18">
+      <c r="V164" s="17">
         <v>0.47156868169068317</v>
       </c>
-      <c r="W164" s="18">
+      <c r="W164" s="17">
         <v>0.68279743691786998</v>
       </c>
-      <c r="X164" s="9"/>
+      <c r="X164" s="17">
+        <v>0.56936371955239085</v>
+      </c>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -11484,77 +11636,79 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B165" s="18">
+      <c r="B165" s="17">
         <v>2.2695491644243142</v>
       </c>
-      <c r="C165" s="18">
+      <c r="C165" s="17">
         <v>2.3832294278987578</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="17">
         <v>2.2376071793642245</v>
       </c>
-      <c r="E165" s="18">
+      <c r="E165" s="17">
         <v>2.6629755916813704</v>
       </c>
-      <c r="F165" s="18">
+      <c r="F165" s="17">
         <v>3.3519455575374399</v>
       </c>
-      <c r="G165" s="18">
+      <c r="G165" s="17">
         <v>2.9401592845192672</v>
       </c>
-      <c r="H165" s="18">
+      <c r="H165" s="17">
         <v>3.7542297823815312</v>
       </c>
-      <c r="I165" s="18">
+      <c r="I165" s="17">
         <v>5.5357490348060665</v>
       </c>
-      <c r="J165" s="18">
+      <c r="J165" s="17">
         <v>8.5221881251601967</v>
       </c>
-      <c r="K165" s="18">
+      <c r="K165" s="17">
         <v>10.490401821562251</v>
       </c>
-      <c r="L165" s="18">
+      <c r="L165" s="17">
         <v>8.8754049985963732</v>
       </c>
-      <c r="M165" s="18">
+      <c r="M165" s="17">
         <v>14.448728298887254</v>
       </c>
-      <c r="N165" s="18">
+      <c r="N165" s="17">
         <v>16.36300192547845</v>
       </c>
-      <c r="O165" s="18">
+      <c r="O165" s="17">
         <v>14.198657307635523</v>
       </c>
-      <c r="P165" s="18">
+      <c r="P165" s="17">
         <v>13.689916539610991</v>
       </c>
-      <c r="Q165" s="18">
+      <c r="Q165" s="17">
         <v>11.061853451465682</v>
       </c>
-      <c r="R165" s="18">
+      <c r="R165" s="17">
         <v>15.103923373517263</v>
       </c>
-      <c r="S165" s="18">
+      <c r="S165" s="17">
         <v>14.629831702267321</v>
       </c>
-      <c r="T165" s="18">
+      <c r="T165" s="17">
         <v>14.753093440639073</v>
       </c>
-      <c r="U165" s="18">
+      <c r="U165" s="17">
         <v>14.337228722819006</v>
       </c>
-      <c r="V165" s="18">
+      <c r="V165" s="17">
         <v>16.95537642359746</v>
       </c>
-      <c r="W165" s="18">
+      <c r="W165" s="17">
         <v>18.103479899608534</v>
       </c>
-      <c r="X165" s="9"/>
+      <c r="X165" s="17">
+        <v>16.999661516240913</v>
+      </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -11628,77 +11782,79 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="18">
+      <c r="B166" s="17">
         <v>15.403565477637409</v>
       </c>
-      <c r="C166" s="18">
+      <c r="C166" s="17">
         <v>26.276982031023394</v>
       </c>
-      <c r="D166" s="18">
+      <c r="D166" s="17">
         <v>26.75657687893035</v>
       </c>
-      <c r="E166" s="18">
+      <c r="E166" s="17">
         <v>30.24389994535921</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="17">
         <v>29.334816954850211</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="17">
         <v>35.036903619235424</v>
       </c>
-      <c r="H166" s="18">
+      <c r="H166" s="17">
         <v>34.914772633338309</v>
       </c>
-      <c r="I166" s="18">
+      <c r="I166" s="17">
         <v>32.441875179926264</v>
       </c>
-      <c r="J166" s="18">
+      <c r="J166" s="17">
         <v>46.004345543363016</v>
       </c>
-      <c r="K166" s="18">
+      <c r="K166" s="17">
         <v>51.742831521108414</v>
       </c>
-      <c r="L166" s="18">
+      <c r="L166" s="17">
         <v>55.926310984188767</v>
       </c>
-      <c r="M166" s="18">
+      <c r="M166" s="17">
         <v>50.481874469635237</v>
       </c>
-      <c r="N166" s="18">
+      <c r="N166" s="17">
         <v>48.427815333111958</v>
       </c>
-      <c r="O166" s="18">
+      <c r="O166" s="17">
         <v>51.658328600586877</v>
       </c>
-      <c r="P166" s="18">
+      <c r="P166" s="17">
         <v>51.465909182817214</v>
       </c>
-      <c r="Q166" s="18">
+      <c r="Q166" s="17">
         <v>56.169001382905407</v>
       </c>
-      <c r="R166" s="18">
+      <c r="R166" s="17">
         <v>52.457435190441693</v>
       </c>
-      <c r="S166" s="18">
+      <c r="S166" s="17">
         <v>48.773068875229939</v>
       </c>
-      <c r="T166" s="18">
+      <c r="T166" s="17">
         <v>47.628278569283111</v>
       </c>
-      <c r="U166" s="18">
+      <c r="U166" s="17">
         <v>45.549994131925352</v>
       </c>
-      <c r="V166" s="18">
+      <c r="V166" s="17">
         <v>58.847414284760205</v>
       </c>
-      <c r="W166" s="18">
+      <c r="W166" s="17">
         <v>59.999064644815903</v>
       </c>
-      <c r="X166" s="9"/>
+      <c r="X166" s="17">
+        <v>54.526204785455299</v>
+      </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -11772,77 +11928,79 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B167" s="18">
+      <c r="B167" s="17">
         <v>15.831006236372607</v>
       </c>
-      <c r="C167" s="18">
+      <c r="C167" s="17">
         <v>20.614778125504643</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="17">
         <v>21.464301293271486</v>
       </c>
-      <c r="E167" s="18">
+      <c r="E167" s="17">
         <v>23.019840680990917</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="17">
         <v>21.021122123570336</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="17">
         <v>28.368609315530023</v>
       </c>
-      <c r="H167" s="18">
+      <c r="H167" s="17">
         <v>22.88234914778343</v>
       </c>
-      <c r="I167" s="18">
+      <c r="I167" s="17">
         <v>18.210411588712635</v>
       </c>
-      <c r="J167" s="18">
+      <c r="J167" s="17">
         <v>17.751110268422845</v>
       </c>
-      <c r="K167" s="18">
+      <c r="K167" s="17">
         <v>13.115597597888923</v>
       </c>
-      <c r="L167" s="18">
+      <c r="L167" s="17">
         <v>13.965986093098874</v>
       </c>
-      <c r="M167" s="18">
+      <c r="M167" s="17">
         <v>11.598079893427993</v>
       </c>
-      <c r="N167" s="18">
+      <c r="N167" s="17">
         <v>6.4551755832963478</v>
       </c>
-      <c r="O167" s="18">
+      <c r="O167" s="17">
         <v>6.6741840153459258</v>
       </c>
-      <c r="P167" s="18">
+      <c r="P167" s="17">
         <v>6.2734668859497038</v>
       </c>
-      <c r="Q167" s="18">
+      <c r="Q167" s="17">
         <v>7.106603715419177</v>
       </c>
-      <c r="R167" s="18">
+      <c r="R167" s="17">
         <v>8.2990394709484612</v>
       </c>
-      <c r="S167" s="18">
+      <c r="S167" s="17">
         <v>9.3830999596876641</v>
       </c>
-      <c r="T167" s="18">
+      <c r="T167" s="17">
         <v>9.9734191488211614</v>
       </c>
-      <c r="U167" s="18">
+      <c r="U167" s="17">
         <v>9.5004229319277282</v>
       </c>
-      <c r="V167" s="18">
+      <c r="V167" s="17">
         <v>10.869480879175175</v>
       </c>
-      <c r="W167" s="18">
+      <c r="W167" s="17">
         <v>12.12875577221036</v>
       </c>
-      <c r="X167" s="9"/>
+      <c r="X167" s="17">
+        <v>10.668682315759389</v>
+      </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -11916,77 +12074,79 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B168" s="18">
+      <c r="B168" s="17">
         <v>1.0580169913752124</v>
       </c>
-      <c r="C168" s="18">
+      <c r="C168" s="17">
         <v>0.77461012612787317</v>
       </c>
-      <c r="D168" s="18">
+      <c r="D168" s="17">
         <v>0.75947956349844115</v>
       </c>
-      <c r="E168" s="18">
+      <c r="E168" s="17">
         <v>0.73783622989370767</v>
       </c>
-      <c r="F168" s="18">
+      <c r="F168" s="17">
         <v>1.0095816371338129</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G168" s="17">
         <v>1.0369980755888712</v>
       </c>
-      <c r="H168" s="18">
+      <c r="H168" s="17">
         <v>1.3585380298436502</v>
       </c>
-      <c r="I168" s="18">
+      <c r="I168" s="17">
         <v>1.8683190143112631</v>
       </c>
-      <c r="J168" s="18">
+      <c r="J168" s="17">
         <v>2.3937460451569041</v>
       </c>
-      <c r="K168" s="18">
+      <c r="K168" s="17">
         <v>2.1047286398402756</v>
       </c>
-      <c r="L168" s="18">
+      <c r="L168" s="17">
         <v>1.5500574037702659</v>
       </c>
-      <c r="M168" s="18">
+      <c r="M168" s="17">
         <v>1.4694386625120397</v>
       </c>
-      <c r="N168" s="18">
+      <c r="N168" s="17">
         <v>2.0177925353918575</v>
       </c>
-      <c r="O168" s="18">
+      <c r="O168" s="17">
         <v>1.3568872845001876</v>
       </c>
-      <c r="P168" s="18">
+      <c r="P168" s="17">
         <v>1.712407279710966</v>
       </c>
-      <c r="Q168" s="18">
+      <c r="Q168" s="17">
         <v>2.0482943733838606</v>
       </c>
-      <c r="R168" s="18">
+      <c r="R168" s="17">
         <v>2.2178773056481647</v>
       </c>
-      <c r="S168" s="18">
+      <c r="S168" s="17">
         <v>1.583825905737082</v>
       </c>
-      <c r="T168" s="18">
+      <c r="T168" s="17">
         <v>1.5289109772113267</v>
       </c>
-      <c r="U168" s="18">
+      <c r="U168" s="17">
         <v>1.3773519315236515</v>
       </c>
-      <c r="V168" s="18">
+      <c r="V168" s="17">
         <v>1.1078794706901804</v>
       </c>
-      <c r="W168" s="18">
+      <c r="W168" s="17">
         <v>1.4005583079072188</v>
       </c>
-      <c r="X168" s="9"/>
+      <c r="X168" s="17">
+        <v>1.5956703178777203</v>
+      </c>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -12060,8 +12220,8 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="10"/>
+    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -12158,77 +12318,79 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A170" s="11" t="s">
+    <row r="170" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="17">
+      <c r="B170" s="16">
         <v>100</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="16">
         <v>100</v>
       </c>
-      <c r="D170" s="17">
+      <c r="D170" s="16">
         <v>100</v>
       </c>
-      <c r="E170" s="17">
+      <c r="E170" s="16">
         <v>100</v>
       </c>
-      <c r="F170" s="17">
+      <c r="F170" s="16">
         <v>100</v>
       </c>
-      <c r="G170" s="17">
+      <c r="G170" s="16">
         <v>100</v>
       </c>
-      <c r="H170" s="17">
+      <c r="H170" s="16">
         <v>100</v>
       </c>
-      <c r="I170" s="17">
+      <c r="I170" s="16">
         <v>100</v>
       </c>
-      <c r="J170" s="17">
+      <c r="J170" s="16">
         <v>100</v>
       </c>
-      <c r="K170" s="17">
+      <c r="K170" s="16">
         <v>100</v>
       </c>
-      <c r="L170" s="17">
+      <c r="L170" s="16">
         <v>100</v>
       </c>
-      <c r="M170" s="17">
+      <c r="M170" s="16">
         <v>100</v>
       </c>
-      <c r="N170" s="17">
+      <c r="N170" s="16">
         <v>100</v>
       </c>
-      <c r="O170" s="17">
+      <c r="O170" s="16">
         <v>100</v>
       </c>
-      <c r="P170" s="17">
+      <c r="P170" s="16">
         <v>100</v>
       </c>
-      <c r="Q170" s="17">
+      <c r="Q170" s="16">
         <v>100</v>
       </c>
-      <c r="R170" s="17">
+      <c r="R170" s="16">
         <v>100</v>
       </c>
-      <c r="S170" s="17">
+      <c r="S170" s="16">
         <v>100</v>
       </c>
-      <c r="T170" s="17">
+      <c r="T170" s="16">
         <v>100</v>
       </c>
-      <c r="U170" s="17">
+      <c r="U170" s="16">
         <v>100</v>
       </c>
-      <c r="V170" s="17">
+      <c r="V170" s="16">
         <v>100</v>
       </c>
-      <c r="W170" s="17">
+      <c r="W170" s="16">
         <v>100</v>
       </c>
-      <c r="X170" s="9"/>
+      <c r="X170" s="16">
+        <v>100</v>
+      </c>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
@@ -12302,37 +12464,38 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="13"/>
-      <c r="K171" s="13"/>
-      <c r="L171" s="13"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
-      <c r="O171" s="13"/>
-      <c r="P171" s="13"/>
-      <c r="Q171" s="13"/>
-      <c r="R171" s="13"/>
-      <c r="S171" s="13"/>
-      <c r="T171" s="13"/>
-      <c r="U171" s="13"/>
-      <c r="V171" s="13"/>
-      <c r="W171" s="13"/>
-    </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="12"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="12"/>
+      <c r="W171" s="12"/>
+      <c r="X171" s="12"/>
+    </row>
+    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -12424,7 +12587,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -12521,9 +12684,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="50" max="22" man="1"/>
-    <brk id="100" max="22" man="1"/>
-    <brk id="124" max="22" man="1"/>
+    <brk id="50" max="23" man="1"/>
+    <brk id="100" max="23" man="1"/>
+    <brk id="124" max="23" man="1"/>
     <brk id="172" max="81" man="1"/>
   </rowBreaks>
 </worksheet>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3168BB42-5EFA-4310-802C-9E576A58AE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4F498-BDC5-42DD-BE28-BC0887D598C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14685" yWindow="2430" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -207,13 +207,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -295,10 +295,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -334,8 +335,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{FF438767-8ABA-4E79-9D9F-1847B04AF4F9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -634,10 +636,10 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +661,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -669,7 +671,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -848,10 +850,10 @@
         <v>90950.240465225899</v>
       </c>
       <c r="W12" s="8">
-        <v>96508.825756961305</v>
+        <v>96540.918293388881</v>
       </c>
       <c r="X12" s="8">
-        <v>188429.06363514689</v>
+        <v>185850.45028883137</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -994,10 +996,10 @@
         <v>2228.5971019894705</v>
       </c>
       <c r="W13" s="8">
-        <v>2483.2612215829677</v>
+        <v>2482.8084774452982</v>
       </c>
       <c r="X13" s="8">
-        <v>3001.4834127189247</v>
+        <v>2927.6187692904136</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1286,10 +1288,10 @@
         <v>9307.2074591443325</v>
       </c>
       <c r="W15" s="8">
-        <v>14157.753146727211</v>
+        <v>15769.931104982623</v>
       </c>
       <c r="X15" s="8">
-        <v>14893.697895762936</v>
+        <v>17119.409752890282</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1432,10 +1434,10 @@
         <v>324227.11153326929</v>
       </c>
       <c r="W16" s="8">
-        <v>355569.80687605357</v>
+        <v>355634.0061899898</v>
       </c>
       <c r="X16" s="8">
-        <v>403919.22409458854</v>
+        <v>410901.54506312823</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1578,10 +1580,10 @@
         <v>1167245.2753255032</v>
       </c>
       <c r="W17" s="8">
-        <v>1259296.6761053498</v>
+        <v>1258524.182584963</v>
       </c>
       <c r="X17" s="8">
-        <v>1471242.0737068406</v>
+        <v>1484222.6971597369</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1724,10 +1726,10 @@
         <v>215282.72074649949</v>
       </c>
       <c r="W18" s="8">
-        <v>254396.04365678231</v>
+        <v>256799.78873343064</v>
       </c>
       <c r="X18" s="8">
-        <v>283165.61767750821</v>
+        <v>291546.46605811408</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1870,10 +1872,10 @@
         <v>21979.495185185682</v>
       </c>
       <c r="W19" s="8">
-        <v>29434.083969236617</v>
+        <v>26181.94794996336</v>
       </c>
       <c r="X19" s="8">
-        <v>42595.67814540783</v>
+        <v>36822.704360928095</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2114,10 +2116,10 @@
         <v>1972417.8320115046</v>
       </c>
       <c r="W21" s="11">
-        <v>2080589.6703581729</v>
+        <v>2080676.8029596431</v>
       </c>
       <c r="X21" s="11">
-        <v>2660501.2214952535</v>
+        <v>2682645.2743801987</v>
       </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2431,7 +2433,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2441,7 +2443,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2620,10 +2622,10 @@
         <v>86779.793597884127</v>
       </c>
       <c r="W37" s="8">
-        <v>84761.423986983427</v>
+        <v>84795.792451755289</v>
       </c>
       <c r="X37" s="8">
-        <v>146650.75565509326</v>
+        <v>144665.11116402436</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -2766,10 +2768,10 @@
         <v>2135.05747883822</v>
       </c>
       <c r="W38" s="8">
-        <v>2299.4786555338269</v>
+        <v>2299.0407488707028</v>
       </c>
       <c r="X38" s="8">
-        <v>2626.0292754184816</v>
+        <v>2561.2519736097411</v>
       </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -2915,7 +2917,7 @@
         <v>62595.205498804869</v>
       </c>
       <c r="X39" s="8">
-        <v>216779.99579888274</v>
+        <v>216524.70748960227</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -3058,10 +3060,10 @@
         <v>8961.6486987929147</v>
       </c>
       <c r="W40" s="8">
-        <v>13296.061682492369</v>
+        <v>14810.116727383</v>
       </c>
       <c r="X40" s="8">
-        <v>13325.696216704073</v>
+        <v>15316.252966882679</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -3204,10 +3206,10 @@
         <v>322218.44444653735</v>
       </c>
       <c r="W41" s="8">
-        <v>352527.66398698254</v>
+        <v>352592.38831787917</v>
       </c>
       <c r="X41" s="8">
-        <v>397869.26594183297</v>
+        <v>400045.08333999082</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -3350,10 +3352,10 @@
         <v>1118330.9539590406</v>
       </c>
       <c r="W42" s="8">
-        <v>1168357.1455838322</v>
+        <v>1167618.46725064</v>
       </c>
       <c r="X42" s="8">
-        <v>1276160.7666045083</v>
+        <v>1284342.8442433404</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -3496,10 +3498,10 @@
         <v>206562.63437211883</v>
       </c>
       <c r="W43" s="8">
-        <v>236182.32313105764</v>
+        <v>238391.9273566475</v>
       </c>
       <c r="X43" s="8">
-        <v>249695.60702620566</v>
+        <v>252406.84003548569</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -3642,10 +3644,10 @@
         <v>21054.041547743003</v>
       </c>
       <c r="W44" s="8">
-        <v>27272.963612635016</v>
+        <v>24264.319313339351</v>
       </c>
       <c r="X44" s="8">
-        <v>37345.93053236077</v>
+        <v>32650.344653254586</v>
       </c>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -3886,10 +3888,10 @@
         <v>1900390.981577344</v>
       </c>
       <c r="W46" s="11">
-        <v>1947292.2661383217</v>
+        <v>1947367.2576653201</v>
       </c>
       <c r="X46" s="11">
-        <v>2340454.0470510065</v>
+        <v>2348512.4358661901</v>
       </c>
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
@@ -4203,7 +4205,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4213,7 +4215,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4387,10 +4389,10 @@
         <v>-46.619172262424868</v>
       </c>
       <c r="V62" s="16">
-        <v>6.111677399974198</v>
+        <v>6.1469632180912441</v>
       </c>
       <c r="W62" s="16">
-        <v>95.245421501313047</v>
+        <v>92.509511587646045</v>
       </c>
       <c r="X62" s="16"/>
       <c r="Y62" s="9"/>
@@ -4526,10 +4528,10 @@
         <v>-12.302757637601161</v>
       </c>
       <c r="V63" s="16">
-        <v>11.42710449395085</v>
+        <v>11.406789285909639</v>
       </c>
       <c r="W63" s="16">
-        <v>20.868613685579703</v>
+        <v>17.91561032137308</v>
       </c>
       <c r="X63" s="16"/>
       <c r="Y63" s="9"/>
@@ -4804,10 +4806,10 @@
         <v>-7.3559364644346488</v>
       </c>
       <c r="V65" s="16">
-        <v>52.116015559717823</v>
+        <v>69.437838086317328</v>
       </c>
       <c r="W65" s="16">
-        <v>5.1981747485535976</v>
+        <v>8.557289432173107</v>
       </c>
       <c r="X65" s="16"/>
       <c r="Y65" s="9"/>
@@ -4943,10 +4945,10 @@
         <v>-11.51251673945707</v>
       </c>
       <c r="V66" s="16">
-        <v>9.6668952804608921</v>
+        <v>9.686696003982334</v>
       </c>
       <c r="W66" s="16">
-        <v>13.597728570746966</v>
+        <v>15.540566400057074</v>
       </c>
       <c r="X66" s="16"/>
       <c r="Y66" s="9"/>
@@ -5082,10 +5084,10 @@
         <v>-1.6811837994929988</v>
       </c>
       <c r="V67" s="16">
-        <v>7.8862088993400903</v>
+        <v>7.8200279914609609</v>
       </c>
       <c r="W67" s="16">
-        <v>16.83045795506888</v>
+        <v>17.933585837913512</v>
       </c>
       <c r="X67" s="16"/>
       <c r="Y67" s="9"/>
@@ -5221,10 +5223,10 @@
         <v>-13.068418971377042</v>
       </c>
       <c r="V68" s="16">
-        <v>18.168352190392326</v>
+        <v>19.284904911536543</v>
       </c>
       <c r="W68" s="16">
-        <v>11.308970692775517</v>
+        <v>13.530648719011225</v>
       </c>
       <c r="X68" s="16"/>
       <c r="Y68" s="9"/>
@@ -5360,10 +5362,10 @@
         <v>-38.787988373717887</v>
       </c>
       <c r="V69" s="16">
-        <v>33.916105539472881</v>
+        <v>19.119878456581475</v>
       </c>
       <c r="W69" s="16">
-        <v>44.715487629671827</v>
+        <v>40.641576521733271</v>
       </c>
       <c r="X69" s="16"/>
       <c r="Y69" s="9"/>
@@ -5592,10 +5594,10 @@
         <v>-24.084117610815014</v>
       </c>
       <c r="V71" s="16">
-        <v>5.4842253294958567</v>
+        <v>5.4886428824127051</v>
       </c>
       <c r="W71" s="16">
-        <v>27.872461321854431</v>
+        <v>28.931378028739971</v>
       </c>
       <c r="X71" s="16"/>
       <c r="Y71" s="9"/>
@@ -5895,7 +5897,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -5905,7 +5907,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -6079,10 +6081,10 @@
         <v>-48.508374058106696</v>
       </c>
       <c r="V87" s="16">
-        <v>-2.3258520529022206</v>
+        <v>-2.2862478278321277</v>
       </c>
       <c r="W87" s="16">
-        <v>73.015917804323351</v>
+        <v>70.604114875548618</v>
       </c>
       <c r="X87" s="16"/>
       <c r="Y87" s="9"/>
@@ -6218,10 +6220,10 @@
         <v>-14.029399488094327</v>
       </c>
       <c r="V88" s="16">
-        <v>7.7010187465808002</v>
+        <v>7.6805084480307926</v>
       </c>
       <c r="W88" s="16">
-        <v>14.201072016858788</v>
+        <v>11.405244768620875</v>
       </c>
       <c r="X88" s="16"/>
       <c r="Y88" s="9"/>
@@ -6360,7 +6362,7 @@
         <v>-53.408301092213783</v>
       </c>
       <c r="W89" s="16">
-        <v>246.32044750299877</v>
+        <v>245.91260746597658</v>
       </c>
       <c r="X89" s="16"/>
       <c r="Y89" s="9"/>
@@ -6496,10 +6498,10 @@
         <v>-8.7023982476961947</v>
       </c>
       <c r="V90" s="16">
-        <v>48.366245200877785</v>
+        <v>65.261072210717685</v>
       </c>
       <c r="W90" s="16">
-        <v>0.22288204522038768</v>
+        <v>3.4175033783755566</v>
       </c>
       <c r="X90" s="16"/>
       <c r="Y90" s="9"/>
@@ -6635,10 +6637,10 @@
         <v>-11.780961510735494</v>
       </c>
       <c r="V91" s="16">
-        <v>9.4064197946539707</v>
+        <v>9.4265068914704813</v>
       </c>
       <c r="W91" s="16">
-        <v>12.86185641207571</v>
+        <v>13.458230124732793</v>
       </c>
       <c r="X91" s="16"/>
       <c r="Y91" s="9"/>
@@ -6774,10 +6776,10 @@
         <v>-3.6261614085312459</v>
       </c>
       <c r="V92" s="16">
-        <v>4.4732904376555211</v>
+        <v>4.4072385832758272</v>
       </c>
       <c r="W92" s="16">
-        <v>9.2269407028624073</v>
+        <v>9.9967909267098491</v>
       </c>
       <c r="X92" s="16"/>
       <c r="Y92" s="9"/>
@@ -6913,10 +6915,10 @@
         <v>-14.65345172444222</v>
       </c>
       <c r="V93" s="16">
-        <v>14.339325623422994</v>
+        <v>15.409027427094472</v>
       </c>
       <c r="W93" s="16">
-        <v>5.7215475383606531</v>
+        <v>5.8789376109498477</v>
       </c>
       <c r="X93" s="16"/>
       <c r="Y93" s="9"/>
@@ -7052,10 +7054,10 @@
         <v>-39.997728711953073</v>
       </c>
       <c r="V94" s="16">
-        <v>29.537901551061964</v>
+        <v>15.247798187899406</v>
       </c>
       <c r="W94" s="16">
-        <v>36.933891977398275</v>
+        <v>34.561139884542314</v>
       </c>
       <c r="X94" s="16"/>
       <c r="Y94" s="9"/>
@@ -7284,10 +7286,10 @@
         <v>-25.403217190302911</v>
       </c>
       <c r="V96" s="16">
-        <v>2.4679808005639643</v>
+        <v>2.471926911007813</v>
       </c>
       <c r="W96" s="16">
-        <v>20.190178318345843</v>
+        <v>20.599359295061731</v>
       </c>
       <c r="X96" s="16"/>
       <c r="Y96" s="9"/>
@@ -7583,7 +7585,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7593,7 +7595,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7772,10 +7774,10 @@
         <v>104.80578104007321</v>
       </c>
       <c r="W111" s="16">
-        <v>113.85937283425287</v>
+        <v>113.85107150017615</v>
       </c>
       <c r="X111" s="16">
-        <v>128.48830051603122</v>
+        <v>128.46943453982502</v>
       </c>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -7918,10 +7920,10 @@
         <v>104.38112903649552</v>
       </c>
       <c r="W112" s="16">
-        <v>107.99235798979292</v>
+        <v>107.99323494656903</v>
       </c>
       <c r="X112" s="16">
-        <v>114.29740867000086</v>
+        <v>114.30420745227686</v>
       </c>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -8067,7 +8069,7 @@
         <v>109.82186107974634</v>
       </c>
       <c r="X113" s="16">
-        <v>116.82553179963881</v>
+        <v>116.96327216580626</v>
       </c>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -8213,7 +8215,7 @@
         <v>106.4808022466493</v>
       </c>
       <c r="X114" s="16">
-        <v>111.766752397472</v>
+        <v>111.77283236250047</v>
       </c>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -8356,10 +8358,10 @@
         <v>100.6233867493781</v>
       </c>
       <c r="W115" s="16">
-        <v>100.86295153539591</v>
+        <v>100.86264422400646</v>
       </c>
       <c r="X115" s="16">
-        <v>101.5205894676067</v>
+        <v>102.71380956178649</v>
       </c>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -8502,10 +8504,10 @@
         <v>104.37386814639258</v>
       </c>
       <c r="W116" s="16">
-        <v>107.78353869493176</v>
+        <v>107.78556676551855</v>
       </c>
       <c r="X116" s="16">
-        <v>115.28657769517447</v>
+        <v>115.56281127054933</v>
       </c>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -8648,10 +8650,10 @@
         <v>104.22152167108382</v>
       </c>
       <c r="W117" s="16">
-        <v>107.71172045573363</v>
+        <v>107.72167983240639</v>
       </c>
       <c r="X117" s="16">
-        <v>113.40432498990256</v>
+        <v>115.50656314112796</v>
       </c>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -8794,10 +8796,10 @@
         <v>104.39561038836219</v>
       </c>
       <c r="W118" s="16">
-        <v>107.92403930609287</v>
+        <v>107.90308028781088</v>
       </c>
       <c r="X118" s="16">
-        <v>114.0570807534119</v>
+        <v>112.77891474648678</v>
       </c>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -9038,10 +9040,10 @@
         <v>103.79010693759332</v>
       </c>
       <c r="W120" s="16">
-        <v>106.845269533381</v>
+        <v>106.84562938858006</v>
       </c>
       <c r="X120" s="16">
-        <v>113.67457630059046</v>
+        <v>114.22742470557846</v>
       </c>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -9159,7 +9161,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9169,7 +9171,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9348,10 +9350,10 @@
         <v>4.6111041478708055</v>
       </c>
       <c r="W136" s="17">
-        <v>4.6385323897310009</v>
+        <v>4.6398805502164002</v>
       </c>
       <c r="X136" s="17">
-        <v>7.082464842066341</v>
+        <v>6.9278801809445509</v>
       </c>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -9494,10 +9496,10 @@
         <v>0.11298808324586632</v>
       </c>
       <c r="W137" s="17">
-        <v>0.11935372250288426</v>
+        <v>0.11932696485651428</v>
       </c>
       <c r="X137" s="17">
-        <v>0.11281646437403371</v>
+        <v>0.10913178858381915</v>
       </c>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -9640,10 +9642,10 @@
         <v>7.1585838407621711</v>
       </c>
       <c r="W138" s="17">
-        <v>3.3040258059939855</v>
+        <v>3.3038874431481116</v>
       </c>
       <c r="X138" s="17">
-        <v>9.5190477975028145</v>
+        <v>9.440472258703366</v>
       </c>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -9786,10 +9788,10 @@
         <v>0.47186794339882271</v>
       </c>
       <c r="W139" s="17">
-        <v>0.68046829936870534</v>
+        <v>0.75792314705247843</v>
       </c>
       <c r="X139" s="17">
-        <v>0.55980797059707377</v>
+        <v>0.63815406070955727</v>
       </c>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -9932,10 +9934,10 @@
         <v>16.438054162317986</v>
       </c>
       <c r="W140" s="17">
-        <v>17.089857358315268</v>
+        <v>17.09222718704418</v>
       </c>
       <c r="X140" s="17">
-        <v>15.18207249187347</v>
+        <v>15.317028642859364</v>
       </c>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -10078,10 +10080,10 @@
         <v>59.178398024070134</v>
       </c>
       <c r="W141" s="17">
-        <v>60.525950601713895</v>
+        <v>60.486288922661359</v>
       </c>
       <c r="X141" s="17">
-        <v>55.299432370866342</v>
+        <v>55.326833977431221</v>
       </c>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -10224,10 +10226,10 @@
         <v>10.914661044559235</v>
       </c>
       <c r="W142" s="17">
-        <v>12.227112692191158</v>
+        <v>12.342127733060114</v>
       </c>
       <c r="X142" s="17">
-        <v>10.643318461562803</v>
+        <v>10.86787242586418</v>
       </c>
       <c r="Y142" s="9"/>
       <c r="Z142" s="9"/>
@@ -10370,10 +10372,10 @@
         <v>1.1143427537749762</v>
       </c>
       <c r="W143" s="17">
-        <v>1.4146991301831056</v>
+        <v>1.2583380519608354</v>
       </c>
       <c r="X143" s="17">
-        <v>1.6010396011571171</v>
+        <v>1.3726266649039409</v>
       </c>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -10931,7 +10933,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -10941,7 +10943,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -11120,10 +11122,10 @@
         <v>4.566417881327558</v>
       </c>
       <c r="W161" s="17">
-        <v>4.3527838866773676</v>
+        <v>4.3543811326794186</v>
       </c>
       <c r="X161" s="17">
-        <v>6.26591049031168</v>
+        <v>6.1598614065106387</v>
       </c>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -11266,10 +11268,10 @@
         <v>0.11234832724085549</v>
       </c>
       <c r="W162" s="17">
-        <v>0.11808595430278818</v>
+        <v>0.11805891979651546</v>
       </c>
       <c r="X162" s="17">
-        <v>0.11220170200424583</v>
+        <v>0.10905848035950838</v>
       </c>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -11412,10 +11414,10 @@
         <v>7.0695140515178805</v>
       </c>
       <c r="W163" s="17">
-        <v>3.2144740975599682</v>
+        <v>3.2143503107806004</v>
       </c>
       <c r="X163" s="17">
-        <v>9.2623051527983424</v>
+        <v>9.2196534360586657</v>
       </c>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -11558,10 +11560,10 @@
         <v>0.47156868169068317</v>
       </c>
       <c r="W164" s="17">
-        <v>0.68279743691786998</v>
+        <v>0.76051996196848393</v>
       </c>
       <c r="X164" s="17">
-        <v>0.56936371955239085</v>
+        <v>0.65216827183772874</v>
       </c>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -11704,10 +11706,10 @@
         <v>16.95537642359746</v>
       </c>
       <c r="W165" s="17">
-        <v>18.103479899608534</v>
+        <v>18.106106433185019</v>
       </c>
       <c r="X165" s="17">
-        <v>16.999661516240913</v>
+        <v>17.033977646043173</v>
       </c>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -11850,10 +11852,10 @@
         <v>58.847414284760205</v>
       </c>
       <c r="W166" s="17">
-        <v>59.999064644815903</v>
+        <v>59.958821976419927</v>
       </c>
       <c r="X166" s="17">
-        <v>54.526204785455299</v>
+        <v>54.68750450834392</v>
       </c>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -11996,10 +11998,10 @@
         <v>10.869480879175175</v>
       </c>
       <c r="W167" s="17">
-        <v>12.12875577221036</v>
+        <v>12.241754934426355</v>
       </c>
       <c r="X167" s="17">
-        <v>10.668682315759389</v>
+        <v>10.747519841954412</v>
       </c>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -12142,10 +12144,10 @@
         <v>1.1078794706901804</v>
       </c>
       <c r="W168" s="17">
-        <v>1.4005583079072188</v>
+        <v>1.2460063307436735</v>
       </c>
       <c r="X168" s="17">
-        <v>1.5956703178777203</v>
+        <v>1.3902564088919682</v>
       </c>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE4F498-BDC5-42DD-BE28-BC0887D598C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152254F1-B9BF-4F21-871C-5A5AFD8AB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$X$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$Y$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -207,13 +207,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -639,14 +642,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
-    <col min="2" max="24" width="11.109375" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="11.109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -661,7 +664,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -671,7 +674,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -706,6 +709,7 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -778,6 +782,9 @@
       <c r="X10" s="6">
         <v>2022</v>
       </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -855,7 +862,9 @@
       <c r="X12" s="8">
         <v>185850.45028883137</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>244019.85129234736</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1001,7 +1010,9 @@
       <c r="X13" s="8">
         <v>2927.6187692904136</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="8">
+        <v>2849.238796514237</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1147,7 +1158,9 @@
       <c r="X14" s="8">
         <v>253254.38292727942</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="8">
+        <v>542459.49514924595</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1293,7 +1306,9 @@
       <c r="X15" s="8">
         <v>17119.409752890282</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="8">
+        <v>20508.903371801738</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1439,7 +1454,9 @@
       <c r="X16" s="8">
         <v>410901.54506312823</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="8">
+        <v>460009.7892023038</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1585,7 +1602,9 @@
       <c r="X17" s="8">
         <v>1484222.6971597369</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="8">
+        <v>1571798.1197874355</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1731,7 +1750,9 @@
       <c r="X18" s="8">
         <v>291546.46605811408</v>
       </c>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="8">
+        <v>283932.93629367201</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1877,7 +1898,9 @@
       <c r="X19" s="8">
         <v>36822.704360928095</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="8">
+        <v>41316.915909421892</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2121,7 +2144,9 @@
       <c r="X21" s="11">
         <v>2682645.2743801987</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="11">
+        <v>3166895.2498027426</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2219,6 +2244,7 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2433,7 +2459,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2443,7 +2469,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2478,6 +2504,7 @@
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2550,6 +2577,9 @@
       <c r="X35" s="15">
         <v>2022</v>
       </c>
+      <c r="Y35" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2627,7 +2657,9 @@
       <c r="X37" s="8">
         <v>144665.11116402436</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="8">
+        <v>179539.2869515474</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -2773,7 +2805,9 @@
       <c r="X38" s="8">
         <v>2561.2519736097411</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="8">
+        <v>2392.7587340361188</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -2919,7 +2953,9 @@
       <c r="X39" s="8">
         <v>216524.70748960227</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="8">
+        <v>440873.58697214018</v>
+      </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -3065,7 +3101,9 @@
       <c r="X40" s="8">
         <v>15316.252966882679</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="8">
+        <v>17413.153324149818</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -3211,7 +3249,9 @@
       <c r="X41" s="8">
         <v>400045.08333999082</v>
       </c>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="8">
+        <v>445685.78108362923</v>
+      </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -3357,7 +3397,9 @@
       <c r="X42" s="8">
         <v>1284342.8442433404</v>
       </c>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="8">
+        <v>1312933.9856936703</v>
+      </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -3503,7 +3545,9 @@
       <c r="X43" s="8">
         <v>252406.84003548569</v>
       </c>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="8">
+        <v>234507.49321034711</v>
+      </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -3649,7 +3693,9 @@
       <c r="X44" s="8">
         <v>32650.344653254586</v>
       </c>
-      <c r="Y44" s="9"/>
+      <c r="Y44" s="8">
+        <v>34997.94401131323</v>
+      </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -3893,7 +3939,9 @@
       <c r="X46" s="11">
         <v>2348512.4358661901</v>
       </c>
-      <c r="Y46" s="9"/>
+      <c r="Y46" s="11">
+        <v>2668343.9899808336</v>
+      </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -3991,6 +4039,7 @@
       <c r="V47" s="12"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
@@ -4205,7 +4254,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4215,7 +4264,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4250,6 +4299,7 @@
       <c r="V59" s="14"/>
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -4319,7 +4369,10 @@
       <c r="W60" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="X60" s="15"/>
+      <c r="X60" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y60" s="15"/>
     </row>
     <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -4394,8 +4447,10 @@
       <c r="W62" s="16">
         <v>92.509511587646045</v>
       </c>
-      <c r="X62" s="16"/>
-      <c r="Y62" s="9"/>
+      <c r="X62" s="16">
+        <v>31.29903689397284</v>
+      </c>
+      <c r="Y62" s="16"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -4533,8 +4588,10 @@
       <c r="W63" s="16">
         <v>17.91561032137308</v>
       </c>
-      <c r="X63" s="16"/>
-      <c r="Y63" s="9"/>
+      <c r="X63" s="16">
+        <v>-2.6772602224836106</v>
+      </c>
+      <c r="Y63" s="16"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -4672,8 +4729,10 @@
       <c r="W64" s="16">
         <v>268.4063451014336</v>
       </c>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="9"/>
+      <c r="X64" s="16">
+        <v>114.19550132919522</v>
+      </c>
+      <c r="Y64" s="16"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -4811,8 +4870,10 @@
       <c r="W65" s="16">
         <v>8.557289432173107</v>
       </c>
-      <c r="X65" s="16"/>
-      <c r="Y65" s="9"/>
+      <c r="X65" s="16">
+        <v>19.79912665119312</v>
+      </c>
+      <c r="Y65" s="16"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -4950,8 +5011,10 @@
       <c r="W66" s="16">
         <v>15.540566400057074</v>
       </c>
-      <c r="X66" s="16"/>
-      <c r="Y66" s="9"/>
+      <c r="X66" s="16">
+        <v>11.951340833150411</v>
+      </c>
+      <c r="Y66" s="16"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -5089,8 +5152,10 @@
       <c r="W67" s="16">
         <v>17.933585837913512</v>
       </c>
-      <c r="X67" s="16"/>
-      <c r="Y67" s="9"/>
+      <c r="X67" s="16">
+        <v>5.9004233525929948</v>
+      </c>
+      <c r="Y67" s="16"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -5228,8 +5293,10 @@
       <c r="W68" s="16">
         <v>13.530648719011225</v>
       </c>
-      <c r="X68" s="16"/>
-      <c r="Y68" s="9"/>
+      <c r="X68" s="16">
+        <v>-2.6114292748533785</v>
+      </c>
+      <c r="Y68" s="16"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -5367,8 +5434,10 @@
       <c r="W69" s="16">
         <v>40.641576521733271</v>
       </c>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="9"/>
+      <c r="X69" s="16">
+        <v>12.205001306917922</v>
+      </c>
+      <c r="Y69" s="16"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -5599,8 +5668,10 @@
       <c r="W71" s="16">
         <v>28.931378028739971</v>
       </c>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="9"/>
+      <c r="X71" s="16">
+        <v>18.051211617399758</v>
+      </c>
+      <c r="Y71" s="16"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -5693,6 +5764,7 @@
       <c r="V72" s="12"/>
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
@@ -5897,7 +5969,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -5907,7 +5979,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -5942,6 +6014,7 @@
       <c r="V84" s="14"/>
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
+      <c r="Y84" s="14"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -6011,7 +6084,10 @@
       <c r="W85" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="X85" s="15"/>
+      <c r="X85" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y85" s="15"/>
     </row>
     <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
@@ -6086,8 +6162,10 @@
       <c r="W87" s="16">
         <v>70.604114875548618</v>
       </c>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="9"/>
+      <c r="X87" s="16">
+        <v>24.106832329449475</v>
+      </c>
+      <c r="Y87" s="16"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -6225,8 +6303,10 @@
       <c r="W88" s="16">
         <v>11.405244768620875</v>
       </c>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="9"/>
+      <c r="X88" s="16">
+        <v>-6.5785499165923085</v>
+      </c>
+      <c r="Y88" s="16"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -6364,8 +6444,10 @@
       <c r="W89" s="16">
         <v>245.91260746597658</v>
       </c>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="9"/>
+      <c r="X89" s="16">
+        <v>103.6135238715477</v>
+      </c>
+      <c r="Y89" s="16"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
@@ -6503,8 +6585,10 @@
       <c r="W90" s="16">
         <v>3.4175033783755566</v>
       </c>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="9"/>
+      <c r="X90" s="16">
+        <v>13.690687675380701</v>
+      </c>
+      <c r="Y90" s="16"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -6642,8 +6726,10 @@
       <c r="W91" s="16">
         <v>13.458230124732793</v>
       </c>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="9"/>
+      <c r="X91" s="16">
+        <v>11.408888558905048</v>
+      </c>
+      <c r="Y91" s="16"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -6781,8 +6867,10 @@
       <c r="W92" s="16">
         <v>9.9967909267098491</v>
       </c>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="9"/>
+      <c r="X92" s="16">
+        <v>2.2261300071457271</v>
+      </c>
+      <c r="Y92" s="16"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
@@ -6920,8 +7008,10 @@
       <c r="W93" s="16">
         <v>5.8789376109498477</v>
       </c>
-      <c r="X93" s="16"/>
-      <c r="Y93" s="9"/>
+      <c r="X93" s="16">
+        <v>-7.0914666269036672</v>
+      </c>
+      <c r="Y93" s="16"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
@@ -7059,8 +7149,10 @@
       <c r="W94" s="16">
         <v>34.561139884542314</v>
       </c>
-      <c r="X94" s="16"/>
-      <c r="Y94" s="9"/>
+      <c r="X94" s="16">
+        <v>7.1901212161465935</v>
+      </c>
+      <c r="Y94" s="16"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
@@ -7291,8 +7383,10 @@
       <c r="W96" s="16">
         <v>20.599359295061731</v>
       </c>
-      <c r="X96" s="16"/>
-      <c r="Y96" s="9"/>
+      <c r="X96" s="16">
+        <v>13.61847394249294</v>
+      </c>
+      <c r="Y96" s="16"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
@@ -7385,6 +7479,7 @@
       <c r="V97" s="12"/>
       <c r="W97" s="12"/>
       <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
@@ -7585,7 +7680,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7595,7 +7690,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7630,6 +7725,7 @@
       <c r="V108" s="14"/>
       <c r="W108" s="14"/>
       <c r="X108" s="14"/>
+      <c r="Y108" s="14"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -7702,6 +7798,9 @@
       <c r="X109" s="15">
         <v>2022</v>
       </c>
+      <c r="Y109" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
@@ -7779,7 +7878,9 @@
       <c r="X111" s="16">
         <v>128.46943453982502</v>
       </c>
-      <c r="Y111" s="9"/>
+      <c r="Y111" s="16">
+        <v>135.91445941199569</v>
+      </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -7925,7 +8026,9 @@
       <c r="X112" s="16">
         <v>114.30420745227686</v>
       </c>
-      <c r="Y112" s="9"/>
+      <c r="Y112" s="16">
+        <v>119.07756331571821</v>
+      </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -8071,7 +8174,9 @@
       <c r="X113" s="16">
         <v>116.96327216580626</v>
       </c>
-      <c r="Y113" s="9"/>
+      <c r="Y113" s="16">
+        <v>123.04195832523874</v>
+      </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -8217,7 +8322,9 @@
       <c r="X114" s="16">
         <v>111.77283236250047</v>
       </c>
-      <c r="Y114" s="9"/>
+      <c r="Y114" s="16">
+        <v>117.77822769962354</v>
+      </c>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -8363,7 +8470,9 @@
       <c r="X115" s="16">
         <v>102.71380956178649</v>
       </c>
-      <c r="Y115" s="9"/>
+      <c r="Y115" s="16">
+        <v>103.21392530940689</v>
+      </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -8509,7 +8618,9 @@
       <c r="X116" s="16">
         <v>115.56281127054933</v>
       </c>
-      <c r="Y116" s="9"/>
+      <c r="Y116" s="16">
+        <v>119.71646228328821</v>
+      </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -8655,7 +8766,9 @@
       <c r="X117" s="16">
         <v>115.50656314112796</v>
       </c>
-      <c r="Y117" s="9"/>
+      <c r="Y117" s="16">
+        <v>121.07627453890848</v>
+      </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -8801,7 +8914,9 @@
       <c r="X118" s="16">
         <v>112.77891474648678</v>
       </c>
-      <c r="Y118" s="9"/>
+      <c r="Y118" s="16">
+        <v>118.0552660352449</v>
+      </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -9045,7 +9160,9 @@
       <c r="X120" s="16">
         <v>114.22742470557846</v>
       </c>
-      <c r="Y120" s="9"/>
+      <c r="Y120" s="16">
+        <v>118.68392012776022</v>
+      </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -9143,6 +9260,7 @@
       <c r="V121" s="12"/>
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
@@ -9161,7 +9279,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9171,7 +9289,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9206,6 +9324,7 @@
       <c r="V133" s="14"/>
       <c r="W133" s="14"/>
       <c r="X133" s="14"/>
+      <c r="Y133" s="14"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -9278,6 +9397,9 @@
       <c r="X134" s="15">
         <v>2022</v>
       </c>
+      <c r="Y134" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
@@ -9355,7 +9477,9 @@
       <c r="X136" s="17">
         <v>6.9278801809445509</v>
       </c>
-      <c r="Y136" s="9"/>
+      <c r="Y136" s="17">
+        <v>7.705333837851021</v>
+      </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -9501,7 +9625,9 @@
       <c r="X137" s="17">
         <v>0.10913178858381915</v>
       </c>
-      <c r="Y137" s="9"/>
+      <c r="Y137" s="17">
+        <v>8.9969467625798744E-2</v>
+      </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -9647,7 +9773,9 @@
       <c r="X138" s="17">
         <v>9.440472258703366</v>
       </c>
-      <c r="Y138" s="9"/>
+      <c r="Y138" s="17">
+        <v>17.129063399966711</v>
+      </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -9793,7 +9921,9 @@
       <c r="X139" s="17">
         <v>0.63815406070955727</v>
       </c>
-      <c r="Y139" s="9"/>
+      <c r="Y139" s="17">
+        <v>0.64760283350322945</v>
+      </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -9939,7 +10069,9 @@
       <c r="X140" s="17">
         <v>15.317028642859364</v>
       </c>
-      <c r="Y140" s="9"/>
+      <c r="Y140" s="17">
+        <v>14.525576405817544</v>
+      </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -10085,7 +10217,9 @@
       <c r="X141" s="17">
         <v>55.326833977431221</v>
       </c>
-      <c r="Y141" s="9"/>
+      <c r="Y141" s="17">
+        <v>49.63214744426228</v>
+      </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -10231,7 +10365,9 @@
       <c r="X142" s="17">
         <v>10.86787242586418</v>
       </c>
-      <c r="Y142" s="9"/>
+      <c r="Y142" s="17">
+        <v>8.9656560731321147</v>
+      </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -10377,7 +10513,9 @@
       <c r="X143" s="17">
         <v>1.3726266649039409</v>
       </c>
-      <c r="Y143" s="9"/>
+      <c r="Y143" s="17">
+        <v>1.3046505378412947</v>
+      </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -10621,7 +10759,9 @@
       <c r="X145" s="16">
         <v>100</v>
       </c>
-      <c r="Y145" s="9"/>
+      <c r="Y145" s="16">
+        <v>100</v>
+      </c>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
@@ -10719,6 +10859,7 @@
       <c r="V146" s="12"/>
       <c r="W146" s="12"/>
       <c r="X146" s="12"/>
+      <c r="Y146" s="12"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -10933,7 +11074,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -10943,7 +11084,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -10978,6 +11119,7 @@
       <c r="V158" s="14"/>
       <c r="W158" s="14"/>
       <c r="X158" s="14"/>
+      <c r="Y158" s="14"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -11050,6 +11192,9 @@
       <c r="X159" s="15">
         <v>2022</v>
       </c>
+      <c r="Y159" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
@@ -11127,7 +11272,9 @@
       <c r="X161" s="17">
         <v>6.1598614065106387</v>
       </c>
-      <c r="Y161" s="9"/>
+      <c r="Y161" s="17">
+        <v>6.7284910650832916</v>
+      </c>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -11273,7 +11420,9 @@
       <c r="X162" s="17">
         <v>0.10905848035950838</v>
       </c>
-      <c r="Y162" s="9"/>
+      <c r="Y162" s="17">
+        <v>8.9672049144357349E-2</v>
+      </c>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -11419,7 +11568,9 @@
       <c r="X163" s="17">
         <v>9.2196534360586657</v>
       </c>
-      <c r="Y163" s="9"/>
+      <c r="Y163" s="17">
+        <v>16.522367004686938</v>
+      </c>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -11565,7 +11716,9 @@
       <c r="X164" s="17">
         <v>0.65216827183772874</v>
       </c>
-      <c r="Y164" s="9"/>
+      <c r="Y164" s="17">
+        <v>0.65258277754042104</v>
+      </c>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -11711,7 +11864,9 @@
       <c r="X165" s="17">
         <v>17.033977646043173</v>
       </c>
-      <c r="Y165" s="9"/>
+      <c r="Y165" s="17">
+        <v>16.702710848267753</v>
+      </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -11857,7 +12012,9 @@
       <c r="X166" s="17">
         <v>54.68750450834392</v>
       </c>
-      <c r="Y166" s="9"/>
+      <c r="Y166" s="17">
+        <v>49.204075285027287</v>
+      </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -12003,7 +12160,9 @@
       <c r="X167" s="17">
         <v>10.747519841954412</v>
       </c>
-      <c r="Y167" s="9"/>
+      <c r="Y167" s="17">
+        <v>8.7885030599833396</v>
+      </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -12149,7 +12308,9 @@
       <c r="X168" s="17">
         <v>1.3902564088919682</v>
       </c>
-      <c r="Y168" s="9"/>
+      <c r="Y168" s="17">
+        <v>1.3115979102666075</v>
+      </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
@@ -12393,7 +12554,9 @@
       <c r="X170" s="16">
         <v>100</v>
       </c>
-      <c r="Y170" s="9"/>
+      <c r="Y170" s="16">
+        <v>100</v>
+      </c>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
@@ -12491,6 +12654,7 @@
       <c r="V171" s="12"/>
       <c r="W171" s="12"/>
       <c r="X171" s="12"/>
+      <c r="Y171" s="12"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
@@ -12686,9 +12850,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="50" max="23" man="1"/>
-    <brk id="100" max="23" man="1"/>
-    <brk id="124" max="23" man="1"/>
+    <brk id="50" max="24" man="1"/>
+    <brk id="100" max="24" man="1"/>
+    <brk id="124" max="24" man="1"/>
     <brk id="172" max="81" man="1"/>
   </rowBreaks>
 </worksheet>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152254F1-B9BF-4F21-871C-5A5AFD8AB6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE315D2-247C-416E-AB59-23718C58415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -210,13 +210,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -639,50 +639,50 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
+    <col min="2" max="25" width="11.08984375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -711,7 +711,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -786,10 +786,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -860,10 +860,10 @@
         <v>96540.918293388881</v>
       </c>
       <c r="X12" s="8">
-        <v>185850.45028883137</v>
+        <v>181715.57871396336</v>
       </c>
       <c r="Y12" s="8">
-        <v>244019.85129234736</v>
+        <v>239130.98916059843</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -937,7 +937,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,10 +1008,10 @@
         <v>2482.8084774452982</v>
       </c>
       <c r="X13" s="8">
-        <v>2927.6187692904136</v>
+        <v>2906.6006882608326</v>
       </c>
       <c r="Y13" s="8">
-        <v>2849.238796514237</v>
+        <v>2817.6049127362267</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1085,7 +1085,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>410901.54506312823</v>
       </c>
       <c r="Y16" s="8">
-        <v>460009.7892023038</v>
+        <v>460095.71776875551</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1529,7 +1529,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1600,10 +1600,10 @@
         <v>1258524.182584963</v>
       </c>
       <c r="X17" s="8">
-        <v>1484222.6971597369</v>
+        <v>1484216.9898297694</v>
       </c>
       <c r="Y17" s="8">
-        <v>1571798.1197874355</v>
+        <v>1570821.5171590894</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1677,7 +1677,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1748,10 +1748,10 @@
         <v>256799.78873343064</v>
       </c>
       <c r="X18" s="8">
-        <v>291546.46605811408</v>
+        <v>294960.91014231951</v>
       </c>
       <c r="Y18" s="8">
-        <v>283932.93629367201</v>
+        <v>285700.20320173108</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1825,7 +1825,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1896,10 +1896,10 @@
         <v>26181.94794996336</v>
       </c>
       <c r="X19" s="8">
-        <v>36822.704360928095</v>
+        <v>36681.315968412971</v>
       </c>
       <c r="Y19" s="8">
-        <v>41316.915909421892</v>
+        <v>41543.8120870645</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -1973,7 +1973,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2071,7 +2071,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2142,10 +2142,10 @@
         <v>2080676.8029596431</v>
       </c>
       <c r="X21" s="11">
-        <v>2682645.2743801987</v>
+        <v>2681756.7330860235</v>
       </c>
       <c r="Y21" s="11">
-        <v>3166895.2498027426</v>
+        <v>3163078.2428110233</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2219,7 +2219,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2246,12 +2246,12 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2349,7 +2349,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2447,37 +2447,37 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="14" t="s">
         <v>10</v>
@@ -2506,7 +2506,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="15">
         <v>2000</v>
@@ -2581,10 +2581,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2655,10 +2655,10 @@
         <v>84795.792451755289</v>
       </c>
       <c r="X37" s="8">
-        <v>144665.11116402436</v>
+        <v>141516.60183246247</v>
       </c>
       <c r="Y37" s="8">
-        <v>179539.2869515474</v>
+        <v>176074.44773556537</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -2732,7 +2732,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2803,10 +2803,10 @@
         <v>2299.0407488707028</v>
       </c>
       <c r="X38" s="8">
-        <v>2561.2519736097411</v>
+        <v>2543.064836113972</v>
       </c>
       <c r="Y38" s="8">
-        <v>2392.7587340361188</v>
+        <v>2366.1350114909628</v>
       </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -2880,7 +2880,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>400045.08333999082</v>
       </c>
       <c r="Y41" s="8">
-        <v>445685.78108362923</v>
+        <v>445767.4270939586</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -3324,7 +3324,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3395,10 +3395,10 @@
         <v>1167618.46725064</v>
       </c>
       <c r="X42" s="8">
-        <v>1284342.8442433404</v>
+        <v>1284337.8066258188</v>
       </c>
       <c r="Y42" s="8">
-        <v>1312933.9856936703</v>
+        <v>1317076.5456572527</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -3472,7 +3472,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3543,10 +3543,10 @@
         <v>238391.9273566475</v>
       </c>
       <c r="X43" s="8">
-        <v>252406.84003548569</v>
+        <v>255283.29935242518</v>
       </c>
       <c r="Y43" s="8">
-        <v>234507.49321034711</v>
+        <v>237735.03092911851</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -3620,7 +3620,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3691,10 +3691,10 @@
         <v>24264.319313339351</v>
       </c>
       <c r="X44" s="8">
-        <v>32650.344653254586</v>
+        <v>32519.359509289694</v>
       </c>
       <c r="Y44" s="8">
-        <v>34997.94401131323</v>
+        <v>35220.877753180335</v>
       </c>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -3768,7 +3768,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3866,7 +3866,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
@@ -3937,10 +3937,10 @@
         <v>1947367.2576653201</v>
       </c>
       <c r="X46" s="11">
-        <v>2348512.4358661901</v>
+        <v>2348086.1759525859</v>
       </c>
       <c r="Y46" s="11">
-        <v>2668343.9899808336</v>
+        <v>2672527.2044768566</v>
       </c>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
@@ -4014,7 +4014,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4041,12 +4041,12 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4144,7 +4144,7 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4242,37 +4242,37 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="14" t="s">
         <v>10</v>
@@ -4301,7 +4301,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="15" t="s">
         <v>37</v>
@@ -4374,10 +4374,10 @@
       </c>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4445,10 +4445,10 @@
         <v>6.1469632180912441</v>
       </c>
       <c r="W62" s="16">
-        <v>92.509511587646045</v>
+        <v>88.226486681769273</v>
       </c>
       <c r="X62" s="16">
-        <v>31.29903689397284</v>
+        <v>31.596306080620678</v>
       </c>
       <c r="Y62" s="16"/>
       <c r="Z62" s="9"/>
@@ -4518,7 +4518,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4586,10 +4586,10 @@
         <v>11.406789285909639</v>
       </c>
       <c r="W63" s="16">
-        <v>17.91561032137308</v>
+        <v>17.069065723973935</v>
       </c>
       <c r="X63" s="16">
-        <v>-2.6772602224836106</v>
+        <v>-3.061850768977024</v>
       </c>
       <c r="Y63" s="16"/>
       <c r="Z63" s="9"/>
@@ -4659,7 +4659,7 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4941,7 +4941,7 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>15.540566400057074</v>
       </c>
       <c r="X66" s="16">
-        <v>11.951340833150411</v>
+        <v>11.97225303644683</v>
       </c>
       <c r="Y66" s="16"/>
       <c r="Z66" s="9"/>
@@ -5082,7 +5082,7 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -5150,10 +5150,10 @@
         <v>7.8200279914609609</v>
       </c>
       <c r="W67" s="16">
-        <v>17.933585837913512</v>
+        <v>17.933132344047721</v>
       </c>
       <c r="X67" s="16">
-        <v>5.9004233525929948</v>
+        <v>5.8350313951906116</v>
       </c>
       <c r="Y67" s="16"/>
       <c r="Z67" s="9"/>
@@ -5223,7 +5223,7 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -5291,10 +5291,10 @@
         <v>19.284904911536543</v>
       </c>
       <c r="W68" s="16">
-        <v>13.530648719011225</v>
+        <v>14.860261995192587</v>
       </c>
       <c r="X68" s="16">
-        <v>-2.6114292748533785</v>
+        <v>-3.1396387189475803</v>
       </c>
       <c r="Y68" s="16"/>
       <c r="Z68" s="9"/>
@@ -5364,7 +5364,7 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -5432,10 +5432,10 @@
         <v>19.119878456581475</v>
       </c>
       <c r="W69" s="16">
-        <v>40.641576521733271</v>
+        <v>40.101554088011625</v>
       </c>
       <c r="X69" s="16">
-        <v>12.205001306917922</v>
+        <v>13.256056906024654</v>
       </c>
       <c r="Y69" s="16"/>
       <c r="Z69" s="9"/>
@@ -5505,7 +5505,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5598,7 +5598,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
@@ -5666,10 +5666,10 @@
         <v>5.4886428824127051</v>
       </c>
       <c r="W71" s="16">
-        <v>28.931378028739971</v>
+        <v>28.888673592716486</v>
       </c>
       <c r="X71" s="16">
-        <v>18.051211617399758</v>
+        <v>17.94799296247578</v>
       </c>
       <c r="Y71" s="16"/>
       <c r="Z71" s="9"/>
@@ -5739,7 +5739,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5766,12 +5766,12 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -5864,7 +5864,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5957,37 +5957,37 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="14" t="s">
         <v>10</v>
@@ -6016,7 +6016,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="15" t="s">
         <v>37</v>
@@ -6089,10 +6089,10 @@
       </c>
       <c r="Y85" s="15"/>
     </row>
-    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -6160,10 +6160,10 @@
         <v>-2.2862478278321277</v>
       </c>
       <c r="W87" s="16">
-        <v>70.604114875548618</v>
+        <v>66.891065866243991</v>
       </c>
       <c r="X87" s="16">
-        <v>24.106832329449475</v>
+        <v>24.41964084469393</v>
       </c>
       <c r="Y87" s="16"/>
       <c r="Z87" s="9"/>
@@ -6233,7 +6233,7 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6301,10 +6301,10 @@
         <v>7.6805084480307926</v>
       </c>
       <c r="W88" s="16">
-        <v>11.405244768620875</v>
+        <v>10.614169729837755</v>
       </c>
       <c r="X88" s="16">
-        <v>-6.5785499165923085</v>
+        <v>-6.9573461954423976</v>
       </c>
       <c r="Y88" s="16"/>
       <c r="Z88" s="9"/>
@@ -6374,7 +6374,7 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6515,7 +6515,7 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -6656,7 +6656,7 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>13.458230124732793</v>
       </c>
       <c r="X91" s="16">
-        <v>11.408888558905048</v>
+        <v>11.429297761199877</v>
       </c>
       <c r="Y91" s="16"/>
       <c r="Z91" s="9"/>
@@ -6797,7 +6797,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -6865,10 +6865,10 @@
         <v>4.4072385832758272</v>
       </c>
       <c r="W92" s="16">
-        <v>9.9967909267098491</v>
+        <v>9.9963594829066693</v>
       </c>
       <c r="X92" s="16">
-        <v>2.2261300071457271</v>
+        <v>2.5490753960941248</v>
       </c>
       <c r="Y92" s="16"/>
       <c r="Z92" s="9"/>
@@ -6938,7 +6938,7 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -7006,10 +7006,10 @@
         <v>15.409027427094472</v>
       </c>
       <c r="W93" s="16">
-        <v>5.8789376109498477</v>
+        <v>7.0855469742929955</v>
       </c>
       <c r="X93" s="16">
-        <v>-7.0914666269036672</v>
+        <v>-6.8740369886401567</v>
       </c>
       <c r="Y93" s="16"/>
       <c r="Z93" s="9"/>
@@ -7079,7 +7079,7 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -7147,10 +7147,10 @@
         <v>15.247798187899406</v>
       </c>
       <c r="W94" s="16">
-        <v>34.561139884542314</v>
+        <v>34.021313721387287</v>
       </c>
       <c r="X94" s="16">
-        <v>7.1901212161465935</v>
+        <v>8.3074152894029254</v>
       </c>
       <c r="Y94" s="16"/>
       <c r="Z94" s="9"/>
@@ -7220,7 +7220,7 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -7313,7 +7313,7 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
@@ -7381,10 +7381,10 @@
         <v>2.471926911007813</v>
       </c>
       <c r="W96" s="16">
-        <v>20.599359295061731</v>
+        <v>20.577470259394403</v>
       </c>
       <c r="X96" s="16">
-        <v>13.61847394249294</v>
+        <v>13.817253891571909</v>
       </c>
       <c r="Y96" s="16"/>
       <c r="Z96" s="9"/>
@@ -7454,7 +7454,7 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7481,12 +7481,12 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -7579,7 +7579,7 @@
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -7673,32 +7673,32 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="14" t="s">
         <v>10</v>
@@ -7727,7 +7727,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="15">
         <v>2000</v>
@@ -7802,10 +7802,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7876,10 +7876,10 @@
         <v>113.85107150017615</v>
       </c>
       <c r="X111" s="16">
-        <v>128.46943453982502</v>
+        <v>128.40583815677778</v>
       </c>
       <c r="Y111" s="16">
-        <v>135.91445941199569</v>
+        <v>135.81243175030912</v>
       </c>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -7953,7 +7953,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -8024,10 +8024,10 @@
         <v>107.99323494656903</v>
       </c>
       <c r="X112" s="16">
-        <v>114.30420745227686</v>
+        <v>114.29518614642855</v>
       </c>
       <c r="Y112" s="16">
-        <v>119.07756331571821</v>
+        <v>119.08047930708659</v>
       </c>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -8101,7 +8101,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -8397,7 +8397,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>102.71380956178649</v>
       </c>
       <c r="Y115" s="16">
-        <v>103.21392530940689</v>
+        <v>103.21429736762188</v>
       </c>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -8545,7 +8545,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -8616,10 +8616,10 @@
         <v>107.78556676551855</v>
       </c>
       <c r="X116" s="16">
-        <v>115.56281127054933</v>
+        <v>115.56282016871155</v>
       </c>
       <c r="Y116" s="16">
-        <v>119.71646228328821</v>
+        <v>119.2657725428716</v>
       </c>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -8693,7 +8693,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -8764,10 +8764,10 @@
         <v>107.72167983240639</v>
       </c>
       <c r="X117" s="16">
-        <v>115.50656314112796</v>
+        <v>115.54257990653684</v>
       </c>
       <c r="Y117" s="16">
-        <v>121.07627453890848</v>
+        <v>120.17589586404436</v>
       </c>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -8841,7 +8841,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -8912,10 +8912,10 @@
         <v>107.90308028781088</v>
       </c>
       <c r="X118" s="16">
-        <v>112.77891474648678</v>
+        <v>112.79839616132152</v>
       </c>
       <c r="Y118" s="16">
-        <v>118.0552660352449</v>
+        <v>117.95223383753752</v>
       </c>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -8989,7 +8989,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -9087,7 +9087,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
@@ -9158,10 +9158,10 @@
         <v>106.84562938858006</v>
       </c>
       <c r="X120" s="16">
-        <v>114.22742470557846</v>
+        <v>114.21031990012342</v>
       </c>
       <c r="Y120" s="16">
-        <v>118.68392012776022</v>
+        <v>118.35532441025951</v>
       </c>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -9235,7 +9235,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -9262,42 +9262,42 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="14" t="s">
         <v>10</v>
@@ -9326,7 +9326,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="15">
         <v>2000</v>
@@ -9401,10 +9401,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -9475,10 +9475,10 @@
         <v>4.6398805502164002</v>
       </c>
       <c r="X136" s="17">
-        <v>6.9278801809445509</v>
+        <v>6.7759903973413245</v>
       </c>
       <c r="Y136" s="17">
-        <v>7.705333837851021</v>
+        <v>7.5600718921224992</v>
       </c>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -9552,7 +9552,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -9623,10 +9623,10 @@
         <v>0.11932696485651428</v>
       </c>
       <c r="X137" s="17">
-        <v>0.10913178858381915</v>
+        <v>0.10838420399586621</v>
       </c>
       <c r="Y137" s="17">
-        <v>8.9969467625798744E-2</v>
+        <v>8.9077939160690026E-2</v>
       </c>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -9700,7 +9700,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -9771,10 +9771,10 @@
         <v>3.3038874431481116</v>
       </c>
       <c r="X138" s="17">
-        <v>9.440472258703366</v>
+        <v>9.4436001521975363</v>
       </c>
       <c r="Y138" s="17">
-        <v>17.129063399966711</v>
+        <v>17.149733693187525</v>
       </c>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -9848,7 +9848,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -9919,10 +9919,10 @@
         <v>0.75792314705247843</v>
       </c>
       <c r="X139" s="17">
-        <v>0.63815406070955727</v>
+        <v>0.63836549906561335</v>
       </c>
       <c r="Y139" s="17">
-        <v>0.64760283350322945</v>
+        <v>0.64838432050847739</v>
       </c>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -9996,7 +9996,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -10067,10 +10067,10 @@
         <v>17.09222718704418</v>
       </c>
       <c r="X140" s="17">
-        <v>15.317028642859364</v>
+        <v>15.322103604463949</v>
       </c>
       <c r="Y140" s="17">
-        <v>14.525576405817544</v>
+        <v>14.545821584225784</v>
       </c>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -10144,7 +10144,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -10215,10 +10215,10 @@
         <v>60.486288922661359</v>
       </c>
       <c r="X141" s="17">
-        <v>55.326833977431221</v>
+        <v>55.344952490221253</v>
       </c>
       <c r="Y141" s="17">
-        <v>49.63214744426228</v>
+        <v>49.661165376772423</v>
       </c>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -10292,7 +10292,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -10363,10 +10363,10 @@
         <v>12.342127733060114</v>
       </c>
       <c r="X142" s="17">
-        <v>10.86787242586418</v>
+        <v>10.998794428415366</v>
       </c>
       <c r="Y142" s="17">
-        <v>8.9656560731321147</v>
+        <v>9.0323470135797113</v>
       </c>
       <c r="Z142" s="9"/>
       <c r="AA142" s="9"/>
@@ -10440,7 +10440,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -10511,10 +10511,10 @@
         <v>1.2583380519608354</v>
       </c>
       <c r="X143" s="17">
-        <v>1.3726266649039409</v>
+        <v>1.3678092242991056</v>
       </c>
       <c r="Y143" s="17">
-        <v>1.3046505378412947</v>
+        <v>1.3133981804428767</v>
       </c>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -10588,7 +10588,7 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -10686,7 +10686,7 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
@@ -10834,7 +10834,7 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -10861,12 +10861,12 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
     </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -10964,7 +10964,7 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -11062,37 +11062,37 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="14" t="s">
         <v>10</v>
@@ -11121,7 +11121,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
     </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="15">
         <v>2000</v>
@@ -11196,10 +11196,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -11270,10 +11270,10 @@
         <v>4.3543811326794186</v>
       </c>
       <c r="X161" s="17">
-        <v>6.1598614065106387</v>
+        <v>6.0268913160757895</v>
       </c>
       <c r="Y161" s="17">
-        <v>6.7284910650832916</v>
+        <v>6.5883126443246702</v>
       </c>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -11347,7 +11347,7 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -11418,10 +11418,10 @@
         <v>0.11805891979651546</v>
       </c>
       <c r="X162" s="17">
-        <v>0.10905848035950838</v>
+        <v>0.10830372676089224</v>
       </c>
       <c r="Y162" s="17">
-        <v>8.9672049144357349E-2</v>
+        <v>8.8535488339552007E-2</v>
       </c>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -11495,7 +11495,7 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -11566,10 +11566,10 @@
         <v>3.2143503107806004</v>
       </c>
       <c r="X163" s="17">
-        <v>9.2196534360586657</v>
+        <v>9.221327126197199</v>
       </c>
       <c r="Y163" s="17">
-        <v>16.522367004686938</v>
+        <v>16.496505114470501</v>
       </c>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -11643,7 +11643,7 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -11714,10 +11714,10 @@
         <v>0.76051996196848393</v>
       </c>
       <c r="X164" s="17">
-        <v>0.65216827183772874</v>
+        <v>0.65228666322985729</v>
       </c>
       <c r="Y164" s="17">
-        <v>0.65258277754042104</v>
+        <v>0.65156131226579672</v>
       </c>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -11791,7 +11791,7 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -11862,10 +11862,10 @@
         <v>18.106106433185019</v>
       </c>
       <c r="X165" s="17">
-        <v>17.033977646043173</v>
+        <v>17.037069909825526</v>
       </c>
       <c r="Y165" s="17">
-        <v>16.702710848267753</v>
+        <v>16.679621683447632</v>
       </c>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -11939,7 +11939,7 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -12010,10 +12010,10 @@
         <v>59.958821976419927</v>
       </c>
       <c r="X166" s="17">
-        <v>54.68750450834392</v>
+        <v>54.697217665138751</v>
       </c>
       <c r="Y166" s="17">
-        <v>49.204075285027287</v>
+        <v>49.28206318914043</v>
       </c>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -12087,7 +12087,7 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
@@ -12158,10 +12158,10 @@
         <v>12.241754934426355</v>
       </c>
       <c r="X167" s="17">
-        <v>10.747519841954412</v>
+        <v>10.871973182537063</v>
       </c>
       <c r="Y167" s="17">
-        <v>8.7885030599833396</v>
+        <v>8.8955139738476419</v>
       </c>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -12235,7 +12235,7 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -12306,10 +12306,10 @@
         <v>1.2460063307436735</v>
       </c>
       <c r="X168" s="17">
-        <v>1.3902564088919682</v>
+        <v>1.3849304102349242</v>
       </c>
       <c r="Y168" s="17">
-        <v>1.3115979102666075</v>
+        <v>1.317886594163773</v>
       </c>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -12383,7 +12383,7 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -12481,7 +12481,7 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -12656,12 +12656,12 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
     </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -12753,7 +12753,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE315D2-247C-416E-AB59-23718C58415D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254FD411-3122-4386-9674-5A84538ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$Y$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$Z$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -210,13 +210,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -298,10 +301,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
@@ -338,8 +342,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{3395B0E9-89AD-4258-97E4-AFAD968917DA}"/>
     <cellStyle name="Comma 3" xfId="3" xr:uid="{FF438767-8ABA-4E79-9D9F-1847B04AF4F9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -638,51 +643,51 @@
   </sheetPr>
   <dimension ref="A1:CR174"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="83" zoomScaleNormal="60" zoomScaleSheetLayoutView="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" style="1" customWidth="1"/>
-    <col min="2" max="25" width="11.08984375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
+    <col min="2" max="26" width="11.109375" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -710,8 +715,9 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2000</v>
@@ -785,11 +791,14 @@
       <c r="Y10" s="6">
         <v>2023</v>
       </c>
-    </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="6">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,7 +874,9 @@
       <c r="Y12" s="8">
         <v>239130.98916059843</v>
       </c>
-      <c r="Z12" s="9"/>
+      <c r="Z12" s="8">
+        <v>247599.80673995736</v>
+      </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
@@ -937,7 +948,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,7 +1024,9 @@
       <c r="Y13" s="8">
         <v>2817.6049127362267</v>
       </c>
-      <c r="Z13" s="9"/>
+      <c r="Z13" s="8">
+        <v>2872.7528065777697</v>
+      </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -1085,7 +1098,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1174,9 @@
       <c r="Y14" s="8">
         <v>542459.49514924595</v>
       </c>
-      <c r="Z14" s="9"/>
+      <c r="Z14" s="8">
+        <v>573778.77713160415</v>
+      </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -1233,7 +1248,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1324,9 @@
       <c r="Y15" s="8">
         <v>20508.903371801738</v>
       </c>
-      <c r="Z15" s="9"/>
+      <c r="Z15" s="8">
+        <v>21816.009028176304</v>
+      </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -1381,7 +1398,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1474,9 @@
       <c r="Y16" s="8">
         <v>460095.71776875551</v>
       </c>
-      <c r="Z16" s="9"/>
+      <c r="Z16" s="8">
+        <v>508753.54606437497</v>
+      </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -1529,7 +1548,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1624,9 @@
       <c r="Y17" s="8">
         <v>1570821.5171590894</v>
       </c>
-      <c r="Z17" s="9"/>
+      <c r="Z17" s="8">
+        <v>1780919.4435681847</v>
+      </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
@@ -1677,7 +1698,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1774,9 @@
       <c r="Y18" s="8">
         <v>285700.20320173108</v>
       </c>
-      <c r="Z18" s="9"/>
+      <c r="Z18" s="8">
+        <v>299099.7473354562</v>
+      </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
@@ -1825,7 +1848,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1901,7 +1924,9 @@
       <c r="Y19" s="8">
         <v>41543.8120870645</v>
       </c>
-      <c r="Z19" s="9"/>
+      <c r="Z19" s="8">
+        <v>50486.136551220676</v>
+      </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
@@ -1973,7 +1998,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2071,7 +2096,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -2147,7 +2172,9 @@
       <c r="Y21" s="11">
         <v>3163078.2428110233</v>
       </c>
-      <c r="Z21" s="9"/>
+      <c r="Z21" s="11">
+        <v>3485326.2192255529</v>
+      </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -2219,7 +2246,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2245,13 +2272,14 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
-    </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2349,7 +2377,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2447,37 +2475,37 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="14" t="s">
         <v>10</v>
@@ -2505,8 +2533,9 @@
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
-    </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z34" s="14"/>
+    </row>
+    <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="15">
         <v>2000</v>
@@ -2580,11 +2609,14 @@
       <c r="Y35" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="36" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2692,9 @@
       <c r="Y37" s="8">
         <v>176074.44773556537</v>
       </c>
-      <c r="Z37" s="9"/>
+      <c r="Z37" s="8">
+        <v>181316.53629991561</v>
+      </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
@@ -2732,7 +2766,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +2842,9 @@
       <c r="Y38" s="8">
         <v>2366.1350114909628</v>
       </c>
-      <c r="Z38" s="9"/>
+      <c r="Z38" s="8">
+        <v>2354.8057921875084</v>
+      </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
@@ -2880,7 +2916,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2992,9 @@
       <c r="Y39" s="8">
         <v>440873.58697214018</v>
       </c>
-      <c r="Z39" s="9"/>
+      <c r="Z39" s="8">
+        <v>456764.59930040804</v>
+      </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
@@ -3028,7 +3066,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -3104,7 +3142,9 @@
       <c r="Y40" s="8">
         <v>17413.153324149818</v>
       </c>
-      <c r="Z40" s="9"/>
+      <c r="Z40" s="8">
+        <v>18110.169284320706</v>
+      </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
@@ -3176,7 +3216,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3292,9 @@
       <c r="Y41" s="8">
         <v>445767.4270939586</v>
       </c>
-      <c r="Z41" s="9"/>
+      <c r="Z41" s="8">
+        <v>490371.6849359374</v>
+      </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
@@ -3324,7 +3366,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3442,9 @@
       <c r="Y42" s="8">
         <v>1317076.5456572527</v>
       </c>
-      <c r="Z42" s="9"/>
+      <c r="Z42" s="8">
+        <v>1459327.1148065527</v>
+      </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
@@ -3472,7 +3516,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3592,9 @@
       <c r="Y43" s="8">
         <v>237735.03092911851</v>
       </c>
-      <c r="Z43" s="9"/>
+      <c r="Z43" s="8">
+        <v>243122.42579224531</v>
+      </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -3620,7 +3666,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -3696,7 +3742,9 @@
       <c r="Y44" s="8">
         <v>35220.877753180335</v>
       </c>
-      <c r="Z44" s="9"/>
+      <c r="Z44" s="8">
+        <v>41809.140670046741</v>
+      </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
@@ -3768,7 +3816,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3866,7 +3914,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
@@ -3942,7 +3990,9 @@
       <c r="Y46" s="11">
         <v>2672527.2044768566</v>
       </c>
-      <c r="Z46" s="9"/>
+      <c r="Z46" s="11">
+        <v>2893176.4768816135</v>
+      </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
@@ -4014,7 +4064,7 @@
       <c r="CQ46" s="9"/>
       <c r="CR46" s="9"/>
     </row>
-    <row r="47" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -4040,13 +4090,14 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
-    </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z47" s="12"/>
+    </row>
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -4144,7 +4195,7 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -4242,37 +4293,37 @@
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="14" t="s">
         <v>10</v>
@@ -4300,8 +4351,9 @@
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
-    </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z59" s="14"/>
+    </row>
+    <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="15" t="s">
         <v>37</v>
@@ -4372,12 +4424,15 @@
       <c r="X60" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y60" s="15"/>
-    </row>
-    <row r="61" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y60" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z60" s="15"/>
+    </row>
+    <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -4450,8 +4505,10 @@
       <c r="X62" s="16">
         <v>31.596306080620678</v>
       </c>
-      <c r="Y62" s="16"/>
-      <c r="Z62" s="9"/>
+      <c r="Y62" s="16">
+        <v>3.5414973229050304</v>
+      </c>
+      <c r="Z62" s="16"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
@@ -4518,7 +4575,7 @@
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>8</v>
       </c>
@@ -4591,8 +4648,10 @@
       <c r="X63" s="16">
         <v>-3.061850768977024</v>
       </c>
-      <c r="Y63" s="16"/>
-      <c r="Z63" s="9"/>
+      <c r="Y63" s="16">
+        <v>1.9572614170376283</v>
+      </c>
+      <c r="Z63" s="16"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
@@ -4659,7 +4718,7 @@
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -4732,8 +4791,10 @@
       <c r="X64" s="16">
         <v>114.19550132919522</v>
       </c>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="9"/>
+      <c r="Y64" s="16">
+        <v>5.7735706098648762</v>
+      </c>
+      <c r="Z64" s="16"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
@@ -4800,7 +4861,7 @@
       <c r="CL64" s="9"/>
       <c r="CM64" s="9"/>
     </row>
-    <row r="65" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -4873,8 +4934,10 @@
       <c r="X65" s="16">
         <v>19.79912665119312</v>
       </c>
-      <c r="Y65" s="16"/>
-      <c r="Z65" s="9"/>
+      <c r="Y65" s="16">
+        <v>6.3733571350857403</v>
+      </c>
+      <c r="Z65" s="16"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
@@ -4941,7 +5004,7 @@
       <c r="CL65" s="9"/>
       <c r="CM65" s="9"/>
     </row>
-    <row r="66" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -5014,8 +5077,10 @@
       <c r="X66" s="16">
         <v>11.97225303644683</v>
       </c>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="9"/>
+      <c r="Y66" s="16">
+        <v>10.575588169258921</v>
+      </c>
+      <c r="Z66" s="16"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
@@ -5082,7 +5147,7 @@
       <c r="CL66" s="9"/>
       <c r="CM66" s="9"/>
     </row>
-    <row r="67" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -5155,8 +5220,10 @@
       <c r="X67" s="16">
         <v>5.8350313951906116</v>
       </c>
-      <c r="Y67" s="16"/>
-      <c r="Z67" s="9"/>
+      <c r="Y67" s="16">
+        <v>13.375034917338539</v>
+      </c>
+      <c r="Z67" s="16"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
@@ -5223,7 +5290,7 @@
       <c r="CL67" s="9"/>
       <c r="CM67" s="9"/>
     </row>
-    <row r="68" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -5296,8 +5363,10 @@
       <c r="X68" s="16">
         <v>-3.1396387189475803</v>
       </c>
-      <c r="Y68" s="16"/>
-      <c r="Z68" s="9"/>
+      <c r="Y68" s="16">
+        <v>4.6900716147771675</v>
+      </c>
+      <c r="Z68" s="16"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
@@ -5364,7 +5433,7 @@
       <c r="CL68" s="9"/>
       <c r="CM68" s="9"/>
     </row>
-    <row r="69" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -5437,8 +5506,10 @@
       <c r="X69" s="16">
         <v>13.256056906024654</v>
       </c>
-      <c r="Y69" s="16"/>
-      <c r="Z69" s="9"/>
+      <c r="Y69" s="16">
+        <v>21.525045524025344</v>
+      </c>
+      <c r="Z69" s="16"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
@@ -5505,7 +5576,7 @@
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
     </row>
-    <row r="70" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -5598,7 +5669,7 @@
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>1</v>
       </c>
@@ -5671,8 +5742,10 @@
       <c r="X71" s="16">
         <v>17.94799296247578</v>
       </c>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="9"/>
+      <c r="Y71" s="16">
+        <v>10.187796560104957</v>
+      </c>
+      <c r="Z71" s="16"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
@@ -5739,7 +5812,7 @@
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
     </row>
-    <row r="72" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -5765,13 +5838,14 @@
       <c r="W72" s="12"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
-    </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="Z72" s="12"/>
+    </row>
+    <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -5864,7 +5938,7 @@
       <c r="CL74" s="9"/>
       <c r="CM74" s="9"/>
     </row>
-    <row r="75" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -5957,37 +6031,37 @@
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:91" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:91" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="14" t="s">
         <v>10</v>
@@ -6015,8 +6089,9 @@
       <c r="W84" s="14"/>
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
-    </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+      <c r="Z84" s="14"/>
+    </row>
+    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="15" t="s">
         <v>37</v>
@@ -6087,12 +6162,15 @@
       <c r="X85" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y85" s="15"/>
-    </row>
-    <row r="86" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y85" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z85" s="15"/>
+    </row>
+    <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -6165,8 +6243,10 @@
       <c r="X87" s="16">
         <v>24.41964084469393</v>
       </c>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="9"/>
+      <c r="Y87" s="16">
+        <v>2.9772000604102402</v>
+      </c>
+      <c r="Z87" s="16"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
@@ -6233,7 +6313,7 @@
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
     </row>
-    <row r="88" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>8</v>
       </c>
@@ -6306,8 +6386,10 @@
       <c r="X88" s="16">
         <v>-6.9573461954423976</v>
       </c>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="9"/>
+      <c r="Y88" s="16">
+        <v>-0.47880696783721532</v>
+      </c>
+      <c r="Z88" s="16"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
@@ -6374,7 +6456,7 @@
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
     </row>
-    <row r="89" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -6447,8 +6529,10 @@
       <c r="X89" s="16">
         <v>103.6135238715477</v>
       </c>
-      <c r="Y89" s="16"/>
-      <c r="Z89" s="9"/>
+      <c r="Y89" s="16">
+        <v>3.604437371130615</v>
+      </c>
+      <c r="Z89" s="16"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
@@ -6515,7 +6599,7 @@
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
     </row>
-    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -6588,8 +6672,10 @@
       <c r="X90" s="16">
         <v>13.690687675380701</v>
       </c>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="9"/>
+      <c r="Y90" s="16">
+        <v>4.0028129724454686</v>
+      </c>
+      <c r="Z90" s="16"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
@@ -6656,7 +6742,7 @@
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
     </row>
-    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -6729,8 +6815,10 @@
       <c r="X91" s="16">
         <v>11.429297761199877</v>
       </c>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="9"/>
+      <c r="Y91" s="16">
+        <v>10.006172530990497</v>
+      </c>
+      <c r="Z91" s="16"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
@@ -6797,7 +6885,7 @@
       <c r="CL91" s="9"/>
       <c r="CM91" s="9"/>
     </row>
-    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
@@ -6870,8 +6958,10 @@
       <c r="X92" s="16">
         <v>2.5490753960941248</v>
       </c>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="9"/>
+      <c r="Y92" s="16">
+        <v>10.800478500534965</v>
+      </c>
+      <c r="Z92" s="16"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
@@ -6938,7 +7028,7 @@
       <c r="CL92" s="9"/>
       <c r="CM92" s="9"/>
     </row>
-    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -7011,8 +7101,10 @@
       <c r="X93" s="16">
         <v>-6.8740369886401567</v>
       </c>
-      <c r="Y93" s="16"/>
-      <c r="Z93" s="9"/>
+      <c r="Y93" s="16">
+        <v>2.2661342091957266</v>
+      </c>
+      <c r="Z93" s="16"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
@@ -7079,7 +7171,7 @@
       <c r="CL93" s="9"/>
       <c r="CM93" s="9"/>
     </row>
-    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -7152,8 +7244,10 @@
       <c r="X94" s="16">
         <v>8.3074152894029254</v>
       </c>
-      <c r="Y94" s="16"/>
-      <c r="Z94" s="9"/>
+      <c r="Y94" s="16">
+        <v>18.705561408876321</v>
+      </c>
+      <c r="Z94" s="16"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
@@ -7220,7 +7314,7 @@
       <c r="CL94" s="9"/>
       <c r="CM94" s="9"/>
     </row>
-    <row r="95" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -7313,7 +7407,7 @@
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
     </row>
-    <row r="96" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
         <v>1</v>
       </c>
@@ -7386,8 +7480,10 @@
       <c r="X96" s="16">
         <v>13.817253891571909</v>
       </c>
-      <c r="Y96" s="16"/>
-      <c r="Z96" s="9"/>
+      <c r="Y96" s="16">
+        <v>8.2562030438881493</v>
+      </c>
+      <c r="Z96" s="16"/>
       <c r="AA96" s="9"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
@@ -7454,7 +7550,7 @@
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
     </row>
-    <row r="97" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -7480,13 +7576,14 @@
       <c r="W97" s="12"/>
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
-    </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z97" s="12"/>
+    </row>
+    <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -7579,7 +7676,7 @@
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
     </row>
-    <row r="100" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -7673,32 +7770,32 @@
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="14" t="s">
         <v>10</v>
@@ -7726,8 +7823,9 @@
       <c r="W108" s="14"/>
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
-    </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z108" s="14"/>
+    </row>
+    <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="15">
         <v>2000</v>
@@ -7801,11 +7899,14 @@
       <c r="Y109" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="110" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z109" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -7881,7 +7982,9 @@
       <c r="Y111" s="16">
         <v>135.81243175030912</v>
       </c>
-      <c r="Z111" s="9"/>
+      <c r="Z111" s="16">
+        <v>136.5566604087355</v>
+      </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
@@ -7953,7 +8056,7 @@
       <c r="CQ111" s="9"/>
       <c r="CR111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -8029,7 +8132,9 @@
       <c r="Y112" s="16">
         <v>119.08047930708659</v>
       </c>
-      <c r="Z112" s="9"/>
+      <c r="Z112" s="16">
+        <v>121.9953176652038</v>
+      </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
@@ -8101,7 +8206,7 @@
       <c r="CQ112" s="9"/>
       <c r="CR112" s="9"/>
     </row>
-    <row r="113" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -8177,7 +8282,9 @@
       <c r="Y113" s="16">
         <v>123.04195832523874</v>
       </c>
-      <c r="Z113" s="9"/>
+      <c r="Z113" s="16">
+        <v>125.61804877401137</v>
+      </c>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
@@ -8249,7 +8356,7 @@
       <c r="CQ113" s="9"/>
       <c r="CR113" s="9"/>
     </row>
-    <row r="114" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -8325,7 +8432,9 @@
       <c r="Y114" s="16">
         <v>117.77822769962354</v>
       </c>
-      <c r="Z114" s="9"/>
+      <c r="Z114" s="16">
+        <v>120.4627559559259</v>
+      </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
@@ -8397,7 +8506,7 @@
       <c r="CQ114" s="9"/>
       <c r="CR114" s="9"/>
     </row>
-    <row r="115" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -8473,7 +8582,9 @@
       <c r="Y115" s="16">
         <v>103.21429736762188</v>
       </c>
-      <c r="Z115" s="9"/>
+      <c r="Z115" s="16">
+        <v>103.74855679745028</v>
+      </c>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
@@ -8545,7 +8656,7 @@
       <c r="CQ115" s="9"/>
       <c r="CR115" s="9"/>
     </row>
-    <row r="116" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>4</v>
       </c>
@@ -8621,7 +8732,9 @@
       <c r="Y116" s="16">
         <v>119.2657725428716</v>
       </c>
-      <c r="Z116" s="9"/>
+      <c r="Z116" s="16">
+        <v>122.03702826451368</v>
+      </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
@@ -8693,7 +8806,7 @@
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
     </row>
-    <row r="117" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -8769,7 +8882,9 @@
       <c r="Y117" s="16">
         <v>120.17589586404436</v>
       </c>
-      <c r="Z117" s="9"/>
+      <c r="Z117" s="16">
+        <v>123.02433490485367</v>
+      </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
@@ -8841,7 +8956,7 @@
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
     </row>
-    <row r="118" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2</v>
       </c>
@@ -8917,7 +9032,9 @@
       <c r="Y118" s="16">
         <v>117.95223383753752</v>
       </c>
-      <c r="Z118" s="9"/>
+      <c r="Z118" s="16">
+        <v>120.75382498208191</v>
+      </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
@@ -8989,7 +9106,7 @@
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
     </row>
-    <row r="119" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -9087,7 +9204,7 @@
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>1</v>
       </c>
@@ -9163,7 +9280,9 @@
       <c r="Y120" s="16">
         <v>118.35532441025951</v>
       </c>
-      <c r="Z120" s="9"/>
+      <c r="Z120" s="16">
+        <v>120.46711450461478</v>
+      </c>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
@@ -9235,7 +9354,7 @@
       <c r="CQ120" s="9"/>
       <c r="CR120" s="9"/>
     </row>
-    <row r="121" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -9261,43 +9380,44 @@
       <c r="W121" s="12"/>
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
-    </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z121" s="12"/>
+    </row>
+    <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="14" t="s">
         <v>10</v>
@@ -9325,8 +9445,9 @@
       <c r="W133" s="14"/>
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
-    </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z133" s="14"/>
+    </row>
+    <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="15">
         <v>2000</v>
@@ -9400,11 +9521,14 @@
       <c r="Y134" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="135" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z134" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
     </row>
-    <row r="136" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>9</v>
       </c>
@@ -9480,7 +9604,9 @@
       <c r="Y136" s="17">
         <v>7.5600718921224992</v>
       </c>
-      <c r="Z136" s="9"/>
+      <c r="Z136" s="17">
+        <v>7.1040640435366358</v>
+      </c>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
@@ -9552,7 +9678,7 @@
       <c r="CQ136" s="9"/>
       <c r="CR136" s="9"/>
     </row>
-    <row r="137" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -9628,7 +9754,9 @@
       <c r="Y137" s="17">
         <v>8.9077939160690026E-2</v>
       </c>
-      <c r="Z137" s="9"/>
+      <c r="Z137" s="17">
+        <v>8.2424215866258324E-2</v>
+      </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
@@ -9700,7 +9828,7 @@
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
     </row>
-    <row r="138" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -9776,7 +9904,9 @@
       <c r="Y138" s="17">
         <v>17.149733693187525</v>
       </c>
-      <c r="Z138" s="9"/>
+      <c r="Z138" s="17">
+        <v>16.462699358429038</v>
+      </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
@@ -9848,7 +9978,7 @@
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
     </row>
-    <row r="139" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -9924,7 +10054,9 @@
       <c r="Y139" s="17">
         <v>0.64838432050847739</v>
       </c>
-      <c r="Z139" s="9"/>
+      <c r="Z139" s="17">
+        <v>0.62593879757470361</v>
+      </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
@@ -9996,7 +10128,7 @@
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
     </row>
-    <row r="140" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -10072,7 +10204,9 @@
       <c r="Y140" s="17">
         <v>14.545821584225784</v>
       </c>
-      <c r="Z140" s="9"/>
+      <c r="Z140" s="17">
+        <v>14.597013710166307</v>
+      </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
@@ -10144,7 +10278,7 @@
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
     </row>
-    <row r="141" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>4</v>
       </c>
@@ -10220,7 +10354,9 @@
       <c r="Y141" s="17">
         <v>49.661165376772423</v>
       </c>
-      <c r="Z141" s="9"/>
+      <c r="Z141" s="17">
+        <v>51.097639978271793</v>
+      </c>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
@@ -10292,7 +10428,7 @@
       <c r="CQ141" s="9"/>
       <c r="CR141" s="9"/>
     </row>
-    <row r="142" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -10368,7 +10504,9 @@
       <c r="Y142" s="17">
         <v>9.0323470135797113</v>
       </c>
-      <c r="Z142" s="9"/>
+      <c r="Z142" s="17">
+        <v>8.5816858601521897</v>
+      </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
@@ -10440,7 +10578,7 @@
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
     </row>
-    <row r="143" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -10516,7 +10654,9 @@
       <c r="Y143" s="17">
         <v>1.3133981804428767</v>
       </c>
-      <c r="Z143" s="9"/>
+      <c r="Z143" s="17">
+        <v>1.4485340360030576</v>
+      </c>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
@@ -10588,7 +10728,7 @@
       <c r="CQ143" s="9"/>
       <c r="CR143" s="9"/>
     </row>
-    <row r="144" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -10686,7 +10826,7 @@
       <c r="CQ144" s="9"/>
       <c r="CR144" s="9"/>
     </row>
-    <row r="145" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>1</v>
       </c>
@@ -10762,7 +10902,9 @@
       <c r="Y145" s="16">
         <v>100</v>
       </c>
-      <c r="Z145" s="9"/>
+      <c r="Z145" s="16">
+        <v>100</v>
+      </c>
       <c r="AA145" s="9"/>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
@@ -10834,7 +10976,7 @@
       <c r="CQ145" s="9"/>
       <c r="CR145" s="9"/>
     </row>
-    <row r="146" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -10860,13 +11002,14 @@
       <c r="W146" s="12"/>
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
-    </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z146" s="12"/>
+    </row>
+    <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -10964,7 +11107,7 @@
       <c r="CQ148" s="9"/>
       <c r="CR148" s="9"/>
     </row>
-    <row r="149" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -11062,37 +11205,37 @@
       <c r="CQ149" s="9"/>
       <c r="CR149" s="9"/>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="14" t="s">
         <v>10</v>
@@ -11120,8 +11263,9 @@
       <c r="W158" s="14"/>
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
-    </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z158" s="14"/>
+    </row>
+    <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="15">
         <v>2000</v>
@@ -11195,11 +11339,14 @@
       <c r="Y159" s="15">
         <v>2023</v>
       </c>
-    </row>
-    <row r="160" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z159" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
     </row>
-    <row r="161" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -11275,7 +11422,9 @@
       <c r="Y161" s="17">
         <v>6.5883126443246702</v>
       </c>
-      <c r="Z161" s="9"/>
+      <c r="Z161" s="17">
+        <v>6.2670403187898902</v>
+      </c>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
@@ -11347,7 +11496,7 @@
       <c r="CQ161" s="9"/>
       <c r="CR161" s="9"/>
     </row>
-    <row r="162" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -11423,7 +11572,9 @@
       <c r="Y162" s="17">
         <v>8.8535488339552007E-2</v>
       </c>
-      <c r="Z162" s="9"/>
+      <c r="Z162" s="17">
+        <v>8.139170945858154E-2</v>
+      </c>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
@@ -11495,7 +11646,7 @@
       <c r="CQ162" s="9"/>
       <c r="CR162" s="9"/>
     </row>
-    <row r="163" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -11571,7 +11722,9 @@
       <c r="Y163" s="17">
         <v>16.496505114470501</v>
       </c>
-      <c r="Z163" s="9"/>
+      <c r="Z163" s="17">
+        <v>15.787650803546144</v>
+      </c>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
@@ -11643,7 +11796,7 @@
       <c r="CQ163" s="9"/>
       <c r="CR163" s="9"/>
     </row>
-    <row r="164" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -11719,7 +11872,9 @@
       <c r="Y164" s="17">
         <v>0.65156131226579672</v>
       </c>
-      <c r="Z164" s="9"/>
+      <c r="Z164" s="17">
+        <v>0.62596144511172735</v>
+      </c>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
@@ -11791,7 +11946,7 @@
       <c r="CQ164" s="9"/>
       <c r="CR164" s="9"/>
     </row>
-    <row r="165" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -11867,7 +12022,9 @@
       <c r="Y165" s="17">
         <v>16.679621683447632</v>
       </c>
-      <c r="Z165" s="9"/>
+      <c r="Z165" s="17">
+        <v>16.949248995155681</v>
+      </c>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
@@ -11939,7 +12096,7 @@
       <c r="CQ165" s="9"/>
       <c r="CR165" s="9"/>
     </row>
-    <row r="166" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>4</v>
       </c>
@@ -12015,7 +12172,9 @@
       <c r="Y166" s="17">
         <v>49.28206318914043</v>
       </c>
-      <c r="Z166" s="9"/>
+      <c r="Z166" s="17">
+        <v>50.440307615782785</v>
+      </c>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
@@ -12087,7 +12246,7 @@
       <c r="CQ166" s="9"/>
       <c r="CR166" s="9"/>
     </row>
-    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>3</v>
       </c>
@@ -12163,7 +12322,9 @@
       <c r="Y167" s="17">
         <v>8.8955139738476419</v>
       </c>
-      <c r="Z167" s="9"/>
+      <c r="Z167" s="17">
+        <v>8.4033043865437769</v>
+      </c>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
@@ -12235,7 +12396,7 @@
       <c r="CQ167" s="9"/>
       <c r="CR167" s="9"/>
     </row>
-    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -12311,7 +12472,9 @@
       <c r="Y168" s="17">
         <v>1.317886594163773</v>
       </c>
-      <c r="Z168" s="9"/>
+      <c r="Z168" s="17">
+        <v>1.4450947256114284</v>
+      </c>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
@@ -12383,7 +12546,7 @@
       <c r="CQ168" s="9"/>
       <c r="CR168" s="9"/>
     </row>
-    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -12481,7 +12644,7 @@
       <c r="CQ169" s="9"/>
       <c r="CR169" s="9"/>
     </row>
-    <row r="170" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>1</v>
       </c>
@@ -12557,7 +12720,9 @@
       <c r="Y170" s="16">
         <v>100</v>
       </c>
-      <c r="Z170" s="9"/>
+      <c r="Z170" s="16">
+        <v>100</v>
+      </c>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
@@ -12629,7 +12794,7 @@
       <c r="CQ170" s="9"/>
       <c r="CR170" s="9"/>
     </row>
-    <row r="171" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -12655,13 +12820,14 @@
       <c r="W171" s="12"/>
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
-    </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="Z171" s="12"/>
+    </row>
+    <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -12753,7 +12919,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
@@ -12850,9 +13016,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="50" max="24" man="1"/>
-    <brk id="100" max="24" man="1"/>
-    <brk id="124" max="24" man="1"/>
+    <brk id="50" max="25" man="1"/>
+    <brk id="100" max="25" man="1"/>
+    <brk id="124" max="25" man="1"/>
     <brk id="172" max="81" man="1"/>
   </rowBreaks>
 </worksheet>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254FD411-3122-4386-9674-5A84538ED14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C3743-5693-496F-8ABE-D4D198FF038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -872,10 +872,10 @@
         <v>181715.57871396336</v>
       </c>
       <c r="Y12" s="8">
-        <v>239130.98916059843</v>
+        <v>240419.65902523042</v>
       </c>
       <c r="Z12" s="8">
-        <v>247599.80673995736</v>
+        <v>247324.09970968968</v>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1022,10 +1022,10 @@
         <v>2906.6006882608326</v>
       </c>
       <c r="Y13" s="8">
-        <v>2817.6049127362267</v>
+        <v>2814.1388854800189</v>
       </c>
       <c r="Z13" s="8">
-        <v>2872.7528065777697</v>
+        <v>2866.7143596240471</v>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1325,7 +1325,7 @@
         <v>20508.903371801738</v>
       </c>
       <c r="Z15" s="8">
-        <v>21816.009028176304</v>
+        <v>22117.682618569568</v>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1475,7 +1475,7 @@
         <v>460095.71776875551</v>
       </c>
       <c r="Z16" s="8">
-        <v>508753.54606437497</v>
+        <v>517031.94724435621</v>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1622,10 +1622,10 @@
         <v>1484216.9898297694</v>
       </c>
       <c r="Y17" s="8">
-        <v>1570821.5171590894</v>
+        <v>1578363.7124905353</v>
       </c>
       <c r="Z17" s="8">
-        <v>1780919.4435681847</v>
+        <v>1764805.7488743786</v>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1772,10 +1772,10 @@
         <v>294960.91014231951</v>
       </c>
       <c r="Y18" s="8">
-        <v>285700.20320173108</v>
+        <v>278143.36940471595</v>
       </c>
       <c r="Z18" s="8">
-        <v>299099.7473354562</v>
+        <v>293714.41199392331</v>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1922,10 +1922,10 @@
         <v>36681.315968412971</v>
       </c>
       <c r="Y19" s="8">
-        <v>41543.8120870645</v>
+        <v>42402.252148115083</v>
       </c>
       <c r="Z19" s="8">
-        <v>50486.136551220676</v>
+        <v>53954.788212298241</v>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2170,10 +2170,10 @@
         <v>2681756.7330860235</v>
       </c>
       <c r="Y21" s="11">
-        <v>3163078.2428110233</v>
+        <v>3165207.24824388</v>
       </c>
       <c r="Z21" s="11">
-        <v>3485326.2192255529</v>
+        <v>3475594.1701444439</v>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2690,10 +2690,10 @@
         <v>141516.60183246247</v>
       </c>
       <c r="Y37" s="8">
-        <v>176074.44773556537</v>
+        <v>177016.70084181798</v>
       </c>
       <c r="Z37" s="8">
-        <v>181316.53629991561</v>
+        <v>181081.73306587862</v>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -2840,10 +2840,10 @@
         <v>2543.064836113972</v>
       </c>
       <c r="Y38" s="8">
-        <v>2366.1350114909628</v>
+        <v>2363.1069559154143</v>
       </c>
       <c r="Z38" s="8">
-        <v>2354.8057921875084</v>
+        <v>2349.5719499920451</v>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -3143,7 +3143,7 @@
         <v>17413.153324149818</v>
       </c>
       <c r="Z40" s="8">
-        <v>18110.169284320706</v>
+        <v>18359.521133176208</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -3293,7 +3293,7 @@
         <v>445767.4270939586</v>
       </c>
       <c r="Z41" s="8">
-        <v>490371.6849359374</v>
+        <v>498325.58526167629</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -3440,10 +3440,10 @@
         <v>1284337.8066258188</v>
       </c>
       <c r="Y42" s="8">
-        <v>1317076.5456572527</v>
+        <v>1323212.7078256726</v>
       </c>
       <c r="Z42" s="8">
-        <v>1459327.1148065527</v>
+        <v>1445891.5615377445</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -3590,10 +3590,10 @@
         <v>255283.29935242518</v>
       </c>
       <c r="Y43" s="8">
-        <v>237735.03092911851</v>
+        <v>231428.95397107856</v>
       </c>
       <c r="Z43" s="8">
-        <v>243122.42579224531</v>
+        <v>238717.45349654174</v>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -3740,10 +3740,10 @@
         <v>32519.359509289694</v>
       </c>
       <c r="Y44" s="8">
-        <v>35220.877753180335</v>
+        <v>35942.886978205832</v>
       </c>
       <c r="Z44" s="8">
-        <v>41809.140670046741</v>
+        <v>44687.254966403307</v>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -3988,10 +3988,10 @@
         <v>2348086.1759525859</v>
       </c>
       <c r="Y46" s="11">
-        <v>2672527.2044768566</v>
+        <v>2674018.5239629387</v>
       </c>
       <c r="Z46" s="11">
-        <v>2893176.4768816135</v>
+        <v>2886177.2807118208</v>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
@@ -4503,10 +4503,10 @@
         <v>88.226486681769273</v>
       </c>
       <c r="X62" s="16">
-        <v>31.596306080620678</v>
+        <v>32.305474702129175</v>
       </c>
       <c r="Y62" s="16">
-        <v>3.5414973229050304</v>
+        <v>2.8718286651154017</v>
       </c>
       <c r="Z62" s="16"/>
       <c r="AA62" s="9"/>
@@ -4646,10 +4646,10 @@
         <v>17.069065723973935</v>
       </c>
       <c r="X63" s="16">
-        <v>-3.061850768977024</v>
+        <v>-3.181097532738093</v>
       </c>
       <c r="Y63" s="16">
-        <v>1.9572614170376283</v>
+        <v>1.8682615280752231</v>
       </c>
       <c r="Z63" s="16"/>
       <c r="AA63" s="9"/>
@@ -4935,7 +4935,7 @@
         <v>19.79912665119312</v>
       </c>
       <c r="Y65" s="16">
-        <v>6.3733571350857403</v>
+        <v>7.8442967798062853</v>
       </c>
       <c r="Z65" s="16"/>
       <c r="AA65" s="9"/>
@@ -5078,7 +5078,7 @@
         <v>11.97225303644683</v>
       </c>
       <c r="Y66" s="16">
-        <v>10.575588169258921</v>
+        <v>12.374866202127293</v>
       </c>
       <c r="Z66" s="16"/>
       <c r="AA66" s="9"/>
@@ -5218,10 +5218,10 @@
         <v>17.933132344047721</v>
       </c>
       <c r="X67" s="16">
-        <v>5.8350313951906116</v>
+        <v>6.343191279030151</v>
       </c>
       <c r="Y67" s="16">
-        <v>13.375034917338539</v>
+        <v>11.812362062585208</v>
       </c>
       <c r="Z67" s="16"/>
       <c r="AA67" s="9"/>
@@ -5361,10 +5361,10 @@
         <v>14.860261995192587</v>
       </c>
       <c r="X68" s="16">
-        <v>-3.1396387189475803</v>
+        <v>-5.7016167767752819</v>
       </c>
       <c r="Y68" s="16">
-        <v>4.6900716147771675</v>
+        <v>5.5982073642570072</v>
       </c>
       <c r="Z68" s="16"/>
       <c r="AA68" s="9"/>
@@ -5504,10 +5504,10 @@
         <v>40.101554088011625</v>
       </c>
       <c r="X69" s="16">
-        <v>13.256056906024654</v>
+        <v>15.596322074781966</v>
       </c>
       <c r="Y69" s="16">
-        <v>21.525045524025344</v>
+        <v>27.245100151352929</v>
       </c>
       <c r="Z69" s="16"/>
       <c r="AA69" s="9"/>
@@ -5740,10 +5740,10 @@
         <v>28.888673592716486</v>
       </c>
       <c r="X71" s="16">
-        <v>17.94799296247578</v>
+        <v>18.027381424769544</v>
       </c>
       <c r="Y71" s="16">
-        <v>10.187796560104957</v>
+        <v>9.8062116492616127</v>
       </c>
       <c r="Z71" s="16"/>
       <c r="AA71" s="9"/>
@@ -6241,10 +6241,10 @@
         <v>66.891065866243991</v>
       </c>
       <c r="X87" s="16">
-        <v>24.41964084469393</v>
+        <v>25.085465980438855</v>
       </c>
       <c r="Y87" s="16">
-        <v>2.9772000604102402</v>
+        <v>2.2964116971613748</v>
       </c>
       <c r="Z87" s="16"/>
       <c r="AA87" s="9"/>
@@ -6384,10 +6384,10 @@
         <v>10.614169729837755</v>
       </c>
       <c r="X88" s="16">
-        <v>-6.9573461954423976</v>
+        <v>-7.0764173072971772</v>
       </c>
       <c r="Y88" s="16">
-        <v>-0.47880696783721532</v>
+        <v>-0.57276315358845409</v>
       </c>
       <c r="Z88" s="16"/>
       <c r="AA88" s="9"/>
@@ -6673,7 +6673,7 @@
         <v>13.690687675380701</v>
       </c>
       <c r="Y90" s="16">
-        <v>4.0028129724454686</v>
+        <v>5.4347870911691558</v>
       </c>
       <c r="Z90" s="16"/>
       <c r="AA90" s="9"/>
@@ -6816,7 +6816,7 @@
         <v>11.429297761199877</v>
       </c>
       <c r="Y91" s="16">
-        <v>10.006172530990497</v>
+        <v>11.790488710750836</v>
       </c>
       <c r="Z91" s="16"/>
       <c r="AA91" s="9"/>
@@ -6956,10 +6956,10 @@
         <v>9.9963594829066693</v>
       </c>
       <c r="X92" s="16">
-        <v>2.5490753960941248</v>
+        <v>3.0268439501897717</v>
       </c>
       <c r="Y92" s="16">
-        <v>10.800478500534965</v>
+        <v>9.2712874495937996</v>
       </c>
       <c r="Z92" s="16"/>
       <c r="AA92" s="9"/>
@@ -7099,10 +7099,10 @@
         <v>7.0855469742929955</v>
       </c>
       <c r="X93" s="16">
-        <v>-6.8740369886401567</v>
+        <v>-9.3442639772588763</v>
       </c>
       <c r="Y93" s="16">
-        <v>2.2661342091957266</v>
+        <v>3.1493464410568208</v>
       </c>
       <c r="Z93" s="16"/>
       <c r="AA93" s="9"/>
@@ -7242,10 +7242,10 @@
         <v>34.021313721387287</v>
       </c>
       <c r="X94" s="16">
-        <v>8.3074152894029254</v>
+        <v>10.52765958670912</v>
       </c>
       <c r="Y94" s="16">
-        <v>18.705561408876321</v>
+        <v>24.328507594561529</v>
       </c>
       <c r="Z94" s="16"/>
       <c r="AA94" s="9"/>
@@ -7478,10 +7478,10 @@
         <v>20.577470259394403</v>
       </c>
       <c r="X96" s="16">
-        <v>13.817253891571909</v>
+        <v>13.880766019080482</v>
       </c>
       <c r="Y96" s="16">
-        <v>8.2562030438881493</v>
+        <v>7.9340795453600492</v>
       </c>
       <c r="Z96" s="16"/>
       <c r="AA96" s="9"/>
@@ -7980,10 +7980,10 @@
         <v>128.40583815677778</v>
       </c>
       <c r="Y111" s="16">
-        <v>135.81243175030912</v>
+        <v>135.81750076794691</v>
       </c>
       <c r="Z111" s="16">
-        <v>136.5566604087355</v>
+        <v>136.58147374794103</v>
       </c>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -8130,10 +8130,10 @@
         <v>114.29518614642855</v>
       </c>
       <c r="Y112" s="16">
-        <v>119.08047930708659</v>
+        <v>119.08639507135152</v>
       </c>
       <c r="Z112" s="16">
-        <v>121.9953176652038</v>
+        <v>122.01006909508571</v>
       </c>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -8433,7 +8433,7 @@
         <v>117.77822769962354</v>
       </c>
       <c r="Z114" s="16">
-        <v>120.4627559559259</v>
+        <v>120.46982303150735</v>
       </c>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -8583,7 +8583,7 @@
         <v>103.21429736762188</v>
       </c>
       <c r="Z115" s="16">
-        <v>103.74855679745028</v>
+        <v>103.75384337789058</v>
       </c>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -8730,10 +8730,10 @@
         <v>115.56282016871155</v>
       </c>
       <c r="Y116" s="16">
-        <v>119.2657725428716</v>
+        <v>119.28269001316738</v>
       </c>
       <c r="Z116" s="16">
-        <v>122.03702826451368</v>
+        <v>122.05657711961888</v>
       </c>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -8880,10 +8880,10 @@
         <v>115.54257990653684</v>
       </c>
       <c r="Y117" s="16">
-        <v>120.17589586404436</v>
+        <v>120.18520787138642</v>
       </c>
       <c r="Z117" s="16">
-        <v>123.02433490485367</v>
+        <v>123.03851590733323</v>
       </c>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -9030,10 +9030,10 @@
         <v>112.79839616132152</v>
       </c>
       <c r="Y118" s="16">
-        <v>117.95223383753752</v>
+        <v>117.97119183505187</v>
       </c>
       <c r="Z118" s="16">
-        <v>120.75382498208191</v>
+        <v>120.73864965047068</v>
       </c>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -9278,10 +9278,10 @@
         <v>114.21031990012342</v>
       </c>
       <c r="Y120" s="16">
-        <v>118.35532441025951</v>
+        <v>118.36893498976184</v>
       </c>
       <c r="Z120" s="16">
-        <v>120.46711450461478</v>
+        <v>120.42206115929423</v>
       </c>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -9602,10 +9602,10 @@
         <v>6.7759903973413245</v>
       </c>
       <c r="Y136" s="17">
-        <v>7.5600718921224992</v>
+        <v>7.5957003813453303</v>
       </c>
       <c r="Z136" s="17">
-        <v>7.1040640435366358</v>
+        <v>7.116023551720108</v>
       </c>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -9752,10 +9752,10 @@
         <v>0.10838420399586621</v>
       </c>
       <c r="Y137" s="17">
-        <v>8.9077939160690026E-2</v>
+        <v>8.8908518930043492E-2</v>
       </c>
       <c r="Z137" s="17">
-        <v>8.2424215866258324E-2</v>
+        <v>8.2481274259500442E-2</v>
       </c>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -9902,10 +9902,10 @@
         <v>9.4436001521975363</v>
       </c>
       <c r="Y138" s="17">
-        <v>17.149733693187525</v>
+        <v>17.138198310717673</v>
       </c>
       <c r="Z138" s="17">
-        <v>16.462699358429038</v>
+        <v>16.508796742162744</v>
       </c>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -10052,10 +10052,10 @@
         <v>0.63836549906561335</v>
       </c>
       <c r="Y139" s="17">
-        <v>0.64838432050847739</v>
+        <v>0.64794819938506354</v>
       </c>
       <c r="Z139" s="17">
-        <v>0.62593879757470361</v>
+        <v>0.63637126591366022</v>
       </c>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -10202,10 +10202,10 @@
         <v>15.322103604463949</v>
       </c>
       <c r="Y140" s="17">
-        <v>14.545821584225784</v>
+        <v>14.536037664643469</v>
       </c>
       <c r="Z140" s="17">
-        <v>14.597013710166307</v>
+        <v>14.876073613130403</v>
       </c>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -10352,10 +10352,10 @@
         <v>55.344952490221253</v>
       </c>
       <c r="Y141" s="17">
-        <v>49.661165376772423</v>
+        <v>49.866046318649211</v>
       </c>
       <c r="Z141" s="17">
-        <v>51.097639978271793</v>
+        <v>50.777094864359093</v>
       </c>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -10502,10 +10502,10 @@
         <v>10.998794428415366</v>
       </c>
       <c r="Y142" s="17">
-        <v>9.0323470135797113</v>
+        <v>8.7875247208231126</v>
       </c>
       <c r="Z142" s="17">
-        <v>8.5816858601521897</v>
+        <v>8.4507683468037555</v>
       </c>
       <c r="AA142" s="9"/>
       <c r="AB142" s="9"/>
@@ -10652,10 +10652,10 @@
         <v>1.3678092242991056</v>
       </c>
       <c r="Y143" s="17">
-        <v>1.3133981804428767</v>
+        <v>1.3396358855060975</v>
       </c>
       <c r="Z143" s="17">
-        <v>1.4485340360030576</v>
+        <v>1.5523903416507314</v>
       </c>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -11420,10 +11420,10 @@
         <v>6.0268913160757895</v>
       </c>
       <c r="Y161" s="17">
-        <v>6.5883126443246702</v>
+        <v>6.6198756386876614</v>
       </c>
       <c r="Z161" s="17">
-        <v>6.2670403187898902</v>
+        <v>6.2741029207054888</v>
       </c>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -11570,10 +11570,10 @@
         <v>0.10830372676089224</v>
       </c>
       <c r="Y162" s="17">
-        <v>8.8535488339552007E-2</v>
+        <v>8.8372871569088893E-2</v>
       </c>
       <c r="Z162" s="17">
-        <v>8.139170945858154E-2</v>
+        <v>8.1407748778777989E-2</v>
       </c>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -11720,10 +11720,10 @@
         <v>9.221327126197199</v>
       </c>
       <c r="Y163" s="17">
-        <v>16.496505114470501</v>
+        <v>16.487304894162005</v>
       </c>
       <c r="Z163" s="17">
-        <v>15.787650803546144</v>
+        <v>15.82593703972875</v>
       </c>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -11870,10 +11870,10 @@
         <v>0.65228666322985729</v>
       </c>
       <c r="Y164" s="17">
-        <v>0.65156131226579672</v>
+        <v>0.65119793180576946</v>
       </c>
       <c r="Z164" s="17">
-        <v>0.62596144511172735</v>
+        <v>0.63611896801599732</v>
       </c>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -12020,10 +12020,10 @@
         <v>17.037069909825526</v>
       </c>
       <c r="Y165" s="17">
-        <v>16.679621683447632</v>
+        <v>16.67031933770317</v>
       </c>
       <c r="Z165" s="17">
-        <v>16.949248995155681</v>
+        <v>17.265938187233381</v>
       </c>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -12170,10 +12170,10 @@
         <v>54.697217665138751</v>
       </c>
       <c r="Y166" s="17">
-        <v>49.28206318914043</v>
+        <v>49.484051661117512</v>
       </c>
       <c r="Z166" s="17">
-        <v>50.440307615782785</v>
+        <v>50.09711535048681</v>
       </c>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -12320,10 +12320,10 @@
         <v>10.871973182537063</v>
       </c>
       <c r="Y167" s="17">
-        <v>8.8955139738476419</v>
+        <v>8.6547251597979624</v>
       </c>
       <c r="Z167" s="17">
-        <v>8.4033043865437769</v>
+        <v>8.2710599619738741</v>
       </c>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -12470,10 +12470,10 @@
         <v>1.3849304102349242</v>
       </c>
       <c r="Y168" s="17">
-        <v>1.317886594163773</v>
+        <v>1.3441525051568415</v>
       </c>
       <c r="Z168" s="17">
-        <v>1.4450947256114284</v>
+        <v>1.5483198230769124</v>
       </c>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>

--- a/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-05EOS_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4C3743-5693-496F-8ABE-D4D198FF038B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891D0704-504B-46E3-92F9-AF1931F1A8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOS" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOS!$A$37:$A$48</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$Z$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOS!$A$1:$AA$172</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -213,13 +213,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -644,17 +647,17 @@
   <dimension ref="A1:CR174"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.77734375" style="1" customWidth="1"/>
-    <col min="2" max="26" width="11.109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="11.109375" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -669,7 +672,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -679,7 +682,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -716,6 +719,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
@@ -794,6 +798,9 @@
       <c r="Z10" s="6">
         <v>2024</v>
       </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
+      </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -877,7 +884,9 @@
       <c r="Z12" s="8">
         <v>247324.09970968968</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>266060.77765002818</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1027,7 +1036,9 @@
       <c r="Z13" s="8">
         <v>2866.7143596240471</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="8">
+        <v>3228.8197748633361</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1177,7 +1188,9 @@
       <c r="Z14" s="8">
         <v>573778.77713160415</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="8">
+        <v>531680.54183064366</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1327,7 +1340,9 @@
       <c r="Z15" s="8">
         <v>22117.682618569568</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="8">
+        <v>24088.649891439745</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -1477,7 +1492,9 @@
       <c r="Z16" s="8">
         <v>517031.94724435621</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="8">
+        <v>565251.39502377831</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -1627,7 +1644,9 @@
       <c r="Z17" s="8">
         <v>1764805.7488743786</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="8">
+        <v>1838711.4210373638</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -1777,7 +1796,9 @@
       <c r="Z18" s="8">
         <v>293714.41199392331</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="8">
+        <v>292996.10746069229</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -1927,7 +1948,9 @@
       <c r="Z19" s="8">
         <v>53954.788212298241</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="8">
+        <v>63097.262865116136</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2175,7 +2198,9 @@
       <c r="Z21" s="11">
         <v>3475594.1701444439</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="11">
+        <v>3585114.9755339255</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2273,6 +2298,7 @@
       <c r="X22" s="12"/>
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
     </row>
     <row r="23" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
@@ -2487,7 +2513,7 @@
     </row>
     <row r="28" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:96" x14ac:dyDescent="0.2">
@@ -2497,7 +2523,7 @@
     </row>
     <row r="31" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:96" x14ac:dyDescent="0.2">
@@ -2534,6 +2560,7 @@
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
     </row>
     <row r="35" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
@@ -2612,6 +2639,9 @@
       <c r="Z35" s="15">
         <v>2024</v>
       </c>
+      <c r="AA35" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="36" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
@@ -2695,7 +2725,9 @@
       <c r="Z37" s="8">
         <v>181081.73306587862</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="8">
+        <v>192331.07723903703</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -2845,7 +2877,9 @@
       <c r="Z38" s="8">
         <v>2349.5719499920451</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="8">
+        <v>2597.4035185494022</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -2995,7 +3029,9 @@
       <c r="Z39" s="8">
         <v>456764.59930040804</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="8">
+        <v>416214.94787394931</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
@@ -3145,7 +3181,9 @@
       <c r="Z40" s="8">
         <v>18359.521133176208</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="8">
+        <v>19545.188757377939</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -3295,7 +3333,9 @@
       <c r="Z41" s="8">
         <v>498325.58526167629</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="8">
+        <v>536940.41003908112</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -3445,7 +3485,9 @@
       <c r="Z42" s="8">
         <v>1445891.5615377445</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="8">
+        <v>1478802.9735690069</v>
+      </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
@@ -3595,7 +3637,9 @@
       <c r="Z43" s="8">
         <v>238717.45349654174</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="8">
+        <v>233742.95091655428</v>
+      </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
@@ -3745,7 +3789,9 @@
       <c r="Z44" s="8">
         <v>44687.254966403307</v>
       </c>
-      <c r="AA44" s="9"/>
+      <c r="AA44" s="8">
+        <v>51337.77118080591</v>
+      </c>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
@@ -3993,7 +4039,9 @@
       <c r="Z46" s="11">
         <v>2886177.2807118208</v>
       </c>
-      <c r="AA46" s="9"/>
+      <c r="AA46" s="11">
+        <v>2931512.7230943614</v>
+      </c>
       <c r="AB46" s="9"/>
       <c r="AC46" s="9"/>
       <c r="AD46" s="9"/>
@@ -4091,6 +4139,7 @@
       <c r="X47" s="12"/>
       <c r="Y47" s="12"/>
       <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
     </row>
     <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
@@ -4305,7 +4354,7 @@
     </row>
     <row r="53" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
@@ -4315,7 +4364,7 @@
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:96" x14ac:dyDescent="0.2">
@@ -4352,6 +4401,7 @@
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
       <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
     </row>
     <row r="60" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
@@ -4427,7 +4477,10 @@
       <c r="Y60" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z60" s="15"/>
+      <c r="Z60" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA60" s="15"/>
     </row>
     <row r="61" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
@@ -4508,8 +4561,10 @@
       <c r="Y62" s="16">
         <v>2.8718286651154017</v>
       </c>
-      <c r="Z62" s="16"/>
-      <c r="AA62" s="9"/>
+      <c r="Z62" s="16">
+        <v>7.5757590798194485</v>
+      </c>
+      <c r="AA62" s="16"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -4651,8 +4706,10 @@
       <c r="Y63" s="16">
         <v>1.8682615280752231</v>
       </c>
-      <c r="Z63" s="16"/>
-      <c r="AA63" s="9"/>
+      <c r="Z63" s="16">
+        <v>12.631374103375165</v>
+      </c>
+      <c r="AA63" s="16"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -4794,8 +4851,10 @@
       <c r="Y64" s="16">
         <v>5.7735706098648762</v>
       </c>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="9"/>
+      <c r="Z64" s="16">
+        <v>-7.3370150620445003</v>
+      </c>
+      <c r="AA64" s="16"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -4937,8 +4996,10 @@
       <c r="Y65" s="16">
         <v>7.8442967798062853</v>
       </c>
-      <c r="Z65" s="16"/>
-      <c r="AA65" s="9"/>
+      <c r="Z65" s="16">
+        <v>8.9112738746661933</v>
+      </c>
+      <c r="AA65" s="16"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -5080,8 +5141,10 @@
       <c r="Y66" s="16">
         <v>12.374866202127293</v>
       </c>
-      <c r="Z66" s="16"/>
-      <c r="AA66" s="9"/>
+      <c r="Z66" s="16">
+        <v>9.3262027687880789</v>
+      </c>
+      <c r="AA66" s="16"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -5223,8 +5286,10 @@
       <c r="Y67" s="16">
         <v>11.812362062585208</v>
       </c>
-      <c r="Z67" s="16"/>
-      <c r="AA67" s="9"/>
+      <c r="Z67" s="16">
+        <v>4.1877511000926688</v>
+      </c>
+      <c r="AA67" s="16"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -5366,8 +5431,10 @@
       <c r="Y68" s="16">
         <v>5.5982073642570072</v>
       </c>
-      <c r="Z68" s="16"/>
-      <c r="AA68" s="9"/>
+      <c r="Z68" s="16">
+        <v>-0.24455883126562128</v>
+      </c>
+      <c r="AA68" s="16"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
@@ -5509,8 +5576,10 @@
       <c r="Y69" s="16">
         <v>27.245100151352929</v>
       </c>
-      <c r="Z69" s="16"/>
-      <c r="AA69" s="9"/>
+      <c r="Z69" s="16">
+        <v>16.944695653043055</v>
+      </c>
+      <c r="AA69" s="16"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -5745,8 +5814,10 @@
       <c r="Y71" s="16">
         <v>9.8062116492616127</v>
       </c>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="9"/>
+      <c r="Z71" s="16">
+        <v>3.1511390578989875</v>
+      </c>
+      <c r="AA71" s="16"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
@@ -5839,6 +5910,7 @@
       <c r="X72" s="12"/>
       <c r="Y72" s="12"/>
       <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
@@ -6043,7 +6115,7 @@
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:91" x14ac:dyDescent="0.2">
@@ -6053,7 +6125,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:91" x14ac:dyDescent="0.2">
@@ -6090,6 +6162,7 @@
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
       <c r="Z84" s="14"/>
+      <c r="AA84" s="14"/>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
@@ -6165,7 +6238,10 @@
       <c r="Y85" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="Z85" s="15"/>
+      <c r="Z85" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA85" s="15"/>
     </row>
     <row r="86" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
@@ -6246,8 +6322,10 @@
       <c r="Y87" s="16">
         <v>2.2964116971613748</v>
       </c>
-      <c r="Z87" s="16"/>
-      <c r="AA87" s="9"/>
+      <c r="Z87" s="16">
+        <v>6.2123020266576532</v>
+      </c>
+      <c r="AA87" s="16"/>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -6389,8 +6467,10 @@
       <c r="Y88" s="16">
         <v>-0.57276315358845409</v>
       </c>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="9"/>
+      <c r="Z88" s="16">
+        <v>10.547945491015767</v>
+      </c>
+      <c r="AA88" s="16"/>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -6532,8 +6612,10 @@
       <c r="Y89" s="16">
         <v>3.604437371130615</v>
       </c>
-      <c r="Z89" s="16"/>
-      <c r="AA89" s="9"/>
+      <c r="Z89" s="16">
+        <v>-8.8775819073031386</v>
+      </c>
+      <c r="AA89" s="16"/>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
@@ -6675,8 +6757,10 @@
       <c r="Y90" s="16">
         <v>5.4347870911691558</v>
       </c>
-      <c r="Z90" s="16"/>
-      <c r="AA90" s="9"/>
+      <c r="Z90" s="16">
+        <v>6.458053102807753</v>
+      </c>
+      <c r="AA90" s="16"/>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -6818,8 +6902,10 @@
       <c r="Y91" s="16">
         <v>11.790488710750836</v>
       </c>
-      <c r="Z91" s="16"/>
-      <c r="AA91" s="9"/>
+      <c r="Z91" s="16">
+        <v>7.7489147496064845</v>
+      </c>
+      <c r="AA91" s="16"/>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
@@ -6961,8 +7047,10 @@
       <c r="Y92" s="16">
         <v>9.2712874495937996</v>
       </c>
-      <c r="Z92" s="16"/>
-      <c r="AA92" s="9"/>
+      <c r="Z92" s="16">
+        <v>2.2762019577913719</v>
+      </c>
+      <c r="AA92" s="16"/>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
@@ -7104,8 +7192,10 @@
       <c r="Y93" s="16">
         <v>3.1493464410568208</v>
       </c>
-      <c r="Z93" s="16"/>
-      <c r="AA93" s="9"/>
+      <c r="Z93" s="16">
+        <v>-2.0838453607496774</v>
+      </c>
+      <c r="AA93" s="16"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AD93" s="9"/>
@@ -7247,8 +7337,10 @@
       <c r="Y94" s="16">
         <v>24.328507594561529</v>
       </c>
-      <c r="Z94" s="16"/>
-      <c r="AA94" s="9"/>
+      <c r="Z94" s="16">
+        <v>14.88235565017942</v>
+      </c>
+      <c r="AA94" s="16"/>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
@@ -7483,8 +7575,10 @@
       <c r="Y96" s="16">
         <v>7.9340795453600492</v>
       </c>
-      <c r="Z96" s="16"/>
-      <c r="AA96" s="9"/>
+      <c r="Z96" s="16">
+        <v>1.5707781599389392</v>
+      </c>
+      <c r="AA96" s="16"/>
       <c r="AB96" s="9"/>
       <c r="AC96" s="9"/>
       <c r="AD96" s="9"/>
@@ -7577,6 +7671,7 @@
       <c r="X97" s="12"/>
       <c r="Y97" s="12"/>
       <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
     </row>
     <row r="98" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
@@ -7777,7 +7872,7 @@
     </row>
     <row r="102" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
@@ -7787,7 +7882,7 @@
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:96" x14ac:dyDescent="0.2">
@@ -7824,6 +7919,7 @@
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
+      <c r="AA108" s="14"/>
     </row>
     <row r="109" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
@@ -7902,6 +7998,9 @@
       <c r="Z109" s="15">
         <v>2024</v>
       </c>
+      <c r="AA109" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="110" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
@@ -7985,7 +8084,9 @@
       <c r="Z111" s="16">
         <v>136.58147374794103</v>
       </c>
-      <c r="AA111" s="9"/>
+      <c r="AA111" s="16">
+        <v>138.33478264116249</v>
+      </c>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -8135,7 +8236,9 @@
       <c r="Z112" s="16">
         <v>122.01006909508571</v>
       </c>
-      <c r="AA112" s="9"/>
+      <c r="AA112" s="16">
+        <v>124.30951724692233</v>
+      </c>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -8285,7 +8388,9 @@
       <c r="Z113" s="16">
         <v>125.61804877401137</v>
       </c>
-      <c r="AA113" s="9"/>
+      <c r="AA113" s="16">
+        <v>127.74181815105379</v>
+      </c>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -8435,7 +8540,9 @@
       <c r="Z114" s="16">
         <v>120.46982303150735</v>
       </c>
-      <c r="AA114" s="9"/>
+      <c r="AA114" s="16">
+        <v>123.24593121336183</v>
+      </c>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -8585,7 +8692,9 @@
       <c r="Z115" s="16">
         <v>103.75384337789058</v>
       </c>
-      <c r="AA115" s="9"/>
+      <c r="AA115" s="16">
+        <v>105.27264933973521</v>
+      </c>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -8735,7 +8844,9 @@
       <c r="Z116" s="16">
         <v>122.05657711961888</v>
       </c>
-      <c r="AA116" s="9"/>
+      <c r="AA116" s="16">
+        <v>124.33782281352453</v>
+      </c>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -8885,7 +8996,9 @@
       <c r="Z117" s="16">
         <v>123.03851590733323</v>
       </c>
-      <c r="AA117" s="9"/>
+      <c r="AA117" s="16">
+        <v>125.34970843475458</v>
+      </c>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -9035,7 +9148,9 @@
       <c r="Z118" s="16">
         <v>120.73864965047068</v>
       </c>
-      <c r="AA118" s="9"/>
+      <c r="AA118" s="16">
+        <v>122.90612041355399</v>
+      </c>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -9283,7 +9398,9 @@
       <c r="Z120" s="16">
         <v>120.42206115929423</v>
       </c>
-      <c r="AA120" s="9"/>
+      <c r="AA120" s="16">
+        <v>122.29573309679016</v>
+      </c>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AD120" s="9"/>
@@ -9381,6 +9498,7 @@
       <c r="X121" s="12"/>
       <c r="Y121" s="12"/>
       <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
     </row>
     <row r="122" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A122" s="13" t="s">
@@ -9399,7 +9517,7 @@
     </row>
     <row r="127" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:96" x14ac:dyDescent="0.2">
@@ -9409,7 +9527,7 @@
     </row>
     <row r="130" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:96" x14ac:dyDescent="0.2">
@@ -9446,6 +9564,7 @@
       <c r="X133" s="14"/>
       <c r="Y133" s="14"/>
       <c r="Z133" s="14"/>
+      <c r="AA133" s="14"/>
     </row>
     <row r="134" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
@@ -9524,6 +9643,9 @@
       <c r="Z134" s="15">
         <v>2024</v>
       </c>
+      <c r="AA134" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="135" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
@@ -9607,7 +9729,9 @@
       <c r="Z136" s="17">
         <v>7.116023551720108</v>
       </c>
-      <c r="AA136" s="9"/>
+      <c r="AA136" s="17">
+        <v>7.4212620645563581</v>
+      </c>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
       <c r="AD136" s="9"/>
@@ -9757,7 +9881,9 @@
       <c r="Z137" s="17">
         <v>8.2481274259500442E-2</v>
       </c>
-      <c r="AA137" s="9"/>
+      <c r="AA137" s="17">
+        <v>9.0061819408803562E-2</v>
+      </c>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -9907,7 +10033,9 @@
       <c r="Z138" s="17">
         <v>16.508796742162744</v>
       </c>
-      <c r="AA138" s="9"/>
+      <c r="AA138" s="17">
+        <v>14.830222892683137</v>
+      </c>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -10057,7 +10185,9 @@
       <c r="Z139" s="17">
         <v>0.63637126591366022</v>
       </c>
-      <c r="AA139" s="9"/>
+      <c r="AA139" s="17">
+        <v>0.67190731833788009</v>
+      </c>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -10207,7 +10337,9 @@
       <c r="Z140" s="17">
         <v>14.876073613130403</v>
       </c>
-      <c r="AA140" s="9"/>
+      <c r="AA140" s="17">
+        <v>15.76661833389587</v>
+      </c>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -10357,7 +10489,9 @@
       <c r="Z141" s="17">
         <v>50.777094864359093</v>
       </c>
-      <c r="AA141" s="9"/>
+      <c r="AA141" s="17">
+        <v>51.287376655570924</v>
+      </c>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
       <c r="AD141" s="9"/>
@@ -10507,7 +10641,9 @@
       <c r="Z142" s="17">
         <v>8.4507683468037555</v>
       </c>
-      <c r="AA142" s="9"/>
+      <c r="AA142" s="17">
+        <v>8.1725721339538602</v>
+      </c>
       <c r="AB142" s="9"/>
       <c r="AC142" s="9"/>
       <c r="AD142" s="9"/>
@@ -10657,7 +10793,9 @@
       <c r="Z143" s="17">
         <v>1.5523903416507314</v>
       </c>
-      <c r="AA143" s="9"/>
+      <c r="AA143" s="17">
+        <v>1.7599787815931669</v>
+      </c>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
       <c r="AD143" s="9"/>
@@ -10905,7 +11043,9 @@
       <c r="Z145" s="16">
         <v>100</v>
       </c>
-      <c r="AA145" s="9"/>
+      <c r="AA145" s="16">
+        <v>100</v>
+      </c>
       <c r="AB145" s="9"/>
       <c r="AC145" s="9"/>
       <c r="AD145" s="9"/>
@@ -11003,6 +11143,7 @@
       <c r="X146" s="12"/>
       <c r="Y146" s="12"/>
       <c r="Z146" s="12"/>
+      <c r="AA146" s="12"/>
     </row>
     <row r="147" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A147" s="13" t="s">
@@ -11217,7 +11358,7 @@
     </row>
     <row r="152" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:96" x14ac:dyDescent="0.2">
@@ -11227,7 +11368,7 @@
     </row>
     <row r="155" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:96" x14ac:dyDescent="0.2">
@@ -11264,6 +11405,7 @@
       <c r="X158" s="14"/>
       <c r="Y158" s="14"/>
       <c r="Z158" s="14"/>
+      <c r="AA158" s="14"/>
     </row>
     <row r="159" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
@@ -11342,6 +11484,9 @@
       <c r="Z159" s="15">
         <v>2024</v>
       </c>
+      <c r="AA159" s="15">
+        <v>2025</v>
+      </c>
     </row>
     <row r="160" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
@@ -11425,7 +11570,9 @@
       <c r="Z161" s="17">
         <v>6.2741029207054888</v>
       </c>
-      <c r="AA161" s="9"/>
+      <c r="AA161" s="17">
+        <v>6.5608133208448685</v>
+      </c>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -11575,7 +11722,9 @@
       <c r="Z162" s="17">
         <v>8.1407748778777989E-2</v>
       </c>
-      <c r="AA162" s="9"/>
+      <c r="AA162" s="17">
+        <v>8.8602839690482743E-2</v>
+      </c>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -11725,7 +11874,9 @@
       <c r="Z163" s="17">
         <v>15.82593703972875</v>
       </c>
-      <c r="AA163" s="9"/>
+      <c r="AA163" s="17">
+        <v>14.197958091568955</v>
+      </c>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -11875,7 +12026,9 @@
       <c r="Z164" s="17">
         <v>0.63611896801599732</v>
       </c>
-      <c r="AA164" s="9"/>
+      <c r="AA164" s="17">
+        <v>0.66672706563412054</v>
+      </c>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -12025,7 +12178,9 @@
       <c r="Z165" s="17">
         <v>17.265938187233381</v>
       </c>
-      <c r="AA165" s="9"/>
+      <c r="AA165" s="17">
+        <v>18.316154857834391</v>
+      </c>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -12175,7 +12330,9 @@
       <c r="Z166" s="17">
         <v>50.09711535048681</v>
       </c>
-      <c r="AA166" s="9"/>
+      <c r="AA166" s="17">
+        <v>50.445047088455233</v>
+      </c>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -12325,7 +12482,9 @@
       <c r="Z167" s="17">
         <v>8.2710599619738741</v>
       </c>
-      <c r="AA167" s="9"/>
+      <c r="AA167" s="17">
+        <v>7.9734585176838886</v>
+      </c>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
       <c r="AD167" s="9"/>
@@ -12475,7 +12634,9 @@
       <c r="Z168" s="17">
         <v>1.5483198230769124</v>
       </c>
-      <c r="AA168" s="9"/>
+      <c r="AA168" s="17">
+        <v>1.7512382182880746</v>
+      </c>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
       <c r="AD168" s="9"/>
@@ -12723,7 +12884,9 @@
       <c r="Z170" s="16">
         <v>100</v>
       </c>
-      <c r="AA170" s="9"/>
+      <c r="AA170" s="16">
+        <v>100</v>
+      </c>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
       <c r="AD170" s="9"/>
@@ -12821,6 +12984,7 @@
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
       <c r="Z171" s="12"/>
+      <c r="AA171" s="12"/>
     </row>
     <row r="172" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A172" s="13" t="s">
@@ -13016,9 +13180,9 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="50" max="25" man="1"/>
-    <brk id="100" max="25" man="1"/>
-    <brk id="124" max="25" man="1"/>
+    <brk id="50" max="26" man="1"/>
+    <brk id="100" max="26" man="1"/>
+    <brk id="124" max="26" man="1"/>
     <brk id="172" max="81" man="1"/>
   </rowBreaks>
 </worksheet>
